--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_12_18.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_12_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>102861.8130247036</v>
+        <v>100207.0927270883</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9506258.26344247</v>
+        <v>9506258.263442472</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -1133,16 +1133,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>6.602605461619505</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>3.487951988786145</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>15.30273751513505</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>15.30273751513505</v>
@@ -1175,14 +1175,14 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
     </row>
     <row r="9">
@@ -1215,64 +1215,64 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>12.73205987707308</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
+      <c r="T9" t="n">
+        <v>13.47865120333094</v>
+      </c>
+      <c r="U9" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="I9" t="n">
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.7465913262578567</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1306,46 +1306,46 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="I10" t="n">
-        <v>10.75721046822444</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2.721440735106512</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>13.47865120333094</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1370,25 +1370,25 @@
         <v>378.4919228242852</v>
       </c>
       <c r="C11" t="n">
-        <v>361.0309729318122</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>377.6884512330664</v>
+        <v>124.8102690755278</v>
       </c>
       <c r="F11" t="n">
-        <v>402.6341269025161</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>406.6968304497477</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>290.5401888550833</v>
       </c>
       <c r="I11" t="n">
-        <v>37.99131464094461</v>
+        <v>37.99131464094458</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>105.3337690427004</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>199.7505722647807</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>246.7546150105458</v>
       </c>
       <c r="V11" t="n">
         <v>323.5103396309395</v>
@@ -1433,7 +1433,7 @@
         <v>344.9990498782176</v>
       </c>
       <c r="X11" t="n">
-        <v>191.3250450205165</v>
+        <v>365.4891818392737</v>
       </c>
       <c r="Y11" t="n">
         <v>381.9960198168582</v>
@@ -1467,7 +1467,7 @@
         <v>89.68484385040131</v>
       </c>
       <c r="I12" t="n">
-        <v>9.005073800167594</v>
+        <v>9.00507380016758</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,22 +1528,22 @@
         <v>175.5900613427419</v>
       </c>
       <c r="C13" t="n">
-        <v>163.0049022594325</v>
+        <v>43.46751011597983</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>142.1920438073738</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>161.7915256366539</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>106.3450987844873</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1582,10 +1582,10 @@
         <v>215.3396579088457</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>281.970335887335</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>247.8957244846326</v>
       </c>
       <c r="W13" t="n">
         <v>282.2810794973956</v>
@@ -1607,7 +1607,7 @@
         <v>378.4919228242852</v>
       </c>
       <c r="C14" t="n">
-        <v>248.9776312049792</v>
+        <v>361.0309729318122</v>
       </c>
       <c r="D14" t="n">
         <v>350.4411227814876</v>
@@ -1616,7 +1616,7 @@
         <v>377.6884512330664</v>
       </c>
       <c r="F14" t="n">
-        <v>402.6341269025161</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>406.6968304497477</v>
@@ -1625,7 +1625,7 @@
         <v>290.5401888550833</v>
       </c>
       <c r="I14" t="n">
-        <v>37.99131464094459</v>
+        <v>37.99131464094458</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>105.3337690427004</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>199.7505722647807</v>
       </c>
       <c r="U14" t="n">
         <v>246.7546150105458</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>323.5103396309395</v>
       </c>
       <c r="W14" t="n">
         <v>344.9990498782176</v>
@@ -1673,7 +1673,7 @@
         <v>365.4891818392737</v>
       </c>
       <c r="Y14" t="n">
-        <v>381.9960198168582</v>
+        <v>43.98212405411965</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>89.68484385040131</v>
       </c>
       <c r="I15" t="n">
-        <v>9.005073800167594</v>
+        <v>9.00507380016758</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,25 +1765,25 @@
         <v>175.5900613427419</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>43.46751011597971</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>142.1920438073738</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>161.7915256366539</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.5809889846799</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>28.58534410901714</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,7 +1816,7 @@
         <v>185.6601849253918</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>215.3396579088457</v>
       </c>
       <c r="U16" t="n">
         <v>281.970335887335</v>
@@ -1831,7 +1831,7 @@
         <v>221.4677365498418</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>214.3427345128994</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>335.4133196197536</v>
+        <v>335.4133196197535</v>
       </c>
       <c r="C17" t="n">
         <v>317.9523697272805</v>
@@ -1850,16 +1850,16 @@
         <v>307.3625195769559</v>
       </c>
       <c r="E17" t="n">
-        <v>334.6098480285348</v>
+        <v>334.6098480285347</v>
       </c>
       <c r="F17" t="n">
         <v>359.5555236979844</v>
       </c>
       <c r="G17" t="n">
-        <v>363.6182272452161</v>
+        <v>264.0619640843514</v>
       </c>
       <c r="H17" t="n">
-        <v>247.4615856505517</v>
+        <v>247.4615856505516</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>62.25516583816881</v>
+        <v>62.25516583816875</v>
       </c>
       <c r="T17" t="n">
         <v>156.671969060249</v>
       </c>
       <c r="U17" t="n">
-        <v>104.1197486451479</v>
+        <v>203.6760118060141</v>
       </c>
       <c r="V17" t="n">
-        <v>280.4317364264079</v>
+        <v>280.4317364264078</v>
       </c>
       <c r="W17" t="n">
-        <v>301.920446673686</v>
+        <v>301.9204466736859</v>
       </c>
       <c r="X17" t="n">
         <v>322.410578634742</v>
       </c>
       <c r="Y17" t="n">
-        <v>338.9174166123266</v>
+        <v>338.9174166123265</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>89.68484385040131</v>
       </c>
       <c r="I18" t="n">
-        <v>9.005073800167594</v>
+        <v>9.00507380016758</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>132.5114581382103</v>
+        <v>132.5114581382102</v>
       </c>
       <c r="C19" t="n">
         <v>119.9262990549008</v>
@@ -2008,19 +2008,19 @@
         <v>101.2949509744853</v>
       </c>
       <c r="E19" t="n">
-        <v>99.11344060284216</v>
+        <v>99.11344060284212</v>
       </c>
       <c r="F19" t="n">
-        <v>98.10052597920424</v>
+        <v>98.10052597920419</v>
       </c>
       <c r="G19" t="n">
-        <v>118.7129224321223</v>
+        <v>118.7129224321222</v>
       </c>
       <c r="H19" t="n">
-        <v>97.50238578014834</v>
+        <v>97.5023857801483</v>
       </c>
       <c r="I19" t="n">
-        <v>49.26154023196643</v>
+        <v>49.26154023196637</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.95498270265664</v>
+        <v>41.95498270265655</v>
       </c>
       <c r="S19" t="n">
-        <v>142.5815817208602</v>
+        <v>142.5815817208601</v>
       </c>
       <c r="T19" t="n">
-        <v>172.261054704314</v>
+        <v>172.2610547043139</v>
       </c>
       <c r="U19" t="n">
-        <v>238.8917326828034</v>
+        <v>238.8917326828033</v>
       </c>
       <c r="V19" t="n">
-        <v>204.817121280101</v>
+        <v>204.8171212801009</v>
       </c>
       <c r="W19" t="n">
-        <v>239.202476292864</v>
+        <v>239.2024762928639</v>
       </c>
       <c r="X19" t="n">
         <v>178.3891333453101</v>
       </c>
       <c r="Y19" t="n">
-        <v>171.2641313083678</v>
+        <v>171.2641313083677</v>
       </c>
     </row>
     <row r="20">
@@ -2090,10 +2090,10 @@
         <v>334.6098480285347</v>
       </c>
       <c r="F20" t="n">
-        <v>359.5555236979844</v>
+        <v>259.9992605371199</v>
       </c>
       <c r="G20" t="n">
-        <v>326.3171299225194</v>
+        <v>363.618227245216</v>
       </c>
       <c r="H20" t="n">
         <v>247.4615856505516</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>62.25516583816875</v>
       </c>
       <c r="T20" t="n">
         <v>156.671969060249</v>
@@ -2178,7 +2178,7 @@
         <v>89.68484385040131</v>
       </c>
       <c r="I21" t="n">
-        <v>9.005073800167594</v>
+        <v>9.00507380016758</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2245,16 +2245,16 @@
         <v>101.2949509744853</v>
       </c>
       <c r="E22" t="n">
-        <v>99.1134406028421</v>
+        <v>99.11344060284212</v>
       </c>
       <c r="F22" t="n">
-        <v>98.10052597920418</v>
+        <v>98.10052597920419</v>
       </c>
       <c r="G22" t="n">
         <v>118.7129224321222</v>
       </c>
       <c r="H22" t="n">
-        <v>97.50238578014829</v>
+        <v>97.5023857801483</v>
       </c>
       <c r="I22" t="n">
         <v>49.26154023196637</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.95498270265658</v>
+        <v>41.95498270265655</v>
       </c>
       <c r="S22" t="n">
         <v>142.5815817208601</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>62.25516583816872</v>
+        <v>62.25516583816875</v>
       </c>
       <c r="T23" t="n">
         <v>156.671969060249</v>
@@ -2482,19 +2482,19 @@
         <v>101.2949509744853</v>
       </c>
       <c r="E25" t="n">
-        <v>99.1134406028421</v>
+        <v>99.11344060284212</v>
       </c>
       <c r="F25" t="n">
-        <v>98.10052597920418</v>
+        <v>98.10052597920419</v>
       </c>
       <c r="G25" t="n">
         <v>118.7129224321222</v>
       </c>
       <c r="H25" t="n">
-        <v>97.50238578014829</v>
+        <v>97.5023857801483</v>
       </c>
       <c r="I25" t="n">
-        <v>49.26154023196636</v>
+        <v>49.26154023196637</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2555,7 +2555,7 @@
         <v>339.6552384589489</v>
       </c>
       <c r="C26" t="n">
-        <v>322.1942885664758</v>
+        <v>322.1942885664759</v>
       </c>
       <c r="D26" t="n">
         <v>311.6044384161513</v>
@@ -2564,7 +2564,7 @@
         <v>338.8517668677301</v>
       </c>
       <c r="F26" t="n">
-        <v>363.7974425371797</v>
+        <v>363.7974425371798</v>
       </c>
       <c r="G26" t="n">
         <v>367.8601460844114</v>
@@ -2606,19 +2606,19 @@
         <v>66.49708467736414</v>
       </c>
       <c r="T26" t="n">
-        <v>160.9138878994443</v>
+        <v>160.9138878994444</v>
       </c>
       <c r="U26" t="n">
-        <v>207.9179306452094</v>
+        <v>207.9179306452095</v>
       </c>
       <c r="V26" t="n">
-        <v>284.6736552656032</v>
+        <v>284.6736552656033</v>
       </c>
       <c r="W26" t="n">
-        <v>306.1623655128813</v>
+        <v>306.1623655128814</v>
       </c>
       <c r="X26" t="n">
-        <v>326.6524974739373</v>
+        <v>326.6524974739374</v>
       </c>
       <c r="Y26" t="n">
         <v>343.1593354515219</v>
@@ -2652,7 +2652,7 @@
         <v>89.68484385040131</v>
       </c>
       <c r="I27" t="n">
-        <v>9.005073800167594</v>
+        <v>9.00507380016758</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>136.7533769774056</v>
+        <v>136.7533769774057</v>
       </c>
       <c r="C28" t="n">
-        <v>23.03747923260744</v>
+        <v>124.1682178940962</v>
       </c>
       <c r="D28" t="n">
         <v>105.5368698136807</v>
@@ -2728,10 +2728,10 @@
         <v>122.9548412713176</v>
       </c>
       <c r="H28" t="n">
-        <v>101.7443046193437</v>
+        <v>0.6135659578535887</v>
       </c>
       <c r="I28" t="n">
-        <v>53.50345907116175</v>
+        <v>53.50345907116178</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,25 +2758,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.19690154185194</v>
+        <v>46.19690154185197</v>
       </c>
       <c r="S28" t="n">
         <v>146.8235005600555</v>
       </c>
       <c r="T28" t="n">
-        <v>176.5029735435093</v>
+        <v>176.5029735435094</v>
       </c>
       <c r="U28" t="n">
         <v>243.1336515219987</v>
       </c>
       <c r="V28" t="n">
-        <v>209.0590401192963</v>
+        <v>209.0590401192964</v>
       </c>
       <c r="W28" t="n">
-        <v>243.4443951320593</v>
+        <v>243.4443951320594</v>
       </c>
       <c r="X28" t="n">
-        <v>182.6310521845054</v>
+        <v>182.6310521845055</v>
       </c>
       <c r="Y28" t="n">
         <v>175.5060501475631</v>
@@ -2792,7 +2792,7 @@
         <v>339.6552384589489</v>
       </c>
       <c r="C29" t="n">
-        <v>322.1942885664758</v>
+        <v>322.1942885664759</v>
       </c>
       <c r="D29" t="n">
         <v>311.6044384161513</v>
@@ -2801,7 +2801,7 @@
         <v>338.8517668677301</v>
       </c>
       <c r="F29" t="n">
-        <v>363.7974425371797</v>
+        <v>363.7974425371798</v>
       </c>
       <c r="G29" t="n">
         <v>367.8601460844114</v>
@@ -2840,22 +2840,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>66.49708467736413</v>
+        <v>66.49708467736414</v>
       </c>
       <c r="T29" t="n">
-        <v>160.9138878994443</v>
+        <v>160.9138878994444</v>
       </c>
       <c r="U29" t="n">
-        <v>207.9179306452094</v>
+        <v>207.9179306452095</v>
       </c>
       <c r="V29" t="n">
-        <v>284.6736552656032</v>
+        <v>284.6736552656033</v>
       </c>
       <c r="W29" t="n">
-        <v>306.1623655128813</v>
+        <v>306.1623655128814</v>
       </c>
       <c r="X29" t="n">
-        <v>326.6524974739373</v>
+        <v>326.6524974739374</v>
       </c>
       <c r="Y29" t="n">
         <v>343.1593354515219</v>
@@ -2889,7 +2889,7 @@
         <v>89.68484385040131</v>
       </c>
       <c r="I30" t="n">
-        <v>9.005073800167594</v>
+        <v>9.00507380016758</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>136.7533769774056</v>
+        <v>136.7533769774057</v>
       </c>
       <c r="C31" t="n">
-        <v>23.03747923260644</v>
+        <v>124.1682178940962</v>
       </c>
       <c r="D31" t="n">
         <v>105.5368698136807</v>
@@ -2965,10 +2965,10 @@
         <v>122.9548412713176</v>
       </c>
       <c r="H31" t="n">
-        <v>101.7443046193437</v>
+        <v>0.6135659578532511</v>
       </c>
       <c r="I31" t="n">
-        <v>53.50345907116174</v>
+        <v>53.50345907116179</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,25 +2995,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.19690154185196</v>
+        <v>46.19690154185198</v>
       </c>
       <c r="S31" t="n">
         <v>146.8235005600555</v>
       </c>
       <c r="T31" t="n">
-        <v>176.5029735435093</v>
+        <v>176.5029735435094</v>
       </c>
       <c r="U31" t="n">
         <v>243.1336515219987</v>
       </c>
       <c r="V31" t="n">
-        <v>209.0590401192963</v>
+        <v>209.0590401192964</v>
       </c>
       <c r="W31" t="n">
-        <v>243.4443951320593</v>
+        <v>243.4443951320594</v>
       </c>
       <c r="X31" t="n">
-        <v>182.6310521845054</v>
+        <v>182.6310521845055</v>
       </c>
       <c r="Y31" t="n">
         <v>175.5060501475631</v>
@@ -3032,13 +3032,13 @@
         <v>317.9523697272805</v>
       </c>
       <c r="D32" t="n">
-        <v>307.3625195769558</v>
+        <v>307.3625195769559</v>
       </c>
       <c r="E32" t="n">
         <v>334.6098480285347</v>
       </c>
       <c r="F32" t="n">
-        <v>359.5555236979843</v>
+        <v>359.5555236979844</v>
       </c>
       <c r="G32" t="n">
         <v>363.618227245216</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.25516583816872</v>
+        <v>62.25516583816874</v>
       </c>
       <c r="T32" t="n">
-        <v>156.6719690602489</v>
+        <v>156.671969060249</v>
       </c>
       <c r="U32" t="n">
-        <v>203.676011806014</v>
+        <v>203.6760118060141</v>
       </c>
       <c r="V32" t="n">
         <v>280.4317364264078</v>
@@ -3092,7 +3092,7 @@
         <v>301.9204466736859</v>
       </c>
       <c r="X32" t="n">
-        <v>322.4105786347419</v>
+        <v>322.410578634742</v>
       </c>
       <c r="Y32" t="n">
         <v>338.9174166123265</v>
@@ -3126,7 +3126,7 @@
         <v>89.68484385040131</v>
       </c>
       <c r="I33" t="n">
-        <v>9.005073800167594</v>
+        <v>9.00507380016758</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>132.5114581382102</v>
       </c>
       <c r="C34" t="n">
-        <v>119.9262990549007</v>
+        <v>119.9262990549008</v>
       </c>
       <c r="D34" t="n">
         <v>101.2949509744853</v>
       </c>
       <c r="E34" t="n">
-        <v>99.11344060284208</v>
+        <v>99.11344060284212</v>
       </c>
       <c r="F34" t="n">
-        <v>98.10052597920415</v>
+        <v>98.10052597920419</v>
       </c>
       <c r="G34" t="n">
         <v>118.7129224321222</v>
       </c>
       <c r="H34" t="n">
-        <v>97.50238578014826</v>
+        <v>97.50238578014829</v>
       </c>
       <c r="I34" t="n">
-        <v>49.26154023196634</v>
+        <v>49.26154023196638</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95498270265655</v>
+        <v>41.95498270265657</v>
       </c>
       <c r="S34" t="n">
         <v>142.5815817208601</v>
@@ -3281,7 +3281,7 @@
         <v>363.618227245216</v>
       </c>
       <c r="H35" t="n">
-        <v>247.4615856505515</v>
+        <v>247.4615856505516</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.25516583816869</v>
+        <v>62.25516583816871</v>
       </c>
       <c r="T35" t="n">
-        <v>156.6719690602489</v>
+        <v>156.671969060249</v>
       </c>
       <c r="U35" t="n">
-        <v>203.676011806014</v>
+        <v>203.6760118060141</v>
       </c>
       <c r="V35" t="n">
         <v>280.4317364264078</v>
@@ -3424,25 +3424,25 @@
         <v>132.5114581382102</v>
       </c>
       <c r="C37" t="n">
-        <v>119.9262990549007</v>
+        <v>119.9262990549008</v>
       </c>
       <c r="D37" t="n">
         <v>101.2949509744853</v>
       </c>
       <c r="E37" t="n">
-        <v>99.11344060284208</v>
+        <v>99.11344060284209</v>
       </c>
       <c r="F37" t="n">
-        <v>98.10052597920415</v>
+        <v>98.10052597920416</v>
       </c>
       <c r="G37" t="n">
         <v>118.7129224321222</v>
       </c>
       <c r="H37" t="n">
-        <v>97.50238578014853</v>
+        <v>97.50238578014826</v>
       </c>
       <c r="I37" t="n">
-        <v>49.26154023196633</v>
+        <v>49.26154023196635</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95498270265652</v>
+        <v>41.95498270265654</v>
       </c>
       <c r="S37" t="n">
         <v>142.5815817208601</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.25516583816869</v>
+        <v>62.2551658381687</v>
       </c>
       <c r="T38" t="n">
         <v>156.6719690602489</v>
@@ -3676,10 +3676,10 @@
         <v>118.7129224321222</v>
       </c>
       <c r="H40" t="n">
-        <v>97.50238578014826</v>
+        <v>97.50238578014824</v>
       </c>
       <c r="I40" t="n">
-        <v>49.26154023196633</v>
+        <v>49.26154023196634</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95498270265652</v>
+        <v>41.95498270265653</v>
       </c>
       <c r="S40" t="n">
         <v>142.5815817208601</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>335.4133196197535</v>
+        <v>335.4133196197536</v>
       </c>
       <c r="C41" t="n">
         <v>317.9523697272805</v>
@@ -3746,13 +3746,13 @@
         <v>307.3625195769559</v>
       </c>
       <c r="E41" t="n">
-        <v>334.6098480285347</v>
+        <v>334.6098480285348</v>
       </c>
       <c r="F41" t="n">
         <v>359.5555236979844</v>
       </c>
       <c r="G41" t="n">
-        <v>363.618227245216</v>
+        <v>363.6182272452161</v>
       </c>
       <c r="H41" t="n">
         <v>247.4615856505516</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.25516583816872</v>
+        <v>62.25516583816875</v>
       </c>
       <c r="T41" t="n">
         <v>156.671969060249</v>
@@ -3800,7 +3800,7 @@
         <v>280.4317364264078</v>
       </c>
       <c r="W41" t="n">
-        <v>301.9204466736859</v>
+        <v>301.920446673686</v>
       </c>
       <c r="X41" t="n">
         <v>322.410578634742</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>132.5114581382102</v>
+        <v>132.5114581382103</v>
       </c>
       <c r="C43" t="n">
         <v>119.9262990549008</v>
@@ -3904,19 +3904,19 @@
         <v>101.2949509744853</v>
       </c>
       <c r="E43" t="n">
-        <v>99.1134406028421</v>
+        <v>99.11344060284213</v>
       </c>
       <c r="F43" t="n">
-        <v>98.10052597920418</v>
+        <v>98.10052597920421</v>
       </c>
       <c r="G43" t="n">
-        <v>118.7129224321222</v>
+        <v>118.7129224321223</v>
       </c>
       <c r="H43" t="n">
-        <v>97.50238578014829</v>
+        <v>97.50238578014832</v>
       </c>
       <c r="I43" t="n">
-        <v>49.26154023196636</v>
+        <v>49.26154023196639</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95498270265655</v>
+        <v>41.95498270265658</v>
       </c>
       <c r="S43" t="n">
-        <v>142.5815817208601</v>
+        <v>142.5815817208602</v>
       </c>
       <c r="T43" t="n">
-        <v>172.2610547043139</v>
+        <v>172.261054704314</v>
       </c>
       <c r="U43" t="n">
         <v>238.8917326828033</v>
       </c>
       <c r="V43" t="n">
-        <v>204.8171212801009</v>
+        <v>204.817121280101</v>
       </c>
       <c r="W43" t="n">
-        <v>239.2024762928639</v>
+        <v>239.202476292864</v>
       </c>
       <c r="X43" t="n">
         <v>178.3891333453101</v>
       </c>
       <c r="Y43" t="n">
-        <v>171.2641313083677</v>
+        <v>171.2641313083678</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.25516583816872</v>
+        <v>62.25516583816875</v>
       </c>
       <c r="T44" t="n">
         <v>156.671969060249</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>132.5114581382102</v>
+        <v>132.5114581382103</v>
       </c>
       <c r="C46" t="n">
         <v>119.9262990549008</v>
@@ -4141,19 +4141,19 @@
         <v>101.2949509744853</v>
       </c>
       <c r="E46" t="n">
-        <v>99.1134406028421</v>
+        <v>99.11344060284213</v>
       </c>
       <c r="F46" t="n">
-        <v>98.10052597920418</v>
+        <v>98.10052597920421</v>
       </c>
       <c r="G46" t="n">
         <v>118.7129224321222</v>
       </c>
       <c r="H46" t="n">
-        <v>97.50238578014829</v>
+        <v>97.50238578014832</v>
       </c>
       <c r="I46" t="n">
-        <v>49.26154023196636</v>
+        <v>49.26154023196639</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95498270265655</v>
+        <v>41.95498270265658</v>
       </c>
       <c r="S46" t="n">
-        <v>142.5815817208601</v>
+        <v>142.5815817208602</v>
       </c>
       <c r="T46" t="n">
-        <v>172.2610547043139</v>
+        <v>172.261054704314</v>
       </c>
       <c r="U46" t="n">
         <v>238.8917326828033</v>
       </c>
       <c r="V46" t="n">
-        <v>204.8171212801009</v>
+        <v>204.817121280101</v>
       </c>
       <c r="W46" t="n">
-        <v>239.2024762928639</v>
+        <v>239.202476292864</v>
       </c>
       <c r="X46" t="n">
         <v>178.3891333453101</v>
       </c>
       <c r="Y46" t="n">
-        <v>171.2641313083677</v>
+        <v>171.2641313083678</v>
       </c>
     </row>
   </sheetData>
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>35.66202407096459</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="C8" t="n">
-        <v>35.66202407096459</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="D8" t="n">
-        <v>35.66202407096459</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="E8" t="n">
-        <v>32.13884024390788</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="F8" t="n">
         <v>16.68152962255934</v>
@@ -4811,43 +4811,43 @@
         <v>16.37392914119451</v>
       </c>
       <c r="M8" t="n">
-        <v>16.37392914119451</v>
+        <v>31.52363928117821</v>
       </c>
       <c r="N8" t="n">
-        <v>30.9115297805728</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="O8" t="n">
-        <v>46.0612399205565</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="P8" t="n">
         <v>61.2109500605402</v>
       </c>
       <c r="Q8" t="n">
-        <v>51.11933469231312</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="R8" t="n">
-        <v>35.66202407096459</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="S8" t="n">
-        <v>35.66202407096459</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="T8" t="n">
-        <v>35.66202407096459</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="U8" t="n">
-        <v>35.66202407096459</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="V8" t="n">
-        <v>35.66202407096459</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="W8" t="n">
-        <v>35.66202407096459</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="X8" t="n">
-        <v>35.66202407096459</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="Y8" t="n">
-        <v>35.66202407096459</v>
+        <v>30.29632881784312</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>61.2109500605402</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="C9" t="n">
-        <v>61.2109500605402</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="D9" t="n">
-        <v>48.35028351804213</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="E9" t="n">
-        <v>32.89297289669359</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="F9" t="n">
-        <v>32.89297289669359</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="G9" t="n">
-        <v>32.89297289669359</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="H9" t="n">
-        <v>17.43566227534506</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="I9" t="n">
-        <v>1.978351653996518</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="J9" t="n">
         <v>1.224219001210804</v>
@@ -4887,19 +4887,19 @@
         <v>16.37392914119451</v>
       </c>
       <c r="L9" t="n">
+        <v>16.37392914119451</v>
+      </c>
+      <c r="M9" t="n">
         <v>31.52363928117821</v>
       </c>
-      <c r="M9" t="n">
-        <v>46.0612399205565</v>
-      </c>
       <c r="N9" t="n">
-        <v>46.0612399205565</v>
+        <v>46.6733494211619</v>
       </c>
       <c r="O9" t="n">
-        <v>46.0612399205565</v>
+        <v>46.6733494211619</v>
       </c>
       <c r="P9" t="n">
-        <v>61.2109500605402</v>
+        <v>46.6733494211619</v>
       </c>
       <c r="Q9" t="n">
         <v>61.2109500605402</v>
@@ -4908,25 +4908,25 @@
         <v>61.2109500605402</v>
       </c>
       <c r="S9" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="T9" t="n">
-        <v>61.2109500605402</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="U9" t="n">
-        <v>61.2109500605402</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="V9" t="n">
-        <v>61.2109500605402</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="W9" t="n">
-        <v>61.2109500605402</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="X9" t="n">
-        <v>61.2109500605402</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="Y9" t="n">
-        <v>61.2109500605402</v>
+        <v>1.224219001210804</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>58.46202002507908</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="C10" t="n">
-        <v>58.46202002507908</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="D10" t="n">
-        <v>43.00470940373054</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="E10" t="n">
-        <v>43.00470940373054</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="F10" t="n">
-        <v>43.00470940373054</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="G10" t="n">
-        <v>43.00470940373054</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="H10" t="n">
-        <v>27.54739878238201</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="I10" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="J10" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="K10" t="n">
         <v>1.224219001210804</v>
       </c>
       <c r="L10" t="n">
-        <v>16.37392914119451</v>
+        <v>15.7618196405891</v>
       </c>
       <c r="M10" t="n">
-        <v>31.52363928117821</v>
+        <v>30.9115297805728</v>
       </c>
       <c r="N10" t="n">
-        <v>46.6733494211619</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="O10" t="n">
         <v>61.2109500605402</v>
       </c>
       <c r="P10" t="n">
-        <v>58.46202002507908</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="Q10" t="n">
-        <v>58.46202002507908</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="R10" t="n">
-        <v>58.46202002507908</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="S10" t="n">
-        <v>58.46202002507908</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="T10" t="n">
-        <v>58.46202002507908</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="U10" t="n">
-        <v>58.46202002507908</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="V10" t="n">
-        <v>58.46202002507908</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="W10" t="n">
-        <v>58.46202002507908</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="X10" t="n">
-        <v>58.46202002507908</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="Y10" t="n">
-        <v>58.46202002507908</v>
+        <v>16.68152962255934</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1668.159290560197</v>
+        <v>934.8228328462753</v>
       </c>
       <c r="C11" t="n">
-        <v>1303.481540124023</v>
+        <v>934.8228328462753</v>
       </c>
       <c r="D11" t="n">
-        <v>1303.481540124023</v>
+        <v>934.8228328462753</v>
       </c>
       <c r="E11" t="n">
-        <v>921.9780540300169</v>
+        <v>808.7518539821049</v>
       </c>
       <c r="F11" t="n">
-        <v>515.2769157446471</v>
+        <v>808.7518539821049</v>
       </c>
       <c r="G11" t="n">
-        <v>104.4720365024777</v>
+        <v>397.9469747399355</v>
       </c>
       <c r="H11" t="n">
-        <v>104.4720365024777</v>
+        <v>104.4720365024776</v>
       </c>
       <c r="I11" t="n">
-        <v>66.09697120859421</v>
+        <v>66.09697120859423</v>
       </c>
       <c r="J11" t="n">
         <v>253.5456909828081</v>
       </c>
       <c r="K11" t="n">
-        <v>585.2212491024691</v>
+        <v>585.2212491024695</v>
       </c>
       <c r="L11" t="n">
-        <v>1033.595869566923</v>
+        <v>1033.595869566924</v>
       </c>
       <c r="M11" t="n">
-        <v>1564.16846481803</v>
+        <v>1564.168464818031</v>
       </c>
       <c r="N11" t="n">
-        <v>2107.940087735704</v>
+        <v>2107.940087735705</v>
       </c>
       <c r="O11" t="n">
-        <v>2608.072950461578</v>
+        <v>2608.072950461579</v>
       </c>
       <c r="P11" t="n">
-        <v>3000.423776956433</v>
+        <v>3000.423776956434</v>
       </c>
       <c r="Q11" t="n">
-        <v>3246.890161206305</v>
+        <v>3246.890161206306</v>
       </c>
       <c r="R11" t="n">
-        <v>3304.84856042971</v>
+        <v>3304.848560429711</v>
       </c>
       <c r="S11" t="n">
-        <v>3304.84856042971</v>
+        <v>3198.450813921933</v>
       </c>
       <c r="T11" t="n">
-        <v>3304.84856042971</v>
+        <v>2996.682559109023</v>
       </c>
       <c r="U11" t="n">
-        <v>3304.84856042971</v>
+        <v>2747.435473239785</v>
       </c>
       <c r="V11" t="n">
-        <v>2978.070439590377</v>
+        <v>2420.657352400452</v>
       </c>
       <c r="W11" t="n">
-        <v>2629.586550824501</v>
+        <v>2072.173463634575</v>
       </c>
       <c r="X11" t="n">
-        <v>2436.328929591655</v>
+        <v>1702.992471877733</v>
       </c>
       <c r="Y11" t="n">
-        <v>2050.474364120081</v>
+        <v>1317.137906406159</v>
       </c>
     </row>
     <row r="12">
@@ -5115,16 +5115,16 @@
         <v>75.19300535017764</v>
       </c>
       <c r="I12" t="n">
-        <v>66.09697120859421</v>
+        <v>66.09697120859423</v>
       </c>
       <c r="J12" t="n">
-        <v>158.9222975968353</v>
+        <v>163.0877923713348</v>
       </c>
       <c r="K12" t="n">
-        <v>395.7303901197206</v>
+        <v>399.8958848942201</v>
       </c>
       <c r="L12" t="n">
-        <v>764.6361303801303</v>
+        <v>764.6361303801302</v>
       </c>
       <c r="M12" t="n">
         <v>1209.627661348499</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>645.2217898832889</v>
+        <v>110.0035470833213</v>
       </c>
       <c r="C13" t="n">
-        <v>480.5703734596199</v>
+        <v>66.09697120859423</v>
       </c>
       <c r="D13" t="n">
-        <v>480.5703734596199</v>
+        <v>66.09697120859423</v>
       </c>
       <c r="E13" t="n">
-        <v>336.9420463814645</v>
+        <v>66.09697120859423</v>
       </c>
       <c r="F13" t="n">
-        <v>336.9420463814645</v>
+        <v>66.09697120859423</v>
       </c>
       <c r="G13" t="n">
-        <v>173.5162629100965</v>
+        <v>66.09697120859423</v>
       </c>
       <c r="H13" t="n">
-        <v>66.09697120859421</v>
+        <v>66.09697120859423</v>
       </c>
       <c r="I13" t="n">
-        <v>66.09697120859421</v>
+        <v>66.09697120859423</v>
       </c>
       <c r="J13" t="n">
-        <v>114.8846215823763</v>
+        <v>114.8846215823764</v>
       </c>
       <c r="K13" t="n">
         <v>322.1929865232971</v>
       </c>
       <c r="L13" t="n">
-        <v>641.828340413571</v>
+        <v>641.8283404135713</v>
       </c>
       <c r="M13" t="n">
-        <v>988.9998440841126</v>
+        <v>988.9998440841129</v>
       </c>
       <c r="N13" t="n">
         <v>1333.45085650104</v>
@@ -5218,10 +5218,10 @@
         <v>1871.804074007227</v>
       </c>
       <c r="Q13" t="n">
-        <v>1952.980835072295</v>
+        <v>1952.980835072296</v>
       </c>
       <c r="R13" t="n">
-        <v>1952.980835072295</v>
+        <v>1952.980835072296</v>
       </c>
       <c r="S13" t="n">
         <v>1765.445294743617</v>
@@ -5230,19 +5230,19 @@
         <v>1547.930488775086</v>
       </c>
       <c r="U13" t="n">
-        <v>1547.930488775086</v>
+        <v>1263.111967676767</v>
       </c>
       <c r="V13" t="n">
-        <v>1547.930488775086</v>
+        <v>1012.712245975118</v>
       </c>
       <c r="W13" t="n">
-        <v>1262.798085242363</v>
+        <v>727.5798424423953</v>
       </c>
       <c r="X13" t="n">
-        <v>1039.093300848583</v>
+        <v>503.8750580486156</v>
       </c>
       <c r="Y13" t="n">
-        <v>822.5854882092909</v>
+        <v>287.3672454093233</v>
       </c>
     </row>
     <row r="14">
@@ -5252,16 +5252,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2215.341457282219</v>
+        <v>1921.825512660317</v>
       </c>
       <c r="C14" t="n">
-        <v>1963.848900509513</v>
+        <v>1557.147762224143</v>
       </c>
       <c r="D14" t="n">
-        <v>1609.867968407</v>
+        <v>1203.16683012163</v>
       </c>
       <c r="E14" t="n">
-        <v>1228.364482312993</v>
+        <v>821.6633440276235</v>
       </c>
       <c r="F14" t="n">
         <v>821.6633440276235</v>
@@ -5273,55 +5273,55 @@
         <v>117.3835265479961</v>
       </c>
       <c r="I14" t="n">
-        <v>79.00846125411267</v>
+        <v>79.00846125411269</v>
       </c>
       <c r="J14" t="n">
-        <v>433.8628300486794</v>
+        <v>266.4571810283264</v>
       </c>
       <c r="K14" t="n">
-        <v>765.5383881683408</v>
+        <v>919.036697593441</v>
       </c>
       <c r="L14" t="n">
-        <v>1213.913008632795</v>
+        <v>1367.411318057895</v>
       </c>
       <c r="M14" t="n">
-        <v>1744.485603883902</v>
+        <v>1897.983913309003</v>
       </c>
       <c r="N14" t="n">
-        <v>2288.257226801576</v>
+        <v>2441.755536226676</v>
       </c>
       <c r="O14" t="n">
-        <v>2788.39008952745</v>
+        <v>3253.647452737503</v>
       </c>
       <c r="P14" t="n">
-        <v>3370.747182804799</v>
+        <v>3645.998279232358</v>
       </c>
       <c r="Q14" t="n">
-        <v>3827.405407807976</v>
+        <v>3892.464663482229</v>
       </c>
       <c r="R14" t="n">
         <v>3950.423062705634</v>
       </c>
       <c r="S14" t="n">
-        <v>3950.423062705634</v>
+        <v>3844.025316197856</v>
       </c>
       <c r="T14" t="n">
-        <v>3950.423062705634</v>
+        <v>3642.257061384946</v>
       </c>
       <c r="U14" t="n">
-        <v>3701.175976836395</v>
+        <v>3393.009975515707</v>
       </c>
       <c r="V14" t="n">
-        <v>3701.175976836395</v>
+        <v>3066.231854676374</v>
       </c>
       <c r="W14" t="n">
-        <v>3352.692088070519</v>
+        <v>2717.747965910497</v>
       </c>
       <c r="X14" t="n">
-        <v>2983.511096313677</v>
+        <v>2348.566974153655</v>
       </c>
       <c r="Y14" t="n">
-        <v>2597.656530842103</v>
+        <v>2304.140586220201</v>
       </c>
     </row>
     <row r="15">
@@ -5352,16 +5352,16 @@
         <v>88.10449539569611</v>
       </c>
       <c r="I15" t="n">
-        <v>79.00846125411267</v>
+        <v>79.00846125411269</v>
       </c>
       <c r="J15" t="n">
-        <v>175.9992824168534</v>
+        <v>171.8337876423538</v>
       </c>
       <c r="K15" t="n">
-        <v>412.8073749397387</v>
+        <v>408.6418801652392</v>
       </c>
       <c r="L15" t="n">
-        <v>777.5476204256487</v>
+        <v>777.5476204256486</v>
       </c>
       <c r="M15" t="n">
         <v>1222.539151394017</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>556.9376557366631</v>
+        <v>122.9150371288399</v>
       </c>
       <c r="C16" t="n">
-        <v>556.9376557366631</v>
+        <v>79.00846125411269</v>
       </c>
       <c r="D16" t="n">
-        <v>556.9376557366631</v>
+        <v>79.00846125411269</v>
       </c>
       <c r="E16" t="n">
-        <v>413.3093286585076</v>
+        <v>79.00846125411269</v>
       </c>
       <c r="F16" t="n">
-        <v>413.3093286585076</v>
+        <v>79.00846125411269</v>
       </c>
       <c r="G16" t="n">
-        <v>249.88354518714</v>
+        <v>79.00846125411269</v>
       </c>
       <c r="H16" t="n">
-        <v>107.8825462127159</v>
+        <v>79.00846125411269</v>
       </c>
       <c r="I16" t="n">
-        <v>79.00846125411267</v>
+        <v>79.00846125411269</v>
       </c>
       <c r="J16" t="n">
         <v>127.7961116278948</v>
       </c>
       <c r="K16" t="n">
-        <v>335.1044765688154</v>
+        <v>335.1044765688155</v>
       </c>
       <c r="L16" t="n">
-        <v>654.7398304590895</v>
+        <v>654.7398304590896</v>
       </c>
       <c r="M16" t="n">
         <v>1001.911334129631</v>
@@ -5449,37 +5449,37 @@
         <v>1346.362346546558</v>
       </c>
       <c r="O16" t="n">
-        <v>1648.822894025569</v>
+        <v>1648.82289402557</v>
       </c>
       <c r="P16" t="n">
         <v>1884.715564052745</v>
       </c>
       <c r="Q16" t="n">
-        <v>1965.892325117813</v>
+        <v>1965.892325117814</v>
       </c>
       <c r="R16" t="n">
-        <v>1965.892325117813</v>
+        <v>1965.892325117814</v>
       </c>
       <c r="S16" t="n">
         <v>1778.356784789135</v>
       </c>
       <c r="T16" t="n">
-        <v>1778.356784789135</v>
+        <v>1560.841978820604</v>
       </c>
       <c r="U16" t="n">
-        <v>1493.538263690817</v>
+        <v>1276.023457722286</v>
       </c>
       <c r="V16" t="n">
-        <v>1243.138541989168</v>
+        <v>1025.623736020637</v>
       </c>
       <c r="W16" t="n">
-        <v>958.0061384564448</v>
+        <v>740.4913324879138</v>
       </c>
       <c r="X16" t="n">
-        <v>734.301354062665</v>
+        <v>516.7865480941341</v>
       </c>
       <c r="Y16" t="n">
-        <v>734.301354062665</v>
+        <v>300.2787354548418</v>
       </c>
     </row>
     <row r="17">
@@ -5489,52 +5489,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2029.069141987975</v>
+        <v>1928.507260007303</v>
       </c>
       <c r="C17" t="n">
-        <v>1707.905132162439</v>
+        <v>1607.343250181767</v>
       </c>
       <c r="D17" t="n">
-        <v>1397.437940670564</v>
+        <v>1296.876058689893</v>
       </c>
       <c r="E17" t="n">
-        <v>1059.448195187196</v>
+        <v>958.8863132065243</v>
       </c>
       <c r="F17" t="n">
-        <v>696.2607975124639</v>
+        <v>595.6989155317925</v>
       </c>
       <c r="G17" t="n">
-        <v>328.9696588809326</v>
+        <v>328.9696588809325</v>
       </c>
       <c r="H17" t="n">
-        <v>79.00846125411267</v>
+        <v>79.00846125411269</v>
       </c>
       <c r="I17" t="n">
-        <v>79.00846125411267</v>
+        <v>79.00846125411269</v>
       </c>
       <c r="J17" t="n">
-        <v>368.0243940599743</v>
+        <v>266.4571810283264</v>
       </c>
       <c r="K17" t="n">
-        <v>1020.603910625089</v>
+        <v>598.1327391479879</v>
       </c>
       <c r="L17" t="n">
-        <v>1468.978531089543</v>
+        <v>1459.991962017388</v>
       </c>
       <c r="M17" t="n">
-        <v>1999.55112634065</v>
+        <v>1990.564557268495</v>
       </c>
       <c r="N17" t="n">
-        <v>2543.322749258324</v>
+        <v>2534.336180186169</v>
       </c>
       <c r="O17" t="n">
-        <v>3043.455611984198</v>
+        <v>3034.469042912043</v>
       </c>
       <c r="P17" t="n">
-        <v>3435.806438479052</v>
+        <v>3580.939023558105</v>
       </c>
       <c r="Q17" t="n">
-        <v>3892.464663482228</v>
+        <v>3827.405407807976</v>
       </c>
       <c r="R17" t="n">
         <v>3950.423062705634</v>
@@ -5546,19 +5546,19 @@
         <v>3729.284542606222</v>
       </c>
       <c r="U17" t="n">
-        <v>3624.113079328294</v>
+        <v>3523.551197347622</v>
       </c>
       <c r="V17" t="n">
-        <v>3340.848699099599</v>
+        <v>3240.286817118928</v>
       </c>
       <c r="W17" t="n">
-        <v>3035.878550944361</v>
+        <v>2935.316668963689</v>
       </c>
       <c r="X17" t="n">
-        <v>2710.211299798157</v>
+        <v>2609.649417817485</v>
       </c>
       <c r="Y17" t="n">
-        <v>2367.870474937221</v>
+        <v>2267.30859295655</v>
       </c>
     </row>
     <row r="18">
@@ -5589,16 +5589,16 @@
         <v>88.10449539569611</v>
       </c>
       <c r="I18" t="n">
-        <v>79.00846125411267</v>
+        <v>79.00846125411269</v>
       </c>
       <c r="J18" t="n">
-        <v>171.8337876423537</v>
+        <v>171.8337876423538</v>
       </c>
       <c r="K18" t="n">
-        <v>408.6418801652391</v>
+        <v>408.6418801652392</v>
       </c>
       <c r="L18" t="n">
-        <v>773.3821256511491</v>
+        <v>773.3821256511493</v>
       </c>
       <c r="M18" t="n">
         <v>1218.373656619518</v>
@@ -5607,13 +5607,13 @@
         <v>1689.551434214741</v>
       </c>
       <c r="O18" t="n">
-        <v>2098.367253464995</v>
+        <v>2102.532748239494</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.144924009327</v>
+        <v>2411.310418783827</v>
       </c>
       <c r="Q18" t="n">
-        <v>2563.635423114004</v>
+        <v>2567.800917888504</v>
       </c>
       <c r="R18" t="n">
         <v>2567.800917888504</v>
@@ -5647,55 +5647,55 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>769.8287289871123</v>
+        <v>769.828728987112</v>
       </c>
       <c r="C19" t="n">
-        <v>648.6910531740812</v>
+        <v>648.6910531740808</v>
       </c>
       <c r="D19" t="n">
-        <v>546.3729208766213</v>
+        <v>546.3729208766209</v>
       </c>
       <c r="E19" t="n">
-        <v>446.2583344091039</v>
+        <v>446.2583344091037</v>
       </c>
       <c r="F19" t="n">
-        <v>347.1668940260693</v>
+        <v>347.1668940260691</v>
       </c>
       <c r="G19" t="n">
-        <v>227.2548511653397</v>
+        <v>227.2548511653396</v>
       </c>
       <c r="H19" t="n">
         <v>128.7675928015535</v>
       </c>
       <c r="I19" t="n">
-        <v>79.00846125411267</v>
+        <v>79.00846125411269</v>
       </c>
       <c r="J19" t="n">
-        <v>170.4439288003811</v>
+        <v>170.4439288003812</v>
       </c>
       <c r="K19" t="n">
-        <v>420.4001109137881</v>
+        <v>420.4001109137884</v>
       </c>
       <c r="L19" t="n">
-        <v>782.6832819765505</v>
+        <v>782.6832819765489</v>
       </c>
       <c r="M19" t="n">
-        <v>1172.502602819578</v>
+        <v>1172.502602819577</v>
       </c>
       <c r="N19" t="n">
-        <v>1559.601432408992</v>
+        <v>1559.60143240899</v>
       </c>
       <c r="O19" t="n">
-        <v>1904.709797060489</v>
+        <v>1904.709797060488</v>
       </c>
       <c r="P19" t="n">
-        <v>2183.250284260151</v>
+        <v>2183.25028426015</v>
       </c>
       <c r="Q19" t="n">
-        <v>2307.074862497706</v>
+        <v>2307.074862497705</v>
       </c>
       <c r="R19" t="n">
-        <v>2264.696092090982</v>
+        <v>2264.696092090981</v>
       </c>
       <c r="S19" t="n">
         <v>2120.674292372941</v>
@@ -5704,7 +5704,7 @@
         <v>1946.673227015048</v>
       </c>
       <c r="U19" t="n">
-        <v>1705.368446527368</v>
+        <v>1705.368446527367</v>
       </c>
       <c r="V19" t="n">
         <v>1498.482465436357</v>
@@ -5716,7 +5716,7 @@
         <v>1076.67275873113</v>
       </c>
       <c r="Y19" t="n">
-        <v>903.6786867024762</v>
+        <v>903.6786867024758</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1991.391265904443</v>
+        <v>1928.507260007303</v>
       </c>
       <c r="C20" t="n">
-        <v>1670.227256078907</v>
+        <v>1607.343250181767</v>
       </c>
       <c r="D20" t="n">
-        <v>1359.760064587032</v>
+        <v>1296.876058689893</v>
       </c>
       <c r="E20" t="n">
-        <v>1021.770319103664</v>
+        <v>958.8863132065243</v>
       </c>
       <c r="F20" t="n">
-        <v>658.582921428932</v>
+        <v>696.2607975124638</v>
       </c>
       <c r="G20" t="n">
         <v>328.9696588809325</v>
       </c>
       <c r="H20" t="n">
-        <v>79.00846125411267</v>
+        <v>79.00846125411269</v>
       </c>
       <c r="I20" t="n">
-        <v>79.00846125411267</v>
+        <v>79.00846125411269</v>
       </c>
       <c r="J20" t="n">
-        <v>433.8628300486794</v>
+        <v>266.4571810283264</v>
       </c>
       <c r="K20" t="n">
-        <v>765.5383881683408</v>
+        <v>598.1327391479879</v>
       </c>
       <c r="L20" t="n">
-        <v>1213.913008632795</v>
+        <v>1046.507359612442</v>
       </c>
       <c r="M20" t="n">
-        <v>1744.485603883902</v>
+        <v>1776.76951192609</v>
       </c>
       <c r="N20" t="n">
-        <v>2288.257226801576</v>
+        <v>2753.514590011629</v>
       </c>
       <c r="O20" t="n">
-        <v>2788.39008952745</v>
+        <v>3253.647452737503</v>
       </c>
       <c r="P20" t="n">
-        <v>3499.321637112072</v>
+        <v>3645.998279232358</v>
       </c>
       <c r="Q20" t="n">
-        <v>3892.464663482228</v>
+        <v>3892.464663482229</v>
       </c>
       <c r="R20" t="n">
         <v>3950.423062705634</v>
       </c>
       <c r="S20" t="n">
-        <v>3950.423062705634</v>
+        <v>3887.539056808494</v>
       </c>
       <c r="T20" t="n">
-        <v>3792.168548503362</v>
+        <v>3729.284542606222</v>
       </c>
       <c r="U20" t="n">
-        <v>3586.435203244762</v>
+        <v>3523.551197347622</v>
       </c>
       <c r="V20" t="n">
-        <v>3303.170823016067</v>
+        <v>3240.286817118928</v>
       </c>
       <c r="W20" t="n">
-        <v>2998.200674860829</v>
+        <v>2935.316668963689</v>
       </c>
       <c r="X20" t="n">
-        <v>2672.533423714624</v>
+        <v>2609.649417817485</v>
       </c>
       <c r="Y20" t="n">
-        <v>2330.192598853689</v>
+        <v>2267.308592956549</v>
       </c>
     </row>
     <row r="21">
@@ -5826,28 +5826,28 @@
         <v>88.10449539569611</v>
       </c>
       <c r="I21" t="n">
-        <v>79.00846125411267</v>
+        <v>79.00846125411269</v>
       </c>
       <c r="J21" t="n">
-        <v>175.9992824168534</v>
+        <v>171.8337876423538</v>
       </c>
       <c r="K21" t="n">
-        <v>412.8073749397387</v>
+        <v>408.6418801652392</v>
       </c>
       <c r="L21" t="n">
-        <v>777.5476204256487</v>
+        <v>773.3821256511493</v>
       </c>
       <c r="M21" t="n">
-        <v>1222.539151394017</v>
+        <v>1218.373656619518</v>
       </c>
       <c r="N21" t="n">
-        <v>1693.71692898924</v>
+        <v>1689.551434214741</v>
       </c>
       <c r="O21" t="n">
-        <v>2102.532748239494</v>
+        <v>2098.367253464995</v>
       </c>
       <c r="P21" t="n">
-        <v>2411.310418783827</v>
+        <v>2407.144924009328</v>
       </c>
       <c r="Q21" t="n">
         <v>2567.800917888504</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>769.8287289871118</v>
+        <v>769.828728987112</v>
       </c>
       <c r="C22" t="n">
-        <v>648.6910531740807</v>
+        <v>648.6910531740808</v>
       </c>
       <c r="D22" t="n">
-        <v>546.3729208766208</v>
+        <v>546.3729208766209</v>
       </c>
       <c r="E22" t="n">
-        <v>446.2583344091036</v>
+        <v>446.2583344091037</v>
       </c>
       <c r="F22" t="n">
-        <v>347.166894026069</v>
+        <v>347.1668940260691</v>
       </c>
       <c r="G22" t="n">
-        <v>227.2548511653395</v>
+        <v>227.2548511653396</v>
       </c>
       <c r="H22" t="n">
         <v>128.7675928015535</v>
       </c>
       <c r="I22" t="n">
-        <v>79.00846125411267</v>
+        <v>79.00846125411269</v>
       </c>
       <c r="J22" t="n">
-        <v>170.4439288003811</v>
+        <v>170.4439288003812</v>
       </c>
       <c r="K22" t="n">
-        <v>420.4001109137882</v>
+        <v>420.4001109137884</v>
       </c>
       <c r="L22" t="n">
-        <v>782.6832819765486</v>
+        <v>782.6832819765489</v>
       </c>
       <c r="M22" t="n">
         <v>1172.502602819577</v>
@@ -5938,22 +5938,22 @@
         <v>2120.67429237294</v>
       </c>
       <c r="T22" t="n">
-        <v>1946.673227015047</v>
+        <v>1946.673227015048</v>
       </c>
       <c r="U22" t="n">
         <v>1705.368446527367</v>
       </c>
       <c r="V22" t="n">
-        <v>1498.482465436356</v>
+        <v>1498.482465436357</v>
       </c>
       <c r="W22" t="n">
-        <v>1256.863802514271</v>
+        <v>1256.863802514272</v>
       </c>
       <c r="X22" t="n">
         <v>1076.67275873113</v>
       </c>
       <c r="Y22" t="n">
-        <v>903.6786867024757</v>
+        <v>903.6786867024758</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2031.121425293703</v>
+        <v>2031.121425293702</v>
       </c>
       <c r="C23" t="n">
-        <v>1709.957415468168</v>
+        <v>1709.957415468166</v>
       </c>
       <c r="D23" t="n">
-        <v>1399.490223976293</v>
+        <v>1399.490223976291</v>
       </c>
       <c r="E23" t="n">
-        <v>1061.500478492925</v>
+        <v>1061.500478492923</v>
       </c>
       <c r="F23" t="n">
-        <v>698.3130808181927</v>
+        <v>698.3130808181913</v>
       </c>
       <c r="G23" t="n">
         <v>331.0219421866605</v>
       </c>
       <c r="H23" t="n">
-        <v>81.06074455984069</v>
+        <v>81.06074455984067</v>
       </c>
       <c r="I23" t="n">
-        <v>81.06074455984069</v>
+        <v>81.06074455984067</v>
       </c>
       <c r="J23" t="n">
-        <v>407.9025410278063</v>
+        <v>268.5094643340544</v>
       </c>
       <c r="K23" t="n">
-        <v>739.5780991474678</v>
+        <v>888.3915185068888</v>
       </c>
       <c r="L23" t="n">
-        <v>1187.952719611922</v>
+        <v>1336.766138971343</v>
       </c>
       <c r="M23" t="n">
-        <v>1718.52531486303</v>
+        <v>2312.357132380355</v>
       </c>
       <c r="N23" t="n">
-        <v>2262.296937780703</v>
+        <v>2856.128755298028</v>
       </c>
       <c r="O23" t="n">
-        <v>2762.429800506578</v>
+        <v>3356.261618023903</v>
       </c>
       <c r="P23" t="n">
-        <v>3473.361348091199</v>
+        <v>3748.612444518757</v>
       </c>
       <c r="Q23" t="n">
-        <v>3930.019573094376</v>
+        <v>3995.078828768628</v>
       </c>
       <c r="R23" t="n">
-        <v>4053.037227992034</v>
+        <v>4053.037227992033</v>
       </c>
       <c r="S23" t="n">
-        <v>3990.153222094894</v>
+        <v>3990.153222094893</v>
       </c>
       <c r="T23" t="n">
-        <v>3831.898707892622</v>
+        <v>3831.898707892621</v>
       </c>
       <c r="U23" t="n">
-        <v>3626.165362634023</v>
+        <v>3626.165362634021</v>
       </c>
       <c r="V23" t="n">
-        <v>3342.900982405328</v>
+        <v>3342.900982405326</v>
       </c>
       <c r="W23" t="n">
-        <v>3037.930834250089</v>
+        <v>3037.930834250088</v>
       </c>
       <c r="X23" t="n">
-        <v>2712.263583103886</v>
+        <v>2712.263583103883</v>
       </c>
       <c r="Y23" t="n">
-        <v>2369.922758242949</v>
+        <v>2369.922758242948</v>
       </c>
     </row>
     <row r="24">
@@ -6042,16 +6042,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>946.2792826063104</v>
+        <v>946.2792826063102</v>
       </c>
       <c r="C24" t="n">
-        <v>771.8262533251834</v>
+        <v>771.8262533251832</v>
       </c>
       <c r="D24" t="n">
-        <v>622.8918436639321</v>
+        <v>622.8918436639319</v>
       </c>
       <c r="E24" t="n">
-        <v>463.6543886584766</v>
+        <v>463.6543886584765</v>
       </c>
       <c r="F24" t="n">
         <v>317.1198306853615</v>
@@ -6060,28 +6060,28 @@
         <v>180.7475300654658</v>
       </c>
       <c r="H24" t="n">
-        <v>90.1567787014241</v>
+        <v>90.15677870142409</v>
       </c>
       <c r="I24" t="n">
-        <v>81.06074455984069</v>
+        <v>81.06074455984067</v>
       </c>
       <c r="J24" t="n">
         <v>173.8860709480818</v>
       </c>
       <c r="K24" t="n">
-        <v>410.6941634709672</v>
+        <v>414.8596582454664</v>
       </c>
       <c r="L24" t="n">
-        <v>775.4344089568773</v>
+        <v>779.5999037313766</v>
       </c>
       <c r="M24" t="n">
-        <v>1220.425939925246</v>
+        <v>1224.591434699745</v>
       </c>
       <c r="N24" t="n">
-        <v>1691.603717520469</v>
+        <v>1695.769212294968</v>
       </c>
       <c r="O24" t="n">
-        <v>2100.419536770723</v>
+        <v>2104.585031545222</v>
       </c>
       <c r="P24" t="n">
         <v>2413.362702089555</v>
@@ -6102,7 +6102,7 @@
         <v>2019.495883556809</v>
       </c>
       <c r="V24" t="n">
-        <v>1784.343775325067</v>
+        <v>1784.343775325066</v>
       </c>
       <c r="W24" t="n">
         <v>1530.106418596865</v>
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>771.8810122928398</v>
+        <v>771.88101229284</v>
       </c>
       <c r="C25" t="n">
         <v>650.7433364798088</v>
@@ -6142,16 +6142,16 @@
         <v>130.8198761072815</v>
       </c>
       <c r="I25" t="n">
-        <v>81.06074455984069</v>
+        <v>81.06074455984067</v>
       </c>
       <c r="J25" t="n">
-        <v>172.4962121061092</v>
+        <v>172.4962121061089</v>
       </c>
       <c r="K25" t="n">
         <v>422.452394219516</v>
       </c>
       <c r="L25" t="n">
-        <v>784.7355652822766</v>
+        <v>784.7355652822765</v>
       </c>
       <c r="M25" t="n">
         <v>1174.554886125305</v>
@@ -6175,7 +6175,7 @@
         <v>2122.726575678668</v>
       </c>
       <c r="T25" t="n">
-        <v>1948.725510320775</v>
+        <v>1948.725510320776</v>
       </c>
       <c r="U25" t="n">
         <v>1707.420729833095</v>
@@ -6190,7 +6190,7 @@
         <v>1078.725042036858</v>
       </c>
       <c r="Y25" t="n">
-        <v>905.7309700082037</v>
+        <v>905.7309700082038</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2058.054243320341</v>
+        <v>2058.05424332034</v>
       </c>
       <c r="C26" t="n">
         <v>1732.605466990567</v>
@@ -6209,10 +6209,10 @@
         <v>1417.853508994455</v>
       </c>
       <c r="E26" t="n">
-        <v>1075.578997006849</v>
+        <v>1075.578997006848</v>
       </c>
       <c r="F26" t="n">
-        <v>708.1068328278793</v>
+        <v>708.1068328278789</v>
       </c>
       <c r="G26" t="n">
         <v>336.5309276921091</v>
@@ -6224,28 +6224,28 @@
         <v>82.28496356105148</v>
       </c>
       <c r="J26" t="n">
-        <v>437.1393323556183</v>
+        <v>269.7336833352653</v>
       </c>
       <c r="K26" t="n">
-        <v>1089.718848920733</v>
+        <v>601.4092414549268</v>
       </c>
       <c r="L26" t="n">
-        <v>1538.093469385187</v>
+        <v>1463.268464324327</v>
       </c>
       <c r="M26" t="n">
-        <v>2068.666064636294</v>
+        <v>1993.841059575434</v>
       </c>
       <c r="N26" t="n">
-        <v>2612.437687553967</v>
+        <v>2537.612682493108</v>
       </c>
       <c r="O26" t="n">
-        <v>3112.570550279842</v>
+        <v>3037.745545218982</v>
       </c>
       <c r="P26" t="n">
-        <v>3809.823394579298</v>
+        <v>3748.677092803605</v>
       </c>
       <c r="Q26" t="n">
-        <v>4056.289778829169</v>
+        <v>3995.143477053476</v>
       </c>
       <c r="R26" t="n">
         <v>4114.248178052574</v>
@@ -6257,7 +6257,7 @@
         <v>3884.540124944687</v>
       </c>
       <c r="U26" t="n">
-        <v>3674.522013181848</v>
+        <v>3674.522013181849</v>
       </c>
       <c r="V26" t="n">
         <v>3386.972866448916</v>
@@ -6269,7 +6269,7 @@
         <v>2747.765934138998</v>
       </c>
       <c r="Y26" t="n">
-        <v>2401.140342773825</v>
+        <v>2401.140342773824</v>
       </c>
     </row>
     <row r="27">
@@ -6297,7 +6297,7 @@
         <v>181.9717490666766</v>
       </c>
       <c r="H27" t="n">
-        <v>91.38099770263491</v>
+        <v>91.3809977026349</v>
       </c>
       <c r="I27" t="n">
         <v>82.28496356105148</v>
@@ -6306,16 +6306,16 @@
         <v>175.1102899492926</v>
       </c>
       <c r="K27" t="n">
-        <v>411.9183824721779</v>
+        <v>411.918382472178</v>
       </c>
       <c r="L27" t="n">
-        <v>776.6586279580879</v>
+        <v>776.6586279580881</v>
       </c>
       <c r="M27" t="n">
         <v>1221.650158926457</v>
       </c>
       <c r="N27" t="n">
-        <v>1696.993431296179</v>
+        <v>1692.82793652168</v>
       </c>
       <c r="O27" t="n">
         <v>2105.809250546433</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>700.946335549484</v>
+        <v>700.9463355494821</v>
       </c>
       <c r="C28" t="n">
-        <v>677.6761545064462</v>
+        <v>575.5238932322133</v>
       </c>
       <c r="D28" t="n">
-        <v>571.0732557047486</v>
+        <v>468.9209944305155</v>
       </c>
       <c r="E28" t="n">
-        <v>466.6739027329936</v>
+        <v>364.5216414587604</v>
       </c>
       <c r="F28" t="n">
-        <v>363.2976958457213</v>
+        <v>261.1454345714881</v>
       </c>
       <c r="G28" t="n">
-        <v>239.100886480754</v>
+        <v>136.9486252065208</v>
       </c>
       <c r="H28" t="n">
         <v>136.3288616127301</v>
@@ -6382,13 +6382,13 @@
         <v>82.28496356105148</v>
       </c>
       <c r="J28" t="n">
-        <v>169.5209314565165</v>
+        <v>169.5209314565163</v>
       </c>
       <c r="K28" t="n">
-        <v>415.2776139191202</v>
+        <v>415.2776139191201</v>
       </c>
       <c r="L28" t="n">
-        <v>773.3612853310771</v>
+        <v>773.3612853310772</v>
       </c>
       <c r="M28" t="n">
         <v>1158.981106523302</v>
@@ -6406,7 +6406,7 @@
         <v>2276.755367598216</v>
       </c>
       <c r="R28" t="n">
-        <v>2230.091830687255</v>
+        <v>2230.091830687254</v>
       </c>
       <c r="S28" t="n">
         <v>2081.785264464976</v>
@@ -6418,16 +6418,16 @@
         <v>1657.909885610927</v>
       </c>
       <c r="V28" t="n">
-        <v>1446.739138015679</v>
+        <v>1446.739138015678</v>
       </c>
       <c r="W28" t="n">
-        <v>1200.835708589356</v>
+        <v>1200.835708589355</v>
       </c>
       <c r="X28" t="n">
-        <v>1016.359898301978</v>
+        <v>1016.359898301976</v>
       </c>
       <c r="Y28" t="n">
-        <v>839.0810597690856</v>
+        <v>839.0810597690838</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2058.05424332034</v>
+        <v>2058.054243320341</v>
       </c>
       <c r="C29" t="n">
-        <v>1732.605466990566</v>
+        <v>1732.605466990568</v>
       </c>
       <c r="D29" t="n">
-        <v>1417.853508994454</v>
+        <v>1417.853508994455</v>
       </c>
       <c r="E29" t="n">
-        <v>1075.578997006848</v>
+        <v>1075.578997006849</v>
       </c>
       <c r="F29" t="n">
-        <v>708.1068328278784</v>
+        <v>708.1068328278793</v>
       </c>
       <c r="G29" t="n">
         <v>336.5309276921091</v>
       </c>
       <c r="H29" t="n">
-        <v>82.28496356105147</v>
+        <v>82.28496356105148</v>
       </c>
       <c r="I29" t="n">
-        <v>82.28496356105147</v>
+        <v>82.28496356105148</v>
       </c>
       <c r="J29" t="n">
-        <v>269.7336833352652</v>
+        <v>269.7336833352653</v>
       </c>
       <c r="K29" t="n">
-        <v>922.3131999003797</v>
+        <v>601.4092414549268</v>
       </c>
       <c r="L29" t="n">
-        <v>1370.687820364834</v>
+        <v>1463.268464324327</v>
       </c>
       <c r="M29" t="n">
-        <v>1901.260415615941</v>
+        <v>1993.841059575434</v>
       </c>
       <c r="N29" t="n">
-        <v>2445.032038533614</v>
+        <v>2537.612682493108</v>
       </c>
       <c r="O29" t="n">
-        <v>2945.164901259489</v>
+        <v>3098.891846994676</v>
       </c>
       <c r="P29" t="n">
-        <v>3656.096448844111</v>
+        <v>3809.823394579298</v>
       </c>
       <c r="Q29" t="n">
-        <v>4056.289778829168</v>
+        <v>4056.289778829169</v>
       </c>
       <c r="R29" t="n">
-        <v>4114.248178052573</v>
+        <v>4114.248178052574</v>
       </c>
       <c r="S29" t="n">
-        <v>4047.079405651195</v>
+        <v>4047.079405651196</v>
       </c>
       <c r="T29" t="n">
-        <v>3884.540124944685</v>
+        <v>3884.540124944687</v>
       </c>
       <c r="U29" t="n">
-        <v>3674.522013181847</v>
+        <v>3674.52201318185</v>
       </c>
       <c r="V29" t="n">
-        <v>3386.972866448915</v>
+        <v>3386.972866448917</v>
       </c>
       <c r="W29" t="n">
-        <v>3077.717951789439</v>
+        <v>3077.717951789441</v>
       </c>
       <c r="X29" t="n">
-        <v>2747.765934138997</v>
+        <v>2747.765934138999</v>
       </c>
       <c r="Y29" t="n">
-        <v>2401.140342773824</v>
+        <v>2401.140342773825</v>
       </c>
     </row>
     <row r="30">
@@ -6537,25 +6537,25 @@
         <v>91.3809977026349</v>
       </c>
       <c r="I30" t="n">
-        <v>82.28496356105147</v>
+        <v>82.28496356105148</v>
       </c>
       <c r="J30" t="n">
         <v>175.1102899492926</v>
       </c>
       <c r="K30" t="n">
-        <v>411.9183824721779</v>
+        <v>411.918382472178</v>
       </c>
       <c r="L30" t="n">
-        <v>776.6586279580879</v>
+        <v>776.6586279580881</v>
       </c>
       <c r="M30" t="n">
         <v>1221.650158926457</v>
       </c>
       <c r="N30" t="n">
-        <v>1692.82793652168</v>
+        <v>1696.993431296179</v>
       </c>
       <c r="O30" t="n">
-        <v>2101.643755771933</v>
+        <v>2105.809250546433</v>
       </c>
       <c r="P30" t="n">
         <v>2414.586921090766</v>
@@ -6595,34 +6595,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>700.946335549483</v>
+        <v>700.9463355494826</v>
       </c>
       <c r="C31" t="n">
-        <v>677.6761545064462</v>
+        <v>575.5238932322137</v>
       </c>
       <c r="D31" t="n">
-        <v>571.0732557047486</v>
+        <v>468.920994430516</v>
       </c>
       <c r="E31" t="n">
-        <v>466.6739027329935</v>
+        <v>364.5216414587609</v>
       </c>
       <c r="F31" t="n">
-        <v>363.2976958457212</v>
+        <v>261.1454345714885</v>
       </c>
       <c r="G31" t="n">
-        <v>239.1008864807539</v>
+        <v>136.9486252065212</v>
       </c>
       <c r="H31" t="n">
-        <v>136.32886161273</v>
+        <v>136.3288616127301</v>
       </c>
       <c r="I31" t="n">
-        <v>82.28496356105147</v>
+        <v>82.28496356105148</v>
       </c>
       <c r="J31" t="n">
-        <v>169.5209314565165</v>
+        <v>169.5209314565164</v>
       </c>
       <c r="K31" t="n">
-        <v>415.2776139191202</v>
+        <v>415.2776139191201</v>
       </c>
       <c r="L31" t="n">
         <v>773.3612853310772</v>
@@ -6637,7 +6637,7 @@
         <v>1882.789301462606</v>
       </c>
       <c r="P31" t="n">
-        <v>2157.130289011465</v>
+        <v>2157.130289011464</v>
       </c>
       <c r="Q31" t="n">
         <v>2276.755367598216</v>
@@ -6655,16 +6655,16 @@
         <v>1657.909885610927</v>
       </c>
       <c r="V31" t="n">
-        <v>1446.739138015679</v>
+        <v>1446.739138015678</v>
       </c>
       <c r="W31" t="n">
         <v>1200.835708589356</v>
       </c>
       <c r="X31" t="n">
-        <v>1016.359898301977</v>
+        <v>1016.359898301976</v>
       </c>
       <c r="Y31" t="n">
-        <v>839.0810597690846</v>
+        <v>839.0810597690843</v>
       </c>
     </row>
     <row r="32">
@@ -6677,49 +6677,49 @@
         <v>2031.121425293702</v>
       </c>
       <c r="C32" t="n">
-        <v>1709.957415468167</v>
+        <v>1709.957415468166</v>
       </c>
       <c r="D32" t="n">
         <v>1399.490223976292</v>
       </c>
       <c r="E32" t="n">
-        <v>1061.500478492924</v>
+        <v>1061.500478492923</v>
       </c>
       <c r="F32" t="n">
-        <v>698.3130808181918</v>
+        <v>698.3130808181917</v>
       </c>
       <c r="G32" t="n">
         <v>331.0219421866605</v>
       </c>
       <c r="H32" t="n">
-        <v>81.06074455984066</v>
+        <v>81.06074455984067</v>
       </c>
       <c r="I32" t="n">
-        <v>81.06074455984066</v>
+        <v>81.06074455984067</v>
       </c>
       <c r="J32" t="n">
-        <v>435.9151133544074</v>
+        <v>435.9151133544075</v>
       </c>
       <c r="K32" t="n">
-        <v>767.5906714740688</v>
+        <v>888.3915185068888</v>
       </c>
       <c r="L32" t="n">
-        <v>1215.965291938523</v>
+        <v>1336.766138971343</v>
       </c>
       <c r="M32" t="n">
-        <v>2191.556285347534</v>
+        <v>2312.357132380355</v>
       </c>
       <c r="N32" t="n">
-        <v>2735.327908265208</v>
+        <v>2856.128755298028</v>
       </c>
       <c r="O32" t="n">
-        <v>3235.460770991082</v>
+        <v>3356.261618023903</v>
       </c>
       <c r="P32" t="n">
-        <v>3627.811597485937</v>
+        <v>3748.612444518757</v>
       </c>
       <c r="Q32" t="n">
-        <v>3930.019573094375</v>
+        <v>3995.078828768628</v>
       </c>
       <c r="R32" t="n">
         <v>4053.037227992033</v>
@@ -6728,7 +6728,7 @@
         <v>3990.153222094893</v>
       </c>
       <c r="T32" t="n">
-        <v>3831.898707892621</v>
+        <v>3831.898707892622</v>
       </c>
       <c r="U32" t="n">
         <v>3626.165362634021</v>
@@ -6774,16 +6774,16 @@
         <v>90.15677870142409</v>
       </c>
       <c r="I33" t="n">
-        <v>81.06074455984066</v>
+        <v>81.06074455984067</v>
       </c>
       <c r="J33" t="n">
-        <v>173.8860709480817</v>
+        <v>173.8860709480818</v>
       </c>
       <c r="K33" t="n">
-        <v>410.6941634709671</v>
+        <v>410.6941634709672</v>
       </c>
       <c r="L33" t="n">
-        <v>775.4344089568771</v>
+        <v>775.4344089568773</v>
       </c>
       <c r="M33" t="n">
         <v>1220.425939925246</v>
@@ -6792,7 +6792,7 @@
         <v>1691.603717520469</v>
       </c>
       <c r="O33" t="n">
-        <v>2104.585031545222</v>
+        <v>2100.419536770723</v>
       </c>
       <c r="P33" t="n">
         <v>2413.362702089555</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>771.8810122928398</v>
+        <v>771.8810122928395</v>
       </c>
       <c r="C34" t="n">
-        <v>650.7433364798088</v>
+        <v>650.7433364798084</v>
       </c>
       <c r="D34" t="n">
-        <v>548.4252041823489</v>
+        <v>548.4252041823485</v>
       </c>
       <c r="E34" t="n">
-        <v>448.3106177148317</v>
+        <v>448.3106177148312</v>
       </c>
       <c r="F34" t="n">
-        <v>349.2191773317971</v>
+        <v>349.2191773317967</v>
       </c>
       <c r="G34" t="n">
-        <v>229.3071344710677</v>
+        <v>229.3071344710672</v>
       </c>
       <c r="H34" t="n">
-        <v>130.8198761072816</v>
+        <v>130.819876107281</v>
       </c>
       <c r="I34" t="n">
-        <v>81.06074455984066</v>
+        <v>81.06074455984067</v>
       </c>
       <c r="J34" t="n">
         <v>172.4962121061092</v>
       </c>
       <c r="K34" t="n">
-        <v>422.4523942195163</v>
+        <v>422.4523942195161</v>
       </c>
       <c r="L34" t="n">
-        <v>784.7355652822769</v>
+        <v>784.7355652822766</v>
       </c>
       <c r="M34" t="n">
         <v>1174.554886125305</v>
@@ -6895,13 +6895,13 @@
         <v>1500.534748742084</v>
       </c>
       <c r="W34" t="n">
-        <v>1258.91608582</v>
+        <v>1258.916085819999</v>
       </c>
       <c r="X34" t="n">
         <v>1078.725042036858</v>
       </c>
       <c r="Y34" t="n">
-        <v>905.7309700082037</v>
+        <v>905.7309700082034</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2031.121425293702</v>
+        <v>2031.121425293703</v>
       </c>
       <c r="C35" t="n">
         <v>1709.957415468167</v>
       </c>
       <c r="D35" t="n">
-        <v>1399.490223976292</v>
+        <v>1399.490223976293</v>
       </c>
       <c r="E35" t="n">
         <v>1061.500478492924</v>
       </c>
       <c r="F35" t="n">
-        <v>698.3130808181918</v>
+        <v>698.3130808181927</v>
       </c>
       <c r="G35" t="n">
         <v>331.0219421866605</v>
       </c>
       <c r="H35" t="n">
-        <v>81.06074455984067</v>
+        <v>81.06074455984066</v>
       </c>
       <c r="I35" t="n">
-        <v>81.06074455984067</v>
+        <v>81.06074455984066</v>
       </c>
       <c r="J35" t="n">
         <v>435.9151133544075</v>
@@ -6950,37 +6950,37 @@
         <v>2290.309510107305</v>
       </c>
       <c r="O35" t="n">
-        <v>2790.442372833179</v>
+        <v>3167.434552283297</v>
       </c>
       <c r="P35" t="n">
-        <v>3473.361348091199</v>
+        <v>3559.785378778151</v>
       </c>
       <c r="Q35" t="n">
-        <v>3930.019573094376</v>
+        <v>3930.019573094375</v>
       </c>
       <c r="R35" t="n">
         <v>4053.037227992033</v>
       </c>
       <c r="S35" t="n">
-        <v>3990.153222094893</v>
+        <v>3990.153222094894</v>
       </c>
       <c r="T35" t="n">
-        <v>3831.898707892621</v>
+        <v>3831.898707892622</v>
       </c>
       <c r="U35" t="n">
-        <v>3626.165362634022</v>
+        <v>3626.165362634023</v>
       </c>
       <c r="V35" t="n">
-        <v>3342.900982405327</v>
+        <v>3342.900982405328</v>
       </c>
       <c r="W35" t="n">
         <v>3037.930834250089</v>
       </c>
       <c r="X35" t="n">
-        <v>2712.263583103885</v>
+        <v>2712.263583103886</v>
       </c>
       <c r="Y35" t="n">
-        <v>2369.922758242948</v>
+        <v>2369.922758242949</v>
       </c>
     </row>
     <row r="36">
@@ -7008,10 +7008,10 @@
         <v>180.7475300654658</v>
       </c>
       <c r="H36" t="n">
-        <v>90.15677870142409</v>
+        <v>90.15677870142407</v>
       </c>
       <c r="I36" t="n">
-        <v>81.06074455984067</v>
+        <v>81.06074455984066</v>
       </c>
       <c r="J36" t="n">
         <v>173.8860709480818</v>
@@ -7023,19 +7023,19 @@
         <v>775.4344089568773</v>
       </c>
       <c r="M36" t="n">
-        <v>1220.425939925246</v>
+        <v>1224.591434699745</v>
       </c>
       <c r="N36" t="n">
-        <v>1691.603717520469</v>
+        <v>1695.769212294968</v>
       </c>
       <c r="O36" t="n">
-        <v>2100.419536770723</v>
+        <v>2104.585031545222</v>
       </c>
       <c r="P36" t="n">
-        <v>2409.197207315055</v>
+        <v>2413.362702089555</v>
       </c>
       <c r="Q36" t="n">
-        <v>2565.687706419732</v>
+        <v>2569.853201194232</v>
       </c>
       <c r="R36" t="n">
         <v>2569.853201194232</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>771.88101229284</v>
+        <v>771.8810122928397</v>
       </c>
       <c r="C37" t="n">
-        <v>650.7433364798089</v>
+        <v>650.7433364798087</v>
       </c>
       <c r="D37" t="n">
-        <v>548.425204182349</v>
+        <v>548.4252041823488</v>
       </c>
       <c r="E37" t="n">
-        <v>448.3106177148318</v>
+        <v>448.3106177148316</v>
       </c>
       <c r="F37" t="n">
-        <v>349.2191773317973</v>
+        <v>349.219177331797</v>
       </c>
       <c r="G37" t="n">
-        <v>229.3071344710678</v>
+        <v>229.3071344710675</v>
       </c>
       <c r="H37" t="n">
         <v>130.8198761072814</v>
       </c>
       <c r="I37" t="n">
-        <v>81.06074455984067</v>
+        <v>81.06074455984066</v>
       </c>
       <c r="J37" t="n">
         <v>172.4962121061092</v>
@@ -7105,7 +7105,7 @@
         <v>1174.554886125305</v>
       </c>
       <c r="N37" t="n">
-        <v>1561.653715714719</v>
+        <v>1561.653715714718</v>
       </c>
       <c r="O37" t="n">
         <v>1906.762080366216</v>
@@ -7120,25 +7120,25 @@
         <v>2266.748375396709</v>
       </c>
       <c r="S37" t="n">
-        <v>2122.726575678669</v>
+        <v>2122.726575678668</v>
       </c>
       <c r="T37" t="n">
-        <v>1948.725510320776</v>
+        <v>1948.725510320775</v>
       </c>
       <c r="U37" t="n">
-        <v>1707.420729833096</v>
+        <v>1707.420729833095</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.534748742085</v>
+        <v>1500.534748742084</v>
       </c>
       <c r="W37" t="n">
-        <v>1258.91608582</v>
+        <v>1258.916085819999</v>
       </c>
       <c r="X37" t="n">
         <v>1078.725042036858</v>
       </c>
       <c r="Y37" t="n">
-        <v>905.7309700082038</v>
+        <v>905.7309700082036</v>
       </c>
     </row>
     <row r="38">
@@ -7151,16 +7151,16 @@
         <v>2031.121425293702</v>
       </c>
       <c r="C38" t="n">
-        <v>1709.957415468166</v>
+        <v>1709.957415468167</v>
       </c>
       <c r="D38" t="n">
-        <v>1399.490223976291</v>
+        <v>1399.490223976292</v>
       </c>
       <c r="E38" t="n">
         <v>1061.500478492923</v>
       </c>
       <c r="F38" t="n">
-        <v>698.3130808181913</v>
+        <v>698.3130808181918</v>
       </c>
       <c r="G38" t="n">
         <v>331.0219421866605</v>
@@ -7172,22 +7172,22 @@
         <v>81.06074455984066</v>
       </c>
       <c r="J38" t="n">
-        <v>435.9151133544075</v>
+        <v>268.5094643340544</v>
       </c>
       <c r="K38" t="n">
-        <v>767.590671474069</v>
+        <v>681.1666407871164</v>
       </c>
       <c r="L38" t="n">
-        <v>1215.965291938523</v>
+        <v>1129.541261251571</v>
       </c>
       <c r="M38" t="n">
-        <v>1746.537887189631</v>
+        <v>1660.113856502678</v>
       </c>
       <c r="N38" t="n">
-        <v>2290.309510107305</v>
+        <v>2203.885479420352</v>
       </c>
       <c r="O38" t="n">
-        <v>2790.442372833179</v>
+        <v>3081.010521596344</v>
       </c>
       <c r="P38" t="n">
         <v>3473.361348091198</v>
@@ -7199,7 +7199,7 @@
         <v>4053.037227992033</v>
       </c>
       <c r="S38" t="n">
-        <v>3990.153222094892</v>
+        <v>3990.153222094893</v>
       </c>
       <c r="T38" t="n">
         <v>3831.898707892621</v>
@@ -7260,10 +7260,10 @@
         <v>775.4344089568773</v>
       </c>
       <c r="M39" t="n">
-        <v>1220.425939925246</v>
+        <v>1224.591434699745</v>
       </c>
       <c r="N39" t="n">
-        <v>1691.603717520469</v>
+        <v>1695.769212294968</v>
       </c>
       <c r="O39" t="n">
         <v>2104.585031545222</v>
@@ -7306,49 +7306,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>771.8810122928401</v>
+        <v>771.8810122928396</v>
       </c>
       <c r="C40" t="n">
-        <v>650.743336479809</v>
+        <v>650.7433364798086</v>
       </c>
       <c r="D40" t="n">
-        <v>548.4252041823491</v>
+        <v>548.4252041823487</v>
       </c>
       <c r="E40" t="n">
-        <v>448.3106177148319</v>
+        <v>448.3106177148314</v>
       </c>
       <c r="F40" t="n">
-        <v>349.2191773317974</v>
+        <v>349.2191773317969</v>
       </c>
       <c r="G40" t="n">
-        <v>229.3071344710679</v>
+        <v>229.3071344710675</v>
       </c>
       <c r="H40" t="n">
-        <v>130.8198761072818</v>
+        <v>130.8198761072814</v>
       </c>
       <c r="I40" t="n">
         <v>81.06074455984066</v>
       </c>
       <c r="J40" t="n">
-        <v>172.4962121061092</v>
+        <v>172.4962121061094</v>
       </c>
       <c r="K40" t="n">
-        <v>422.4523942195164</v>
+        <v>422.4523942195168</v>
       </c>
       <c r="L40" t="n">
-        <v>784.7355652822769</v>
+        <v>784.7355652822773</v>
       </c>
       <c r="M40" t="n">
-        <v>1174.554886125305</v>
+        <v>1174.554886125306</v>
       </c>
       <c r="N40" t="n">
-        <v>1561.653715714718</v>
+        <v>1561.653715714719</v>
       </c>
       <c r="O40" t="n">
-        <v>1906.762080366216</v>
+        <v>1906.762080366217</v>
       </c>
       <c r="P40" t="n">
-        <v>2185.302567565878</v>
+        <v>2185.302567565879</v>
       </c>
       <c r="Q40" t="n">
         <v>2309.127145803433</v>
@@ -7363,19 +7363,19 @@
         <v>1948.725510320776</v>
       </c>
       <c r="U40" t="n">
-        <v>1707.420729833096</v>
+        <v>1707.420729833095</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.534748742085</v>
+        <v>1500.534748742084</v>
       </c>
       <c r="W40" t="n">
-        <v>1258.91608582</v>
+        <v>1258.916085819999</v>
       </c>
       <c r="X40" t="n">
         <v>1078.725042036858</v>
       </c>
       <c r="Y40" t="n">
-        <v>905.7309700082039</v>
+        <v>905.7309700082035</v>
       </c>
     </row>
     <row r="41">
@@ -7397,49 +7397,49 @@
         <v>1061.500478492924</v>
       </c>
       <c r="F41" t="n">
-        <v>698.3130808181919</v>
+        <v>698.3130808181918</v>
       </c>
       <c r="G41" t="n">
         <v>331.0219421866605</v>
       </c>
       <c r="H41" t="n">
-        <v>81.06074455984067</v>
+        <v>81.06074455984069</v>
       </c>
       <c r="I41" t="n">
-        <v>81.06074455984067</v>
+        <v>81.06074455984069</v>
       </c>
       <c r="J41" t="n">
-        <v>435.9151133544075</v>
+        <v>268.5094643340544</v>
       </c>
       <c r="K41" t="n">
-        <v>1058.158820237234</v>
+        <v>600.1850224537159</v>
       </c>
       <c r="L41" t="n">
-        <v>1506.533440701689</v>
+        <v>1048.55964291817</v>
       </c>
       <c r="M41" t="n">
-        <v>2037.106035952796</v>
+        <v>1579.132238169278</v>
       </c>
       <c r="N41" t="n">
-        <v>2580.87765887047</v>
+        <v>2555.877316254816</v>
       </c>
       <c r="O41" t="n">
-        <v>3081.010521596344</v>
+        <v>3056.01017898069</v>
       </c>
       <c r="P41" t="n">
-        <v>3473.361348091199</v>
+        <v>3683.553188844505</v>
       </c>
       <c r="Q41" t="n">
         <v>3930.019573094376</v>
       </c>
       <c r="R41" t="n">
-        <v>4053.037227992033</v>
+        <v>4053.037227992034</v>
       </c>
       <c r="S41" t="n">
         <v>3990.153222094893</v>
       </c>
       <c r="T41" t="n">
-        <v>3831.898707892621</v>
+        <v>3831.898707892622</v>
       </c>
       <c r="U41" t="n">
         <v>3626.165362634022</v>
@@ -7451,10 +7451,10 @@
         <v>3037.930834250089</v>
       </c>
       <c r="X41" t="n">
-        <v>2712.263583103885</v>
+        <v>2712.263583103884</v>
       </c>
       <c r="Y41" t="n">
-        <v>2369.922758242949</v>
+        <v>2369.922758242948</v>
       </c>
     </row>
     <row r="42">
@@ -7464,16 +7464,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>946.2792826063102</v>
+        <v>946.2792826063104</v>
       </c>
       <c r="C42" t="n">
-        <v>771.8262533251832</v>
+        <v>771.8262533251834</v>
       </c>
       <c r="D42" t="n">
-        <v>622.8918436639319</v>
+        <v>622.8918436639321</v>
       </c>
       <c r="E42" t="n">
-        <v>463.6543886584765</v>
+        <v>463.6543886584766</v>
       </c>
       <c r="F42" t="n">
         <v>317.1198306853615</v>
@@ -7482,10 +7482,10 @@
         <v>180.7475300654658</v>
       </c>
       <c r="H42" t="n">
-        <v>90.15677870142409</v>
+        <v>90.1567787014241</v>
       </c>
       <c r="I42" t="n">
-        <v>81.06074455984067</v>
+        <v>81.06074455984069</v>
       </c>
       <c r="J42" t="n">
         <v>173.8860709480818</v>
@@ -7500,16 +7500,16 @@
         <v>1220.425939925246</v>
       </c>
       <c r="N42" t="n">
-        <v>1691.603717520469</v>
+        <v>1695.769212294968</v>
       </c>
       <c r="O42" t="n">
-        <v>2100.419536770723</v>
+        <v>2104.585031545222</v>
       </c>
       <c r="P42" t="n">
-        <v>2409.197207315055</v>
+        <v>2413.362702089555</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.687706419732</v>
+        <v>2569.853201194232</v>
       </c>
       <c r="R42" t="n">
         <v>2569.853201194232</v>
@@ -7524,7 +7524,7 @@
         <v>2019.495883556809</v>
       </c>
       <c r="V42" t="n">
-        <v>1784.343775325066</v>
+        <v>1784.343775325067</v>
       </c>
       <c r="W42" t="n">
         <v>1530.106418596865</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>771.8810122928398</v>
+        <v>771.8810122928401</v>
       </c>
       <c r="C43" t="n">
-        <v>650.7433364798088</v>
+        <v>650.7433364798089</v>
       </c>
       <c r="D43" t="n">
-        <v>548.4252041823489</v>
+        <v>548.425204182349</v>
       </c>
       <c r="E43" t="n">
-        <v>448.3106177148316</v>
+        <v>448.3106177148318</v>
       </c>
       <c r="F43" t="n">
-        <v>349.2191773317971</v>
+        <v>349.2191773317973</v>
       </c>
       <c r="G43" t="n">
-        <v>229.3071344710676</v>
+        <v>229.3071344710677</v>
       </c>
       <c r="H43" t="n">
-        <v>130.8198761072814</v>
+        <v>130.8198761072815</v>
       </c>
       <c r="I43" t="n">
-        <v>81.06074455984067</v>
+        <v>81.06074455984069</v>
       </c>
       <c r="J43" t="n">
         <v>172.4962121061092</v>
@@ -7585,7 +7585,7 @@
         <v>1906.762080366216</v>
       </c>
       <c r="P43" t="n">
-        <v>2185.302567565878</v>
+        <v>2185.302567565879</v>
       </c>
       <c r="Q43" t="n">
         <v>2309.127145803433</v>
@@ -7594,13 +7594,13 @@
         <v>2266.748375396709</v>
       </c>
       <c r="S43" t="n">
-        <v>2122.726575678668</v>
+        <v>2122.726575678669</v>
       </c>
       <c r="T43" t="n">
         <v>1948.725510320776</v>
       </c>
       <c r="U43" t="n">
-        <v>1707.420729833095</v>
+        <v>1707.420729833096</v>
       </c>
       <c r="V43" t="n">
         <v>1500.534748742085</v>
@@ -7612,7 +7612,7 @@
         <v>1078.725042036858</v>
       </c>
       <c r="Y43" t="n">
-        <v>905.7309700082037</v>
+        <v>905.7309700082039</v>
       </c>
     </row>
     <row r="44">
@@ -7625,10 +7625,10 @@
         <v>2031.121425293702</v>
       </c>
       <c r="C44" t="n">
-        <v>1709.957415468167</v>
+        <v>1709.957415468166</v>
       </c>
       <c r="D44" t="n">
-        <v>1399.490223976292</v>
+        <v>1399.490223976291</v>
       </c>
       <c r="E44" t="n">
         <v>1061.500478492924</v>
@@ -7646,28 +7646,28 @@
         <v>81.06074455984067</v>
       </c>
       <c r="J44" t="n">
-        <v>435.9151133544075</v>
+        <v>268.5094643340544</v>
       </c>
       <c r="K44" t="n">
-        <v>767.590671474069</v>
+        <v>600.1850224537159</v>
       </c>
       <c r="L44" t="n">
-        <v>1215.965291938523</v>
+        <v>1462.044245323116</v>
       </c>
       <c r="M44" t="n">
-        <v>1746.537887189631</v>
+        <v>1992.616840574223</v>
       </c>
       <c r="N44" t="n">
-        <v>2290.309510107305</v>
+        <v>2536.388463491897</v>
       </c>
       <c r="O44" t="n">
-        <v>2790.442372833179</v>
+        <v>3356.261618023903</v>
       </c>
       <c r="P44" t="n">
-        <v>3473.361348091199</v>
+        <v>3748.612444518757</v>
       </c>
       <c r="Q44" t="n">
-        <v>3930.019573094376</v>
+        <v>3995.078828768628</v>
       </c>
       <c r="R44" t="n">
         <v>4053.037227992033</v>
@@ -7746,7 +7746,7 @@
         <v>2409.197207315055</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.687706419732</v>
+        <v>2569.853201194232</v>
       </c>
       <c r="R45" t="n">
         <v>2569.853201194232</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>771.8810122928396</v>
+        <v>771.8810122928401</v>
       </c>
       <c r="C46" t="n">
-        <v>650.7433364798085</v>
+        <v>650.7433364798089</v>
       </c>
       <c r="D46" t="n">
-        <v>548.4252041823486</v>
+        <v>548.425204182349</v>
       </c>
       <c r="E46" t="n">
-        <v>448.3106177148313</v>
+        <v>448.3106177148317</v>
       </c>
       <c r="F46" t="n">
-        <v>349.2191773317967</v>
+        <v>349.2191773317971</v>
       </c>
       <c r="G46" t="n">
-        <v>229.3071344710672</v>
+        <v>229.3071344710676</v>
       </c>
       <c r="H46" t="n">
-        <v>130.8198761072814</v>
+        <v>130.8198761072815</v>
       </c>
       <c r="I46" t="n">
         <v>81.06074455984067</v>
       </c>
       <c r="J46" t="n">
-        <v>172.4962121061092</v>
+        <v>172.4962121061089</v>
       </c>
       <c r="K46" t="n">
-        <v>422.4523942195163</v>
+        <v>422.4523942195162</v>
       </c>
       <c r="L46" t="n">
-        <v>784.7355652822769</v>
+        <v>784.7355652822766</v>
       </c>
       <c r="M46" t="n">
-        <v>1174.554886125304</v>
+        <v>1174.554886125305</v>
       </c>
       <c r="N46" t="n">
-        <v>1561.653715714718</v>
+        <v>1561.653715714719</v>
       </c>
       <c r="O46" t="n">
         <v>1906.762080366216</v>
       </c>
       <c r="P46" t="n">
-        <v>2185.302567565878</v>
+        <v>2185.302567565879</v>
       </c>
       <c r="Q46" t="n">
         <v>2309.127145803433</v>
       </c>
       <c r="R46" t="n">
-        <v>2266.748375396709</v>
+        <v>2266.74837539671</v>
       </c>
       <c r="S46" t="n">
-        <v>2122.726575678668</v>
+        <v>2122.726575678669</v>
       </c>
       <c r="T46" t="n">
-        <v>1948.725510320775</v>
+        <v>1948.725510320776</v>
       </c>
       <c r="U46" t="n">
-        <v>1707.420729833095</v>
+        <v>1707.420729833096</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.534748742084</v>
+        <v>1500.534748742085</v>
       </c>
       <c r="W46" t="n">
-        <v>1258.916085819999</v>
+        <v>1258.91608582</v>
       </c>
       <c r="X46" t="n">
         <v>1078.725042036858</v>
       </c>
       <c r="Y46" t="n">
-        <v>905.7309700082035</v>
+        <v>905.7309700082039</v>
       </c>
     </row>
   </sheetData>
@@ -8459,7 +8459,7 @@
         <v>235.7664149699872</v>
       </c>
       <c r="M8" t="n">
-        <v>230.3462332272727</v>
+        <v>245.6489707424078</v>
       </c>
       <c r="N8" t="n">
         <v>244.097508686872</v>
@@ -8468,7 +8468,7 @@
         <v>245.4009489368218</v>
       </c>
       <c r="P8" t="n">
-        <v>246.5357332704046</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8535,22 +8535,22 @@
         <v>153.144176489494</v>
       </c>
       <c r="L9" t="n">
-        <v>153.8571172950092</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>156.8184790122994</v>
+        <v>157.4367714371534</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>146.6444495984684</v>
       </c>
       <c r="O9" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>149.2771449294653</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>154.6662191763026</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,7 +8614,7 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>150.1874137963733</v>
+        <v>149.5691213715194</v>
       </c>
       <c r="M10" t="n">
         <v>154.2285214627401</v>
@@ -8623,7 +8623,7 @@
         <v>142.9882819803682</v>
       </c>
       <c r="O10" t="n">
-        <v>153.1409835421239</v>
+        <v>153.7592759669778</v>
       </c>
       <c r="P10" t="n">
         <v>135.0065633140411</v>
@@ -8766,13 +8766,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>4.207570479292315</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>4.207570479292656</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.7084326353703716</v>
+        <v>0.7084326353703432</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,10 +8924,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8939,16 +8939,16 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>314.9081351363157</v>
       </c>
       <c r="P14" t="n">
-        <v>191.92552200252</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,13 +9003,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>4.207570479292556</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>4.207570479292201</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.7084326353703716</v>
+        <v>0.7084326353703432</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,13 +9161,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>102.593144476412</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9179,13 +9179,13 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>155.6759132840478</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9255,7 +9255,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>4.207570479292315</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>4.916003114662918</v>
+        <v>0.7084326353703432</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9407,19 +9407,19 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>201.7066232954958</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>148.1582243639245</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>4.207570479292556</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9498,10 +9498,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>4.20757047929186</v>
       </c>
       <c r="R21" t="n">
-        <v>0.7084326353703716</v>
+        <v>0.7084326353703432</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,16 +9635,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>140.8010875694463</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>291.1176727809828</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9653,13 +9653,13 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9717,7 +9717,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>4.207570479292229</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9732,7 +9732,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>4.207570479292599</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -9872,13 +9872,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9890,13 +9890,13 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>307.9818361662641</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>61.76394118756842</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9963,10 +9963,10 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>4.207570479292428</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>4.207570479292087</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -9975,7 +9975,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.7084326353703716</v>
+        <v>0.7084326353703432</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10112,10 +10112,10 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10124,13 +10124,13 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>61.763941187569</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>155.2797431668545</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10200,19 +10200,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>4.207570479292031</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>4.207570479292656</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.7084326353703716</v>
+        <v>0.7084326353703432</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10349,7 +10349,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>122.021057608909</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10367,10 +10367,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>56.30463773592672</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10440,16 +10440,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>4.207570479292656</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>4.207570479292599</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.7084326353703716</v>
+        <v>0.7084326353703432</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10598,13 +10598,13 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>293.5031805688538</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>125.0179899660126</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10671,7 +10671,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>4.207570479292201</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10686,7 +10686,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>4.91600311466289</v>
+        <v>0.7084326353703432</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,10 +10820,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>81.79961447818232</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10835,10 +10835,10 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>293.5031805688529</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10908,13 +10908,13 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>4.207570479292201</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>4.207570479292315</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -11057,10 +11057,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>293.5031805688539</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11069,16 +11069,16 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>237.5678619888485</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11148,7 +11148,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>4.207570479292315</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11160,7 +11160,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>4.91600311466289</v>
+        <v>0.7084326353703432</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,13 +11294,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11309,16 +11309,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>322.9699917233654</v>
       </c>
       <c r="P44" t="n">
-        <v>293.5031805688538</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11394,10 +11394,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>4.207570479292343</v>
       </c>
       <c r="R45" t="n">
-        <v>4.91600311466289</v>
+        <v>0.7084326353703432</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23258,22 +23258,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>361.0309729318122</v>
       </c>
       <c r="D11" t="n">
         <v>350.4411227814876</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>252.8781821575386</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>402.6341269025161</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>290.5401888550833</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,13 +23306,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>105.3337690427004</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>199.7505722647807</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>246.7546150105459</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>174.1641368187572</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>119.5373921434526</v>
       </c>
       <c r="D13" t="n">
         <v>144.373554179017</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>142.1920438073738</v>
       </c>
       <c r="F13" t="n">
         <v>141.1791291837359</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>161.7915256366539</v>
       </c>
       <c r="H13" t="n">
-        <v>34.23589020019269</v>
+        <v>140.58098898468</v>
       </c>
       <c r="I13" t="n">
-        <v>92.34014343649804</v>
+        <v>92.34014343649807</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>85.03358590718828</v>
+        <v>85.03358590718825</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,10 +23470,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>281.970335887335</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>247.8957244846326</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>112.053341726833</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23504,7 +23504,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>402.6341269025161</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23543,16 +23543,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>105.3337690427004</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>199.7505722647807</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>323.5103396309395</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>338.0138957627386</v>
       </c>
     </row>
     <row r="15">
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>163.0049022594325</v>
+        <v>119.5373921434528</v>
       </c>
       <c r="D16" t="n">
         <v>144.373554179017</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>142.1920438073738</v>
       </c>
       <c r="F16" t="n">
         <v>141.1791291837359</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>161.7915256366539</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.58098898468</v>
       </c>
       <c r="I16" t="n">
-        <v>63.7547993274809</v>
+        <v>92.34014343649807</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>85.03358590718828</v>
+        <v>85.03358590718825</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>215.3396579088457</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>214.3427345128994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>99.55626316086466</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23786,7 +23786,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>99.55626316086627</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23978,10 +23978,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>99.5562631608645</v>
       </c>
       <c r="G20" t="n">
-        <v>37.30109732269659</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>62.25516583816875</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>101.1307386614887</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>101.1307386614901</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>101.1307386614897</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>101.1307386614904</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -25327,7 +25327,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>-2.700062395888381e-13</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>901366.1283268263</v>
+        <v>901366.1283268264</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>981440.0158666271</v>
+        <v>981440.0158666272</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1090842.906290986</v>
+        <v>1090842.906290985</v>
       </c>
     </row>
     <row r="11">
@@ -26320,34 +26320,34 @@
         <v>369468.7964389275</v>
       </c>
       <c r="E2" t="n">
-        <v>309411.5087365367</v>
+        <v>309411.5087365368</v>
       </c>
       <c r="F2" t="n">
-        <v>331846.8779436493</v>
+        <v>331846.8779436492</v>
       </c>
       <c r="G2" t="n">
-        <v>365902.6910925048</v>
+        <v>365902.691092505</v>
       </c>
       <c r="H2" t="n">
-        <v>365902.6910925051</v>
+        <v>365902.691092505</v>
       </c>
       <c r="I2" t="n">
-        <v>369468.7964389275</v>
+        <v>369468.7964389272</v>
       </c>
       <c r="J2" t="n">
-        <v>368376.584461383</v>
+        <v>368376.5844613832</v>
       </c>
       <c r="K2" t="n">
         <v>368376.5844613831</v>
       </c>
       <c r="L2" t="n">
-        <v>369468.7964389273</v>
+        <v>369468.7964389274</v>
       </c>
       <c r="M2" t="n">
-        <v>369468.7964389271</v>
+        <v>369468.7964389275</v>
       </c>
       <c r="N2" t="n">
-        <v>369468.7964389273</v>
+        <v>369468.7964389274</v>
       </c>
       <c r="O2" t="n">
         <v>369468.7964389271</v>
@@ -26372,34 +26372,34 @@
         <v>4753.489354326401</v>
       </c>
       <c r="E3" t="n">
-        <v>1117640.999359275</v>
+        <v>1117640.999359276</v>
       </c>
       <c r="F3" t="n">
-        <v>46243.4699597778</v>
+        <v>46243.46995977777</v>
       </c>
       <c r="G3" t="n">
-        <v>34462.8825636253</v>
+        <v>34462.88256362535</v>
       </c>
       <c r="H3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>6821.815361781243</v>
+        <v>6821.815361781152</v>
       </c>
       <c r="J3" t="n">
-        <v>4003.869454409965</v>
+        <v>4003.869454410025</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37856.41763498163</v>
+        <v>37856.41763498168</v>
       </c>
       <c r="M3" t="n">
         <v>202081.8667636097</v>
       </c>
       <c r="N3" t="n">
-        <v>39529.65652973371</v>
+        <v>39529.65652973374</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26421,40 +26421,40 @@
         <v>409397.0283363865</v>
       </c>
       <c r="D4" t="n">
-        <v>408123.0807897231</v>
+        <v>408123.0807897232</v>
       </c>
       <c r="E4" t="n">
-        <v>12415.20300433205</v>
+        <v>12415.20300433203</v>
       </c>
       <c r="F4" t="n">
-        <v>27752.10471718297</v>
+        <v>27752.10471718294</v>
       </c>
       <c r="G4" t="n">
-        <v>71053.87188833588</v>
+        <v>71053.87188833585</v>
       </c>
       <c r="H4" t="n">
-        <v>71053.8718883359</v>
+        <v>71053.87188833584</v>
       </c>
       <c r="I4" t="n">
-        <v>73491.6747473328</v>
+        <v>73491.67474733274</v>
       </c>
       <c r="J4" t="n">
-        <v>70851.93258133446</v>
+        <v>70851.9325813344</v>
       </c>
       <c r="K4" t="n">
-        <v>70851.93258133446</v>
+        <v>70851.9325813344</v>
       </c>
       <c r="L4" t="n">
-        <v>73491.67474733281</v>
+        <v>73491.67474733276</v>
       </c>
       <c r="M4" t="n">
+        <v>73491.67474733276</v>
+      </c>
+      <c r="N4" t="n">
         <v>73491.67474733279</v>
       </c>
-      <c r="N4" t="n">
-        <v>73491.67474733276</v>
-      </c>
       <c r="O4" t="n">
-        <v>73491.67474733276</v>
+        <v>73491.67474733274</v>
       </c>
       <c r="P4" t="n">
         <v>73491.67474733276</v>
@@ -26476,34 +26476,34 @@
         <v>34558.00644092021</v>
       </c>
       <c r="E5" t="n">
-        <v>74255.12914700642</v>
+        <v>74255.12914700643</v>
       </c>
       <c r="F5" t="n">
-        <v>84067.86158160045</v>
+        <v>84067.86158160046</v>
       </c>
       <c r="G5" t="n">
-        <v>87689.43667440221</v>
+        <v>87689.43667440223</v>
       </c>
       <c r="H5" t="n">
-        <v>87689.43667440221</v>
+        <v>87689.43667440223</v>
       </c>
       <c r="I5" t="n">
-        <v>89249.17198675552</v>
+        <v>89249.17198675551</v>
       </c>
       <c r="J5" t="n">
         <v>89822.96455278341</v>
       </c>
       <c r="K5" t="n">
-        <v>89822.96455278338</v>
+        <v>89822.96455278341</v>
       </c>
       <c r="L5" t="n">
-        <v>89249.17198675549</v>
+        <v>89249.17198675551</v>
       </c>
       <c r="M5" t="n">
         <v>89249.17198675551</v>
       </c>
       <c r="N5" t="n">
-        <v>89249.17198675549</v>
+        <v>89249.17198675551</v>
       </c>
       <c r="O5" t="n">
         <v>89249.17198675551</v>
@@ -26519,40 +26519,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-74350.27591371923</v>
+        <v>-74354.68949158734</v>
       </c>
       <c r="C6" t="n">
-        <v>-74350.27591371929</v>
+        <v>-74354.6894915874</v>
       </c>
       <c r="D6" t="n">
-        <v>-77965.78014604221</v>
+        <v>-77965.78014604232</v>
       </c>
       <c r="E6" t="n">
-        <v>-894899.8227740773</v>
+        <v>-895233.474372424</v>
       </c>
       <c r="F6" t="n">
-        <v>173783.4416850881</v>
+        <v>173574.4310267809</v>
       </c>
       <c r="G6" t="n">
-        <v>172696.4999661414</v>
+        <v>172676.6882697726</v>
       </c>
       <c r="H6" t="n">
-        <v>207159.3825297669</v>
+        <v>207139.5708333979</v>
       </c>
       <c r="I6" t="n">
-        <v>199906.1343430579</v>
+        <v>199906.1343430578</v>
       </c>
       <c r="J6" t="n">
-        <v>203697.8178728551</v>
+        <v>203691.7500285357</v>
       </c>
       <c r="K6" t="n">
-        <v>207701.6873272653</v>
+        <v>207695.6194829456</v>
       </c>
       <c r="L6" t="n">
-        <v>168871.5320698573</v>
+        <v>168871.5320698574</v>
       </c>
       <c r="M6" t="n">
-        <v>4646.082941229135</v>
+        <v>4646.082941229484</v>
       </c>
       <c r="N6" t="n">
         <v>167198.2931751053</v>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>4.241918839195378</v>
+        <v>4.241918839195364</v>
       </c>
       <c r="F2" t="n">
-        <v>4.241918839195378</v>
+        <v>4.241918839195364</v>
       </c>
       <c r="G2" t="n">
-        <v>47.32052204372701</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="H2" t="n">
-        <v>47.32052204372707</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="I2" t="n">
-        <v>47.32052204372707</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="J2" t="n">
-        <v>43.07860320453169</v>
+        <v>43.07860320453164</v>
       </c>
       <c r="K2" t="n">
-        <v>43.07860320453169</v>
+        <v>43.07860320453164</v>
       </c>
       <c r="L2" t="n">
-        <v>47.3205220437271</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="M2" t="n">
-        <v>47.32052204372709</v>
+        <v>47.32052204372708</v>
       </c>
       <c r="N2" t="n">
         <v>47.32052204372709</v>
       </c>
       <c r="O2" t="n">
-        <v>47.32052204372706</v>
+        <v>47.32052204372704</v>
       </c>
       <c r="P2" t="n">
-        <v>47.32052204372706</v>
+        <v>47.32052204372705</v>
       </c>
     </row>
     <row r="3">
@@ -26744,28 +26744,28 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1085.542071265252</v>
+        <v>1085.542071265253</v>
       </c>
       <c r="F3" t="n">
-        <v>1085.542071265252</v>
+        <v>1085.542071265253</v>
       </c>
       <c r="G3" t="n">
-        <v>1085.542071265252</v>
+        <v>1085.542071265253</v>
       </c>
       <c r="H3" t="n">
-        <v>1085.542071265252</v>
+        <v>1085.542071265253</v>
       </c>
       <c r="I3" t="n">
         <v>1085.542071265253</v>
       </c>
       <c r="J3" t="n">
-        <v>1085.542071265252</v>
+        <v>1085.542071265253</v>
       </c>
       <c r="K3" t="n">
-        <v>1085.542071265252</v>
+        <v>1085.542071265253</v>
       </c>
       <c r="L3" t="n">
-        <v>1085.542071265252</v>
+        <v>1085.542071265253</v>
       </c>
       <c r="M3" t="n">
         <v>1085.542071265253</v>
@@ -26796,25 +26796,25 @@
         <v>15.30273751513505</v>
       </c>
       <c r="E4" t="n">
-        <v>826.2121401074276</v>
+        <v>826.2121401074278</v>
       </c>
       <c r="F4" t="n">
-        <v>987.6057656764084</v>
+        <v>987.6057656764085</v>
       </c>
       <c r="G4" t="n">
-        <v>987.6057656764084</v>
+        <v>987.6057656764085</v>
       </c>
       <c r="H4" t="n">
-        <v>987.6057656764084</v>
+        <v>987.6057656764085</v>
       </c>
       <c r="I4" t="n">
-        <v>1013.259306998009</v>
+        <v>1013.259306998008</v>
       </c>
       <c r="J4" t="n">
         <v>1028.562044513144</v>
       </c>
       <c r="K4" t="n">
-        <v>1028.562044513143</v>
+        <v>1028.562044513144</v>
       </c>
       <c r="L4" t="n">
         <v>1013.259306998008</v>
@@ -26914,16 +26914,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>4.241918839195378</v>
+        <v>4.241918839195364</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>43.07860320453163</v>
+        <v>43.07860320453169</v>
       </c>
       <c r="H2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>47.32052204372704</v>
+        <v>47.3205220437271</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1085.542071265252</v>
+        <v>1085.542071265253</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>15.30273751513505</v>
       </c>
       <c r="E4" t="n">
-        <v>810.9094025922925</v>
+        <v>810.9094025922927</v>
       </c>
       <c r="F4" t="n">
-        <v>161.3936255689808</v>
+        <v>161.3936255689807</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>25.65354132160019</v>
+        <v>25.65354132159985</v>
       </c>
       <c r="J4" t="n">
-        <v>15.30273751513494</v>
+        <v>15.30273751513516</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27045,7 +27045,7 @@
         <v>810.9094025922926</v>
       </c>
       <c r="N4" t="n">
-        <v>161.3936255689806</v>
+        <v>161.3936255689807</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,16 +27151,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.241918839195378</v>
+        <v>4.241918839195364</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>43.07860320453163</v>
+        <v>43.07860320453169</v>
       </c>
       <c r="M2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>15.30273751513505</v>
       </c>
       <c r="M4" t="n">
-        <v>810.9094025922925</v>
+        <v>810.9094025922927</v>
       </c>
       <c r="N4" t="n">
-        <v>161.3936255689808</v>
+        <v>161.3936255689807</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27853,16 +27853,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>358.670286309388</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>378.4424180834756</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>391.5733082265764</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27895,13 +27895,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>134.5663804260146</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>193.7173320711103</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>370.9352011409185</v>
       </c>
     </row>
     <row r="9">
@@ -27935,10 +27935,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>134.7130056875657</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>142.3423429402659</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -27947,13 +27947,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>96.93270672136141</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>74.09389533628003</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27980,19 +27980,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>156.3804335887028</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>186.6860774914907</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>210.6386445658398</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>236.3922456457846</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -28026,16 +28026,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>146.9244349923045</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>144.6932644590339</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>6.966754310747802</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28050,22 +28050,22 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>161.9906538620344</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>212.6428519131464</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>272.8403781531599</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.241918839195378</v>
+        <v>4.241918839195364</v>
       </c>
       <c r="C11" t="n">
-        <v>4.241918839195378</v>
+        <v>4.241918839195364</v>
       </c>
       <c r="D11" t="n">
-        <v>4.241918839195378</v>
+        <v>4.241918839195364</v>
       </c>
       <c r="E11" t="n">
-        <v>4.241918839195378</v>
+        <v>4.241918839195364</v>
       </c>
       <c r="F11" t="n">
-        <v>4.241918839195378</v>
+        <v>4.241918839195364</v>
       </c>
       <c r="G11" t="n">
-        <v>4.241918839195378</v>
+        <v>4.241918839195364</v>
       </c>
       <c r="H11" t="n">
-        <v>4.241918839195378</v>
+        <v>4.241918839195364</v>
       </c>
       <c r="I11" t="n">
-        <v>4.241918839195378</v>
+        <v>4.241918839195364</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>4.241918839195378</v>
+        <v>4.241918839195364</v>
       </c>
       <c r="T11" t="n">
-        <v>4.241918839195378</v>
+        <v>4.241918839195364</v>
       </c>
       <c r="U11" t="n">
-        <v>4.241918839195378</v>
+        <v>4.241918839195364</v>
       </c>
       <c r="V11" t="n">
-        <v>4.241918839195378</v>
+        <v>4.241918839195364</v>
       </c>
       <c r="W11" t="n">
-        <v>4.241918839195378</v>
+        <v>4.241918839195364</v>
       </c>
       <c r="X11" t="n">
-        <v>4.241918839195378</v>
+        <v>4.241918839195364</v>
       </c>
       <c r="Y11" t="n">
-        <v>4.241918839195378</v>
+        <v>4.241918839195364</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4.241918839195378</v>
+        <v>4.241918839195364</v>
       </c>
       <c r="C13" t="n">
-        <v>4.241918839195378</v>
+        <v>4.241918839195364</v>
       </c>
       <c r="D13" t="n">
-        <v>4.241918839195378</v>
+        <v>4.241918839195364</v>
       </c>
       <c r="E13" t="n">
-        <v>4.241918839195378</v>
+        <v>4.241918839195364</v>
       </c>
       <c r="F13" t="n">
-        <v>4.241918839195378</v>
+        <v>4.241918839195364</v>
       </c>
       <c r="G13" t="n">
-        <v>4.241918839195378</v>
+        <v>4.241918839195364</v>
       </c>
       <c r="H13" t="n">
-        <v>4.241918839195378</v>
+        <v>4.241918839195364</v>
       </c>
       <c r="I13" t="n">
-        <v>4.241918839195378</v>
+        <v>4.241918839195364</v>
       </c>
       <c r="J13" t="n">
-        <v>4.241918839195378</v>
+        <v>4.241918839195364</v>
       </c>
       <c r="K13" t="n">
-        <v>4.241918839195378</v>
+        <v>4.241918839195364</v>
       </c>
       <c r="L13" t="n">
-        <v>4.241918839195378</v>
+        <v>4.241918839195364</v>
       </c>
       <c r="M13" t="n">
-        <v>4.241918839195378</v>
+        <v>4.241918839195364</v>
       </c>
       <c r="N13" t="n">
-        <v>4.241918839195378</v>
+        <v>4.241918839195364</v>
       </c>
       <c r="O13" t="n">
-        <v>4.241918839195378</v>
+        <v>4.241918839195364</v>
       </c>
       <c r="P13" t="n">
-        <v>4.241918839195378</v>
+        <v>4.241918839195364</v>
       </c>
       <c r="Q13" t="n">
-        <v>4.241918839195378</v>
+        <v>4.241918839195364</v>
       </c>
       <c r="R13" t="n">
-        <v>4.241918839195378</v>
+        <v>4.241918839195364</v>
       </c>
       <c r="S13" t="n">
-        <v>4.241918839195378</v>
+        <v>4.241918839195364</v>
       </c>
       <c r="T13" t="n">
-        <v>4.241918839195378</v>
+        <v>4.241918839195364</v>
       </c>
       <c r="U13" t="n">
-        <v>4.241918839195378</v>
+        <v>4.241918839195364</v>
       </c>
       <c r="V13" t="n">
-        <v>4.241918839195378</v>
+        <v>4.241918839195364</v>
       </c>
       <c r="W13" t="n">
-        <v>4.241918839195378</v>
+        <v>4.241918839195364</v>
       </c>
       <c r="X13" t="n">
-        <v>4.241918839195378</v>
+        <v>4.241918839195364</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.241918839195378</v>
+        <v>4.241918839195364</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4.241918839195378</v>
+        <v>4.241918839195364</v>
       </c>
       <c r="C14" t="n">
-        <v>4.241918839195378</v>
+        <v>4.241918839195364</v>
       </c>
       <c r="D14" t="n">
-        <v>4.241918839195378</v>
+        <v>4.241918839195364</v>
       </c>
       <c r="E14" t="n">
-        <v>4.241918839195378</v>
+        <v>4.241918839195364</v>
       </c>
       <c r="F14" t="n">
-        <v>4.241918839195378</v>
+        <v>4.241918839195364</v>
       </c>
       <c r="G14" t="n">
-        <v>4.241918839195378</v>
+        <v>4.241918839195364</v>
       </c>
       <c r="H14" t="n">
-        <v>4.241918839195378</v>
+        <v>4.241918839195364</v>
       </c>
       <c r="I14" t="n">
-        <v>4.241918839195378</v>
+        <v>4.241918839195364</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>4.241918839195378</v>
+        <v>4.241918839195364</v>
       </c>
       <c r="T14" t="n">
-        <v>4.241918839195378</v>
+        <v>4.241918839195364</v>
       </c>
       <c r="U14" t="n">
-        <v>4.241918839195378</v>
+        <v>4.241918839195364</v>
       </c>
       <c r="V14" t="n">
-        <v>4.241918839195378</v>
+        <v>4.241918839195364</v>
       </c>
       <c r="W14" t="n">
-        <v>4.241918839195378</v>
+        <v>4.241918839195364</v>
       </c>
       <c r="X14" t="n">
-        <v>4.241918839195378</v>
+        <v>4.241918839195364</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.241918839195378</v>
+        <v>4.241918839195364</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>4.241918839195378</v>
+        <v>4.241918839195364</v>
       </c>
       <c r="C16" t="n">
-        <v>4.241918839195378</v>
+        <v>4.241918839195364</v>
       </c>
       <c r="D16" t="n">
-        <v>4.241918839195378</v>
+        <v>4.241918839195364</v>
       </c>
       <c r="E16" t="n">
-        <v>4.241918839195378</v>
+        <v>4.241918839195364</v>
       </c>
       <c r="F16" t="n">
-        <v>4.241918839195378</v>
+        <v>4.241918839195364</v>
       </c>
       <c r="G16" t="n">
-        <v>4.241918839195378</v>
+        <v>4.241918839195364</v>
       </c>
       <c r="H16" t="n">
-        <v>4.241918839195378</v>
+        <v>4.241918839195364</v>
       </c>
       <c r="I16" t="n">
-        <v>4.241918839195378</v>
+        <v>4.241918839195364</v>
       </c>
       <c r="J16" t="n">
-        <v>4.241918839195378</v>
+        <v>4.241918839195364</v>
       </c>
       <c r="K16" t="n">
-        <v>4.241918839195378</v>
+        <v>4.241918839195364</v>
       </c>
       <c r="L16" t="n">
-        <v>4.241918839195378</v>
+        <v>4.241918839195364</v>
       </c>
       <c r="M16" t="n">
-        <v>4.241918839195378</v>
+        <v>4.241918839195364</v>
       </c>
       <c r="N16" t="n">
-        <v>4.241918839195378</v>
+        <v>4.241918839195364</v>
       </c>
       <c r="O16" t="n">
-        <v>4.241918839195378</v>
+        <v>4.241918839195364</v>
       </c>
       <c r="P16" t="n">
-        <v>4.241918839195378</v>
+        <v>4.241918839195364</v>
       </c>
       <c r="Q16" t="n">
-        <v>4.241918839195378</v>
+        <v>4.241918839195364</v>
       </c>
       <c r="R16" t="n">
-        <v>4.241918839195378</v>
+        <v>4.241918839195364</v>
       </c>
       <c r="S16" t="n">
-        <v>4.241918839195378</v>
+        <v>4.241918839195364</v>
       </c>
       <c r="T16" t="n">
-        <v>4.241918839195378</v>
+        <v>4.241918839195364</v>
       </c>
       <c r="U16" t="n">
-        <v>4.241918839195378</v>
+        <v>4.241918839195364</v>
       </c>
       <c r="V16" t="n">
-        <v>4.241918839195378</v>
+        <v>4.241918839195364</v>
       </c>
       <c r="W16" t="n">
-        <v>4.241918839195378</v>
+        <v>4.241918839195364</v>
       </c>
       <c r="X16" t="n">
-        <v>4.241918839195378</v>
+        <v>4.241918839195364</v>
       </c>
       <c r="Y16" t="n">
-        <v>4.241918839195378</v>
+        <v>4.241918839195364</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>47.32052204372701</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="C17" t="n">
-        <v>47.32052204372701</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="D17" t="n">
-        <v>47.32052204372701</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="E17" t="n">
-        <v>47.32052204372701</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="F17" t="n">
-        <v>47.32052204372701</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="G17" t="n">
-        <v>47.32052204372701</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="H17" t="n">
-        <v>47.32052204372701</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="I17" t="n">
-        <v>42.23323348013997</v>
+        <v>42.23323348013994</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>47.32052204372701</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="T17" t="n">
-        <v>47.32052204372701</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="U17" t="n">
-        <v>47.32052204372701</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="V17" t="n">
-        <v>47.32052204372701</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="W17" t="n">
-        <v>47.32052204372701</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="X17" t="n">
-        <v>47.32052204372701</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="Y17" t="n">
-        <v>47.32052204372701</v>
+        <v>47.32052204372705</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>47.32052204372701</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="C19" t="n">
-        <v>47.32052204372701</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="D19" t="n">
-        <v>47.32052204372701</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="E19" t="n">
-        <v>47.32052204372701</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="F19" t="n">
-        <v>47.32052204372701</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="G19" t="n">
-        <v>47.32052204372701</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="H19" t="n">
-        <v>47.32052204372701</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="I19" t="n">
-        <v>47.32052204372701</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="J19" t="n">
-        <v>47.32052204372701</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="K19" t="n">
-        <v>47.32052204372701</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="L19" t="n">
-        <v>47.32052204372889</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="M19" t="n">
-        <v>47.32052204372701</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="N19" t="n">
-        <v>47.32052204372701</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="O19" t="n">
-        <v>47.32052204372701</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="P19" t="n">
-        <v>47.32052204372701</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="Q19" t="n">
-        <v>47.32052204372701</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="R19" t="n">
-        <v>47.32052204372701</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="S19" t="n">
-        <v>47.32052204372701</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="T19" t="n">
-        <v>47.32052204372701</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="U19" t="n">
-        <v>47.32052204372701</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="V19" t="n">
-        <v>47.32052204372701</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="W19" t="n">
-        <v>47.32052204372701</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="X19" t="n">
-        <v>47.32052204372701</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="Y19" t="n">
-        <v>47.32052204372701</v>
+        <v>47.32052204372705</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>47.32052204372707</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="C20" t="n">
-        <v>47.32052204372707</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="D20" t="n">
-        <v>47.32052204372707</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="E20" t="n">
-        <v>47.32052204372707</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="F20" t="n">
-        <v>47.32052204372707</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="G20" t="n">
-        <v>47.32052204372707</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="H20" t="n">
-        <v>47.32052204372707</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="I20" t="n">
-        <v>42.23323348013997</v>
+        <v>42.23323348013994</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>47.32052204372707</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="T20" t="n">
-        <v>47.32052204372707</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="U20" t="n">
-        <v>47.32052204372707</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="V20" t="n">
-        <v>47.32052204372707</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="W20" t="n">
-        <v>47.32052204372707</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="X20" t="n">
-        <v>47.32052204372707</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="Y20" t="n">
-        <v>47.32052204372707</v>
+        <v>47.32052204372705</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>47.32052204372707</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="C22" t="n">
-        <v>47.32052204372707</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="D22" t="n">
-        <v>47.32052204372707</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="E22" t="n">
-        <v>47.32052204372707</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="F22" t="n">
-        <v>47.32052204372707</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="G22" t="n">
-        <v>47.32052204372707</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="H22" t="n">
-        <v>47.32052204372707</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="I22" t="n">
-        <v>47.32052204372707</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="J22" t="n">
-        <v>47.32052204372707</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="K22" t="n">
-        <v>47.32052204372707</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="L22" t="n">
-        <v>47.32052204372707</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="M22" t="n">
-        <v>47.32052204372707</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="N22" t="n">
-        <v>47.32052204372707</v>
+        <v>47.32052204372712</v>
       </c>
       <c r="O22" t="n">
-        <v>47.32052204372707</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="P22" t="n">
-        <v>47.32052204372707</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="Q22" t="n">
-        <v>47.32052204372707</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="R22" t="n">
-        <v>47.32052204372707</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="S22" t="n">
-        <v>47.32052204372707</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="T22" t="n">
-        <v>47.32052204372707</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="U22" t="n">
-        <v>47.32052204372707</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="V22" t="n">
-        <v>47.32052204372707</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="W22" t="n">
-        <v>47.32052204372707</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="X22" t="n">
-        <v>47.32052204372707</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="Y22" t="n">
-        <v>47.32052204372707</v>
+        <v>47.32052204372705</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>47.32052204372707</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="C23" t="n">
-        <v>47.32052204372707</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="D23" t="n">
-        <v>47.32052204372707</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="E23" t="n">
-        <v>47.32052204372707</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="F23" t="n">
-        <v>47.32052204372707</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="G23" t="n">
-        <v>47.32052204372707</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="H23" t="n">
-        <v>47.32052204372707</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="I23" t="n">
         <v>42.23323348013994</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>47.32052204372707</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="T23" t="n">
-        <v>47.32052204372707</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="U23" t="n">
-        <v>47.32052204372707</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="V23" t="n">
-        <v>47.32052204372707</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="W23" t="n">
-        <v>47.32052204372707</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="X23" t="n">
-        <v>47.32052204372707</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="Y23" t="n">
-        <v>47.32052204372707</v>
+        <v>47.32052204372705</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>47.32052204372707</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="C25" t="n">
-        <v>47.32052204372707</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="D25" t="n">
-        <v>47.32052204372707</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="E25" t="n">
-        <v>47.32052204372707</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="F25" t="n">
-        <v>47.32052204372707</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="G25" t="n">
-        <v>47.32052204372707</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="H25" t="n">
-        <v>47.32052204372707</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="I25" t="n">
-        <v>47.32052204372707</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="J25" t="n">
-        <v>47.32052204372707</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="K25" t="n">
-        <v>47.32052204372707</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="L25" t="n">
-        <v>47.32052204372707</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="M25" t="n">
-        <v>47.32052204372707</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="N25" t="n">
-        <v>47.32052204372707</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="O25" t="n">
-        <v>47.32052204372707</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="P25" t="n">
-        <v>47.32052204372707</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="Q25" t="n">
-        <v>47.32052204372707</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="R25" t="n">
-        <v>47.32052204372707</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="S25" t="n">
-        <v>47.32052204372707</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="T25" t="n">
-        <v>47.32052204372707</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="U25" t="n">
-        <v>47.32052204372707</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="V25" t="n">
-        <v>47.32052204372707</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="W25" t="n">
-        <v>47.32052204372707</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="X25" t="n">
-        <v>47.32052204372707</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="Y25" t="n">
-        <v>47.32052204372707</v>
+        <v>47.32052204372705</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>43.07860320453169</v>
+        <v>43.07860320453164</v>
       </c>
       <c r="C26" t="n">
-        <v>43.07860320453169</v>
+        <v>43.07860320453164</v>
       </c>
       <c r="D26" t="n">
-        <v>43.07860320453169</v>
+        <v>43.07860320453164</v>
       </c>
       <c r="E26" t="n">
-        <v>43.07860320453169</v>
+        <v>43.07860320453164</v>
       </c>
       <c r="F26" t="n">
-        <v>43.07860320453169</v>
+        <v>43.07860320453164</v>
       </c>
       <c r="G26" t="n">
-        <v>43.07860320453169</v>
+        <v>43.07860320453164</v>
       </c>
       <c r="H26" t="n">
-        <v>43.07860320453169</v>
+        <v>43.07860320453164</v>
       </c>
       <c r="I26" t="n">
-        <v>42.23323348013997</v>
+        <v>42.23323348013994</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>43.07860320453169</v>
+        <v>43.07860320453164</v>
       </c>
       <c r="T26" t="n">
-        <v>43.07860320453169</v>
+        <v>43.07860320453164</v>
       </c>
       <c r="U26" t="n">
-        <v>43.07860320453169</v>
+        <v>43.07860320453164</v>
       </c>
       <c r="V26" t="n">
-        <v>43.07860320453169</v>
+        <v>43.07860320453164</v>
       </c>
       <c r="W26" t="n">
-        <v>43.07860320453169</v>
+        <v>43.07860320453164</v>
       </c>
       <c r="X26" t="n">
-        <v>43.07860320453169</v>
+        <v>43.07860320453164</v>
       </c>
       <c r="Y26" t="n">
-        <v>43.07860320453169</v>
+        <v>43.07860320453164</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>43.07860320453169</v>
+        <v>43.07860320453164</v>
       </c>
       <c r="C28" t="n">
-        <v>43.07860320453169</v>
+        <v>43.07860320453164</v>
       </c>
       <c r="D28" t="n">
-        <v>43.07860320453169</v>
+        <v>43.07860320453164</v>
       </c>
       <c r="E28" t="n">
-        <v>43.07860320453169</v>
+        <v>43.07860320453164</v>
       </c>
       <c r="F28" t="n">
-        <v>43.07860320453169</v>
+        <v>43.07860320453164</v>
       </c>
       <c r="G28" t="n">
-        <v>43.07860320453169</v>
+        <v>43.07860320453164</v>
       </c>
       <c r="H28" t="n">
-        <v>43.07860320453169</v>
+        <v>43.07860320453164</v>
       </c>
       <c r="I28" t="n">
-        <v>43.07860320453169</v>
+        <v>43.07860320453164</v>
       </c>
       <c r="J28" t="n">
-        <v>43.07860320453169</v>
+        <v>43.07860320453164</v>
       </c>
       <c r="K28" t="n">
-        <v>43.07860320453169</v>
+        <v>43.07860320453164</v>
       </c>
       <c r="L28" t="n">
-        <v>43.07860320453169</v>
+        <v>43.07860320453164</v>
       </c>
       <c r="M28" t="n">
-        <v>43.07860320453169</v>
+        <v>43.07860320453164</v>
       </c>
       <c r="N28" t="n">
-        <v>43.07860320453169</v>
+        <v>43.07860320453164</v>
       </c>
       <c r="O28" t="n">
-        <v>43.07860320453169</v>
+        <v>43.07860320453164</v>
       </c>
       <c r="P28" t="n">
-        <v>43.07860320453169</v>
+        <v>43.07860320453164</v>
       </c>
       <c r="Q28" t="n">
-        <v>43.07860320453169</v>
+        <v>43.07860320453164</v>
       </c>
       <c r="R28" t="n">
-        <v>43.07860320453169</v>
+        <v>43.07860320453164</v>
       </c>
       <c r="S28" t="n">
-        <v>43.07860320453169</v>
+        <v>43.07860320453164</v>
       </c>
       <c r="T28" t="n">
-        <v>43.07860320453169</v>
+        <v>43.07860320453164</v>
       </c>
       <c r="U28" t="n">
-        <v>43.07860320453169</v>
+        <v>43.07860320453164</v>
       </c>
       <c r="V28" t="n">
-        <v>43.07860320453169</v>
+        <v>43.07860320453164</v>
       </c>
       <c r="W28" t="n">
-        <v>43.07860320453169</v>
+        <v>43.07860320453164</v>
       </c>
       <c r="X28" t="n">
-        <v>43.07860320453169</v>
+        <v>43.07860320453164</v>
       </c>
       <c r="Y28" t="n">
-        <v>43.07860320453169</v>
+        <v>43.07860320453164</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>43.07860320453169</v>
+        <v>43.07860320453164</v>
       </c>
       <c r="C29" t="n">
-        <v>43.07860320453169</v>
+        <v>43.07860320453164</v>
       </c>
       <c r="D29" t="n">
-        <v>43.07860320453169</v>
+        <v>43.07860320453164</v>
       </c>
       <c r="E29" t="n">
-        <v>43.07860320453169</v>
+        <v>43.07860320453164</v>
       </c>
       <c r="F29" t="n">
-        <v>43.07860320453169</v>
+        <v>43.07860320453164</v>
       </c>
       <c r="G29" t="n">
-        <v>43.07860320453169</v>
+        <v>43.07860320453164</v>
       </c>
       <c r="H29" t="n">
-        <v>43.07860320453169</v>
+        <v>43.07860320453164</v>
       </c>
       <c r="I29" t="n">
-        <v>42.23323348013997</v>
+        <v>42.23323348013994</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>43.07860320453169</v>
+        <v>43.07860320453164</v>
       </c>
       <c r="T29" t="n">
-        <v>43.07860320453169</v>
+        <v>43.07860320453164</v>
       </c>
       <c r="U29" t="n">
-        <v>43.07860320453169</v>
+        <v>43.07860320453164</v>
       </c>
       <c r="V29" t="n">
-        <v>43.07860320453169</v>
+        <v>43.07860320453164</v>
       </c>
       <c r="W29" t="n">
-        <v>43.07860320453169</v>
+        <v>43.07860320453164</v>
       </c>
       <c r="X29" t="n">
-        <v>43.07860320453169</v>
+        <v>43.07860320453164</v>
       </c>
       <c r="Y29" t="n">
-        <v>43.07860320453169</v>
+        <v>43.07860320453164</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>43.07860320453169</v>
+        <v>43.07860320453164</v>
       </c>
       <c r="C31" t="n">
-        <v>43.07860320453169</v>
+        <v>43.07860320453164</v>
       </c>
       <c r="D31" t="n">
-        <v>43.07860320453169</v>
+        <v>43.07860320453164</v>
       </c>
       <c r="E31" t="n">
-        <v>43.07860320453169</v>
+        <v>43.07860320453164</v>
       </c>
       <c r="F31" t="n">
-        <v>43.07860320453169</v>
+        <v>43.07860320453164</v>
       </c>
       <c r="G31" t="n">
-        <v>43.07860320453169</v>
+        <v>43.07860320453164</v>
       </c>
       <c r="H31" t="n">
-        <v>43.07860320453169</v>
+        <v>43.07860320453164</v>
       </c>
       <c r="I31" t="n">
-        <v>43.07860320453169</v>
+        <v>43.07860320453164</v>
       </c>
       <c r="J31" t="n">
-        <v>43.07860320453169</v>
+        <v>43.07860320453164</v>
       </c>
       <c r="K31" t="n">
-        <v>43.07860320453169</v>
+        <v>43.07860320453164</v>
       </c>
       <c r="L31" t="n">
-        <v>43.07860320453169</v>
+        <v>43.07860320453164</v>
       </c>
       <c r="M31" t="n">
-        <v>43.07860320453169</v>
+        <v>43.07860320453164</v>
       </c>
       <c r="N31" t="n">
-        <v>43.07860320453169</v>
+        <v>43.07860320453164</v>
       </c>
       <c r="O31" t="n">
-        <v>43.07860320453169</v>
+        <v>43.07860320453164</v>
       </c>
       <c r="P31" t="n">
-        <v>43.07860320453169</v>
+        <v>43.07860320453164</v>
       </c>
       <c r="Q31" t="n">
-        <v>43.07860320453169</v>
+        <v>43.07860320453164</v>
       </c>
       <c r="R31" t="n">
-        <v>43.07860320453169</v>
+        <v>43.07860320453164</v>
       </c>
       <c r="S31" t="n">
-        <v>43.07860320453169</v>
+        <v>43.07860320453164</v>
       </c>
       <c r="T31" t="n">
-        <v>43.07860320453169</v>
+        <v>43.07860320453164</v>
       </c>
       <c r="U31" t="n">
-        <v>43.07860320453169</v>
+        <v>43.07860320453164</v>
       </c>
       <c r="V31" t="n">
-        <v>43.07860320453169</v>
+        <v>43.07860320453164</v>
       </c>
       <c r="W31" t="n">
-        <v>43.07860320453169</v>
+        <v>43.07860320453164</v>
       </c>
       <c r="X31" t="n">
-        <v>43.07860320453169</v>
+        <v>43.07860320453164</v>
       </c>
       <c r="Y31" t="n">
-        <v>43.07860320453169</v>
+        <v>43.07860320453164</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>47.3205220437271</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="C32" t="n">
-        <v>47.3205220437271</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="D32" t="n">
-        <v>47.3205220437271</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="E32" t="n">
-        <v>47.3205220437271</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="F32" t="n">
-        <v>47.3205220437271</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="G32" t="n">
-        <v>47.3205220437271</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="H32" t="n">
-        <v>47.3205220437271</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="I32" t="n">
-        <v>42.23323348013997</v>
+        <v>42.23323348013994</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>47.3205220437271</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="T32" t="n">
-        <v>47.3205220437271</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="U32" t="n">
-        <v>47.3205220437271</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="V32" t="n">
-        <v>47.3205220437271</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="W32" t="n">
-        <v>47.3205220437271</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="X32" t="n">
-        <v>47.3205220437271</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="Y32" t="n">
-        <v>47.3205220437271</v>
+        <v>47.32052204372705</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>47.3205220437271</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="C34" t="n">
-        <v>47.3205220437271</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="D34" t="n">
-        <v>47.3205220437271</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="E34" t="n">
-        <v>47.3205220437271</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="F34" t="n">
-        <v>47.3205220437271</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="G34" t="n">
-        <v>47.3205220437271</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="H34" t="n">
-        <v>47.3205220437271</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="I34" t="n">
-        <v>47.3205220437271</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="J34" t="n">
-        <v>47.3205220437271</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="K34" t="n">
-        <v>47.3205220437271</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="L34" t="n">
-        <v>47.3205220437271</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="M34" t="n">
-        <v>47.3205220437271</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="N34" t="n">
-        <v>47.3205220437271</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="O34" t="n">
-        <v>47.3205220437271</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="P34" t="n">
-        <v>47.3205220437271</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="Q34" t="n">
-        <v>47.3205220437271</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="R34" t="n">
-        <v>47.3205220437271</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="S34" t="n">
-        <v>47.3205220437271</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="T34" t="n">
-        <v>47.3205220437271</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="U34" t="n">
-        <v>47.3205220437271</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="V34" t="n">
-        <v>47.3205220437271</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="W34" t="n">
-        <v>47.3205220437271</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="X34" t="n">
-        <v>47.3205220437271</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="Y34" t="n">
-        <v>47.3205220437271</v>
+        <v>47.32052204372705</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>47.32052204372709</v>
+        <v>47.32052204372708</v>
       </c>
       <c r="C35" t="n">
-        <v>47.32052204372709</v>
+        <v>47.32052204372708</v>
       </c>
       <c r="D35" t="n">
-        <v>47.32052204372709</v>
+        <v>47.32052204372708</v>
       </c>
       <c r="E35" t="n">
-        <v>47.32052204372709</v>
+        <v>47.32052204372708</v>
       </c>
       <c r="F35" t="n">
-        <v>47.32052204372709</v>
+        <v>47.32052204372708</v>
       </c>
       <c r="G35" t="n">
-        <v>47.32052204372709</v>
+        <v>47.32052204372708</v>
       </c>
       <c r="H35" t="n">
-        <v>47.32052204372709</v>
+        <v>47.32052204372708</v>
       </c>
       <c r="I35" t="n">
         <v>42.23323348013994</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>47.32052204372709</v>
+        <v>47.32052204372708</v>
       </c>
       <c r="T35" t="n">
-        <v>47.32052204372709</v>
+        <v>47.32052204372708</v>
       </c>
       <c r="U35" t="n">
-        <v>47.32052204372709</v>
+        <v>47.32052204372708</v>
       </c>
       <c r="V35" t="n">
-        <v>47.32052204372709</v>
+        <v>47.32052204372708</v>
       </c>
       <c r="W35" t="n">
-        <v>47.32052204372709</v>
+        <v>47.32052204372708</v>
       </c>
       <c r="X35" t="n">
-        <v>47.32052204372709</v>
+        <v>47.32052204372708</v>
       </c>
       <c r="Y35" t="n">
-        <v>47.32052204372709</v>
+        <v>47.32052204372708</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>47.32052204372709</v>
+        <v>47.32052204372708</v>
       </c>
       <c r="C37" t="n">
-        <v>47.32052204372709</v>
+        <v>47.32052204372708</v>
       </c>
       <c r="D37" t="n">
-        <v>47.32052204372709</v>
+        <v>47.32052204372708</v>
       </c>
       <c r="E37" t="n">
-        <v>47.32052204372709</v>
+        <v>47.32052204372708</v>
       </c>
       <c r="F37" t="n">
-        <v>47.32052204372709</v>
+        <v>47.32052204372708</v>
       </c>
       <c r="G37" t="n">
-        <v>47.32052204372709</v>
+        <v>47.32052204372708</v>
       </c>
       <c r="H37" t="n">
-        <v>47.32052204372709</v>
+        <v>47.32052204372708</v>
       </c>
       <c r="I37" t="n">
-        <v>47.32052204372709</v>
+        <v>47.32052204372708</v>
       </c>
       <c r="J37" t="n">
-        <v>47.32052204372709</v>
+        <v>47.32052204372708</v>
       </c>
       <c r="K37" t="n">
-        <v>47.32052204372709</v>
+        <v>47.32052204372708</v>
       </c>
       <c r="L37" t="n">
-        <v>47.32052204372709</v>
+        <v>47.32052204372708</v>
       </c>
       <c r="M37" t="n">
-        <v>47.32052204372709</v>
+        <v>47.32052204372708</v>
       </c>
       <c r="N37" t="n">
-        <v>47.32052204372709</v>
+        <v>47.32052204372708</v>
       </c>
       <c r="O37" t="n">
-        <v>47.32052204372709</v>
+        <v>47.32052204372708</v>
       </c>
       <c r="P37" t="n">
-        <v>47.32052204372709</v>
+        <v>47.32052204372708</v>
       </c>
       <c r="Q37" t="n">
-        <v>47.32052204372709</v>
+        <v>47.32052204372708</v>
       </c>
       <c r="R37" t="n">
-        <v>47.32052204372709</v>
+        <v>47.32052204372708</v>
       </c>
       <c r="S37" t="n">
-        <v>47.32052204372709</v>
+        <v>47.32052204372708</v>
       </c>
       <c r="T37" t="n">
-        <v>47.32052204372709</v>
+        <v>47.32052204372708</v>
       </c>
       <c r="U37" t="n">
-        <v>47.32052204372709</v>
+        <v>47.32052204372708</v>
       </c>
       <c r="V37" t="n">
-        <v>47.32052204372709</v>
+        <v>47.32052204372708</v>
       </c>
       <c r="W37" t="n">
-        <v>47.32052204372709</v>
+        <v>47.32052204372708</v>
       </c>
       <c r="X37" t="n">
-        <v>47.32052204372709</v>
+        <v>47.32052204372708</v>
       </c>
       <c r="Y37" t="n">
-        <v>47.32052204372709</v>
+        <v>47.32052204372708</v>
       </c>
     </row>
     <row r="38">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>47.32052204372706</v>
+        <v>47.32052204372704</v>
       </c>
       <c r="C41" t="n">
-        <v>47.32052204372706</v>
+        <v>47.32052204372704</v>
       </c>
       <c r="D41" t="n">
-        <v>47.32052204372706</v>
+        <v>47.32052204372704</v>
       </c>
       <c r="E41" t="n">
-        <v>47.32052204372706</v>
+        <v>47.32052204372704</v>
       </c>
       <c r="F41" t="n">
-        <v>47.32052204372706</v>
+        <v>47.32052204372704</v>
       </c>
       <c r="G41" t="n">
-        <v>47.32052204372706</v>
+        <v>47.32052204372704</v>
       </c>
       <c r="H41" t="n">
-        <v>47.32052204372706</v>
+        <v>47.32052204372704</v>
       </c>
       <c r="I41" t="n">
         <v>42.23323348013994</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>47.32052204372706</v>
+        <v>47.32052204372704</v>
       </c>
       <c r="T41" t="n">
-        <v>47.32052204372706</v>
+        <v>47.32052204372704</v>
       </c>
       <c r="U41" t="n">
-        <v>47.32052204372706</v>
+        <v>47.32052204372704</v>
       </c>
       <c r="V41" t="n">
-        <v>47.32052204372706</v>
+        <v>47.32052204372704</v>
       </c>
       <c r="W41" t="n">
-        <v>47.32052204372706</v>
+        <v>47.32052204372704</v>
       </c>
       <c r="X41" t="n">
-        <v>47.32052204372706</v>
+        <v>47.32052204372704</v>
       </c>
       <c r="Y41" t="n">
-        <v>47.32052204372706</v>
+        <v>47.32052204372704</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>47.32052204372706</v>
+        <v>47.32052204372704</v>
       </c>
       <c r="C43" t="n">
-        <v>47.32052204372706</v>
+        <v>47.32052204372704</v>
       </c>
       <c r="D43" t="n">
-        <v>47.32052204372706</v>
+        <v>47.32052204372704</v>
       </c>
       <c r="E43" t="n">
-        <v>47.32052204372706</v>
+        <v>47.32052204372704</v>
       </c>
       <c r="F43" t="n">
-        <v>47.32052204372706</v>
+        <v>47.32052204372704</v>
       </c>
       <c r="G43" t="n">
-        <v>47.32052204372706</v>
+        <v>47.32052204372704</v>
       </c>
       <c r="H43" t="n">
-        <v>47.32052204372706</v>
+        <v>47.32052204372704</v>
       </c>
       <c r="I43" t="n">
-        <v>47.32052204372706</v>
+        <v>47.32052204372704</v>
       </c>
       <c r="J43" t="n">
-        <v>47.32052204372706</v>
+        <v>47.32052204372704</v>
       </c>
       <c r="K43" t="n">
-        <v>47.32052204372706</v>
+        <v>47.32052204372704</v>
       </c>
       <c r="L43" t="n">
-        <v>47.32052204372706</v>
+        <v>47.32052204372704</v>
       </c>
       <c r="M43" t="n">
-        <v>47.32052204372706</v>
+        <v>47.32052204372704</v>
       </c>
       <c r="N43" t="n">
-        <v>47.32052204372706</v>
+        <v>47.32052204372704</v>
       </c>
       <c r="O43" t="n">
-        <v>47.32052204372706</v>
+        <v>47.32052204372704</v>
       </c>
       <c r="P43" t="n">
-        <v>47.32052204372706</v>
+        <v>47.32052204372806</v>
       </c>
       <c r="Q43" t="n">
-        <v>47.32052204372685</v>
+        <v>47.32052204372704</v>
       </c>
       <c r="R43" t="n">
-        <v>47.32052204372706</v>
+        <v>47.32052204372704</v>
       </c>
       <c r="S43" t="n">
-        <v>47.32052204372706</v>
+        <v>47.32052204372704</v>
       </c>
       <c r="T43" t="n">
-        <v>47.32052204372706</v>
+        <v>47.32052204372704</v>
       </c>
       <c r="U43" t="n">
-        <v>47.32052204372706</v>
+        <v>47.32052204372704</v>
       </c>
       <c r="V43" t="n">
-        <v>47.32052204372706</v>
+        <v>47.32052204372704</v>
       </c>
       <c r="W43" t="n">
-        <v>47.32052204372706</v>
+        <v>47.32052204372704</v>
       </c>
       <c r="X43" t="n">
-        <v>47.32052204372706</v>
+        <v>47.32052204372704</v>
       </c>
       <c r="Y43" t="n">
-        <v>47.32052204372706</v>
+        <v>47.32052204372704</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>47.32052204372706</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="C44" t="n">
-        <v>47.32052204372706</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="D44" t="n">
-        <v>47.32052204372706</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="E44" t="n">
-        <v>47.32052204372706</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="F44" t="n">
-        <v>47.32052204372706</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="G44" t="n">
-        <v>47.32052204372706</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="H44" t="n">
-        <v>47.32052204372706</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="I44" t="n">
         <v>42.23323348013994</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>47.32052204372706</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="T44" t="n">
-        <v>47.32052204372706</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="U44" t="n">
-        <v>47.32052204372706</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="V44" t="n">
-        <v>47.32052204372706</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="W44" t="n">
-        <v>47.32052204372706</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="X44" t="n">
-        <v>47.32052204372706</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="Y44" t="n">
-        <v>47.32052204372706</v>
+        <v>47.32052204372705</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>47.32052204372706</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="C46" t="n">
-        <v>47.32052204372706</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="D46" t="n">
-        <v>47.32052204372706</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="E46" t="n">
-        <v>47.32052204372706</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="F46" t="n">
-        <v>47.32052204372706</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="G46" t="n">
-        <v>47.32052204372706</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="H46" t="n">
-        <v>47.32052204372706</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="I46" t="n">
-        <v>47.32052204372706</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="J46" t="n">
-        <v>47.32052204372706</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="K46" t="n">
-        <v>47.32052204372706</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="L46" t="n">
-        <v>47.32052204372706</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="M46" t="n">
-        <v>47.32052204372706</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="N46" t="n">
-        <v>47.32052204372706</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="O46" t="n">
-        <v>47.32052204372706</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="P46" t="n">
-        <v>47.32052204372706</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="Q46" t="n">
-        <v>47.32052204372706</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="R46" t="n">
-        <v>47.32052204372706</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="S46" t="n">
-        <v>47.32052204372706</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="T46" t="n">
-        <v>47.32052204372706</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="U46" t="n">
-        <v>47.32052204372706</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="V46" t="n">
-        <v>47.32052204372706</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="W46" t="n">
-        <v>47.32052204372706</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="X46" t="n">
-        <v>47.32052204372706</v>
+        <v>47.32052204372705</v>
       </c>
       <c r="Y46" t="n">
-        <v>47.32052204372706</v>
+        <v>47.32052204372705</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.363988226191966</v>
+        <v>4.363988226191967</v>
       </c>
       <c r="H11" t="n">
-        <v>44.69269442148848</v>
+        <v>44.6926944214885</v>
       </c>
       <c r="I11" t="n">
-        <v>168.2426560902659</v>
+        <v>168.242656090266</v>
       </c>
       <c r="J11" t="n">
-        <v>370.3880457127607</v>
+        <v>370.3880457127608</v>
       </c>
       <c r="K11" t="n">
-        <v>555.1156673274668</v>
+        <v>555.1156673274669</v>
       </c>
       <c r="L11" t="n">
-        <v>688.6700720047893</v>
+        <v>688.6700720047894</v>
       </c>
       <c r="M11" t="n">
-        <v>766.2781476223306</v>
+        <v>766.2781476223308</v>
       </c>
       <c r="N11" t="n">
-        <v>778.6773291699986</v>
+        <v>778.6773291699988</v>
       </c>
       <c r="O11" t="n">
-        <v>735.2829212458022</v>
+        <v>735.2829212458023</v>
       </c>
       <c r="P11" t="n">
-        <v>627.546961911688</v>
+        <v>627.5469619116881</v>
       </c>
       <c r="Q11" t="n">
-        <v>471.261633561188</v>
+        <v>471.2616335611881</v>
       </c>
       <c r="R11" t="n">
-        <v>274.1293754135313</v>
+        <v>274.1293754135314</v>
       </c>
       <c r="S11" t="n">
-        <v>99.44438170434952</v>
+        <v>99.44438170434955</v>
       </c>
       <c r="T11" t="n">
         <v>19.10335846015534</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3491190580953572</v>
+        <v>0.3491190580953573</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,31 +31829,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.334939549513939</v>
+        <v>2.33493954951394</v>
       </c>
       <c r="H12" t="n">
-        <v>22.55060038609515</v>
+        <v>22.55060038609516</v>
       </c>
       <c r="I12" t="n">
-        <v>80.39155905124748</v>
+        <v>80.3915590512475</v>
       </c>
       <c r="J12" t="n">
         <v>220.600582614385</v>
       </c>
       <c r="K12" t="n">
-        <v>377.0415324318189</v>
+        <v>377.041532431819</v>
       </c>
       <c r="L12" t="n">
-        <v>506.9788701696823</v>
+        <v>506.9788701696824</v>
       </c>
       <c r="M12" t="n">
-        <v>591.6204288395625</v>
+        <v>591.6204288395626</v>
       </c>
       <c r="N12" t="n">
-        <v>607.278861169417</v>
+        <v>607.2788611694172</v>
       </c>
       <c r="O12" t="n">
-        <v>555.5415164143976</v>
+        <v>555.5415164143977</v>
       </c>
       <c r="P12" t="n">
         <v>445.8710443277978</v>
@@ -31868,7 +31868,7 @@
         <v>43.37047803592775</v>
       </c>
       <c r="T12" t="n">
-        <v>9.411444938611005</v>
+        <v>9.411444938611007</v>
       </c>
       <c r="U12" t="n">
         <v>0.1536144440469698</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.957534882609471</v>
+        <v>1.957534882609472</v>
       </c>
       <c r="H13" t="n">
-        <v>17.40426468356422</v>
+        <v>17.40426468356423</v>
       </c>
       <c r="I13" t="n">
-        <v>58.86841265156485</v>
+        <v>58.86841265156486</v>
       </c>
       <c r="J13" t="n">
         <v>138.3977162004896</v>
@@ -31923,7 +31923,7 @@
         <v>227.4299618159004</v>
       </c>
       <c r="L13" t="n">
-        <v>291.0320497290482</v>
+        <v>291.0320497290483</v>
       </c>
       <c r="M13" t="n">
         <v>306.8524907348647</v>
@@ -31932,25 +31932,25 @@
         <v>299.5562243542296</v>
       </c>
       <c r="O13" t="n">
-        <v>276.6886577710188</v>
+        <v>276.6886577710189</v>
       </c>
       <c r="P13" t="n">
-        <v>236.7549461657854</v>
+        <v>236.7549461657855</v>
       </c>
       <c r="Q13" t="n">
         <v>163.9168527610531</v>
       </c>
       <c r="R13" t="n">
-        <v>88.01788663078584</v>
+        <v>88.01788663078587</v>
       </c>
       <c r="S13" t="n">
-        <v>34.11449427238504</v>
+        <v>34.11449427238505</v>
       </c>
       <c r="T13" t="n">
-        <v>8.364012680240466</v>
+        <v>8.364012680240467</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1067746299605167</v>
+        <v>0.1067746299605168</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.363988226191966</v>
+        <v>4.363988226191967</v>
       </c>
       <c r="H14" t="n">
-        <v>44.69269442148848</v>
+        <v>44.6926944214885</v>
       </c>
       <c r="I14" t="n">
-        <v>168.2426560902659</v>
+        <v>168.242656090266</v>
       </c>
       <c r="J14" t="n">
-        <v>370.3880457127607</v>
+        <v>370.3880457127608</v>
       </c>
       <c r="K14" t="n">
-        <v>555.1156673274668</v>
+        <v>555.1156673274669</v>
       </c>
       <c r="L14" t="n">
-        <v>688.6700720047893</v>
+        <v>688.6700720047894</v>
       </c>
       <c r="M14" t="n">
-        <v>766.2781476223306</v>
+        <v>766.2781476223308</v>
       </c>
       <c r="N14" t="n">
-        <v>778.6773291699986</v>
+        <v>778.6773291699988</v>
       </c>
       <c r="O14" t="n">
-        <v>735.2829212458022</v>
+        <v>735.2829212458023</v>
       </c>
       <c r="P14" t="n">
-        <v>627.546961911688</v>
+        <v>627.5469619116881</v>
       </c>
       <c r="Q14" t="n">
-        <v>471.261633561188</v>
+        <v>471.2616335611881</v>
       </c>
       <c r="R14" t="n">
-        <v>274.1293754135313</v>
+        <v>274.1293754135314</v>
       </c>
       <c r="S14" t="n">
-        <v>99.44438170434952</v>
+        <v>99.44438170434955</v>
       </c>
       <c r="T14" t="n">
         <v>19.10335846015534</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3491190580953572</v>
+        <v>0.3491190580953573</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,31 +32066,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.334939549513939</v>
+        <v>2.33493954951394</v>
       </c>
       <c r="H15" t="n">
-        <v>22.55060038609515</v>
+        <v>22.55060038609516</v>
       </c>
       <c r="I15" t="n">
-        <v>80.39155905124748</v>
+        <v>80.3915590512475</v>
       </c>
       <c r="J15" t="n">
         <v>220.600582614385</v>
       </c>
       <c r="K15" t="n">
-        <v>377.0415324318189</v>
+        <v>377.041532431819</v>
       </c>
       <c r="L15" t="n">
-        <v>506.9788701696823</v>
+        <v>506.9788701696824</v>
       </c>
       <c r="M15" t="n">
-        <v>591.6204288395625</v>
+        <v>591.6204288395626</v>
       </c>
       <c r="N15" t="n">
-        <v>607.278861169417</v>
+        <v>607.2788611694172</v>
       </c>
       <c r="O15" t="n">
-        <v>555.5415164143976</v>
+        <v>555.5415164143977</v>
       </c>
       <c r="P15" t="n">
         <v>445.8710443277978</v>
@@ -32105,7 +32105,7 @@
         <v>43.37047803592775</v>
       </c>
       <c r="T15" t="n">
-        <v>9.411444938611005</v>
+        <v>9.411444938611007</v>
       </c>
       <c r="U15" t="n">
         <v>0.1536144440469698</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.957534882609471</v>
+        <v>1.957534882609472</v>
       </c>
       <c r="H16" t="n">
-        <v>17.40426468356422</v>
+        <v>17.40426468356423</v>
       </c>
       <c r="I16" t="n">
-        <v>58.86841265156485</v>
+        <v>58.86841265156486</v>
       </c>
       <c r="J16" t="n">
         <v>138.3977162004896</v>
@@ -32160,7 +32160,7 @@
         <v>227.4299618159004</v>
       </c>
       <c r="L16" t="n">
-        <v>291.0320497290482</v>
+        <v>291.0320497290483</v>
       </c>
       <c r="M16" t="n">
         <v>306.8524907348647</v>
@@ -32169,25 +32169,25 @@
         <v>299.5562243542296</v>
       </c>
       <c r="O16" t="n">
-        <v>276.6886577710188</v>
+        <v>276.6886577710189</v>
       </c>
       <c r="P16" t="n">
-        <v>236.7549461657854</v>
+        <v>236.7549461657855</v>
       </c>
       <c r="Q16" t="n">
         <v>163.9168527610531</v>
       </c>
       <c r="R16" t="n">
-        <v>88.01788663078584</v>
+        <v>88.01788663078587</v>
       </c>
       <c r="S16" t="n">
-        <v>34.11449427238504</v>
+        <v>34.11449427238505</v>
       </c>
       <c r="T16" t="n">
-        <v>8.364012680240466</v>
+        <v>8.364012680240467</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1067746299605167</v>
+        <v>0.1067746299605168</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.363988226191966</v>
+        <v>4.363988226191967</v>
       </c>
       <c r="H17" t="n">
-        <v>44.69269442148848</v>
+        <v>44.6926944214885</v>
       </c>
       <c r="I17" t="n">
-        <v>168.2426560902659</v>
+        <v>168.242656090266</v>
       </c>
       <c r="J17" t="n">
-        <v>370.3880457127607</v>
+        <v>370.3880457127608</v>
       </c>
       <c r="K17" t="n">
-        <v>555.1156673274668</v>
+        <v>555.1156673274669</v>
       </c>
       <c r="L17" t="n">
-        <v>688.6700720047893</v>
+        <v>688.6700720047894</v>
       </c>
       <c r="M17" t="n">
-        <v>766.2781476223306</v>
+        <v>766.2781476223308</v>
       </c>
       <c r="N17" t="n">
-        <v>778.6773291699986</v>
+        <v>778.6773291699988</v>
       </c>
       <c r="O17" t="n">
-        <v>735.2829212458022</v>
+        <v>735.2829212458023</v>
       </c>
       <c r="P17" t="n">
-        <v>627.546961911688</v>
+        <v>627.5469619116881</v>
       </c>
       <c r="Q17" t="n">
-        <v>471.261633561188</v>
+        <v>471.2616335611881</v>
       </c>
       <c r="R17" t="n">
-        <v>274.1293754135313</v>
+        <v>274.1293754135314</v>
       </c>
       <c r="S17" t="n">
-        <v>99.44438170434952</v>
+        <v>99.44438170434955</v>
       </c>
       <c r="T17" t="n">
         <v>19.10335846015534</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3491190580953572</v>
+        <v>0.3491190580953573</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,31 +32303,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.334939549513939</v>
+        <v>2.33493954951394</v>
       </c>
       <c r="H18" t="n">
-        <v>22.55060038609515</v>
+        <v>22.55060038609516</v>
       </c>
       <c r="I18" t="n">
-        <v>80.39155905124748</v>
+        <v>80.3915590512475</v>
       </c>
       <c r="J18" t="n">
         <v>220.600582614385</v>
       </c>
       <c r="K18" t="n">
-        <v>377.0415324318189</v>
+        <v>377.041532431819</v>
       </c>
       <c r="L18" t="n">
-        <v>506.9788701696823</v>
+        <v>506.9788701696824</v>
       </c>
       <c r="M18" t="n">
-        <v>591.6204288395625</v>
+        <v>591.6204288395626</v>
       </c>
       <c r="N18" t="n">
-        <v>607.278861169417</v>
+        <v>607.2788611694172</v>
       </c>
       <c r="O18" t="n">
-        <v>555.5415164143976</v>
+        <v>555.5415164143977</v>
       </c>
       <c r="P18" t="n">
         <v>445.8710443277978</v>
@@ -32342,7 +32342,7 @@
         <v>43.37047803592775</v>
       </c>
       <c r="T18" t="n">
-        <v>9.411444938611005</v>
+        <v>9.411444938611007</v>
       </c>
       <c r="U18" t="n">
         <v>0.1536144440469698</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.957534882609471</v>
+        <v>1.957534882609472</v>
       </c>
       <c r="H19" t="n">
-        <v>17.40426468356422</v>
+        <v>17.40426468356423</v>
       </c>
       <c r="I19" t="n">
-        <v>58.86841265156485</v>
+        <v>58.86841265156486</v>
       </c>
       <c r="J19" t="n">
         <v>138.3977162004896</v>
@@ -32397,7 +32397,7 @@
         <v>227.4299618159004</v>
       </c>
       <c r="L19" t="n">
-        <v>291.0320497290482</v>
+        <v>291.0320497290483</v>
       </c>
       <c r="M19" t="n">
         <v>306.8524907348647</v>
@@ -32406,25 +32406,25 @@
         <v>299.5562243542296</v>
       </c>
       <c r="O19" t="n">
-        <v>276.6886577710188</v>
+        <v>276.6886577710189</v>
       </c>
       <c r="P19" t="n">
-        <v>236.7549461657854</v>
+        <v>236.7549461657855</v>
       </c>
       <c r="Q19" t="n">
         <v>163.9168527610531</v>
       </c>
       <c r="R19" t="n">
-        <v>88.01788663078584</v>
+        <v>88.01788663078587</v>
       </c>
       <c r="S19" t="n">
-        <v>34.11449427238504</v>
+        <v>34.11449427238505</v>
       </c>
       <c r="T19" t="n">
-        <v>8.364012680240466</v>
+        <v>8.364012680240467</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1067746299605167</v>
+        <v>0.1067746299605168</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.363988226191966</v>
+        <v>4.363988226191967</v>
       </c>
       <c r="H20" t="n">
-        <v>44.69269442148848</v>
+        <v>44.6926944214885</v>
       </c>
       <c r="I20" t="n">
-        <v>168.2426560902659</v>
+        <v>168.242656090266</v>
       </c>
       <c r="J20" t="n">
-        <v>370.3880457127607</v>
+        <v>370.3880457127608</v>
       </c>
       <c r="K20" t="n">
-        <v>555.1156673274668</v>
+        <v>555.1156673274669</v>
       </c>
       <c r="L20" t="n">
-        <v>688.6700720047893</v>
+        <v>688.6700720047894</v>
       </c>
       <c r="M20" t="n">
-        <v>766.2781476223306</v>
+        <v>766.2781476223308</v>
       </c>
       <c r="N20" t="n">
-        <v>778.6773291699986</v>
+        <v>778.6773291699988</v>
       </c>
       <c r="O20" t="n">
-        <v>735.2829212458022</v>
+        <v>735.2829212458023</v>
       </c>
       <c r="P20" t="n">
-        <v>627.546961911688</v>
+        <v>627.5469619116881</v>
       </c>
       <c r="Q20" t="n">
-        <v>471.261633561188</v>
+        <v>471.2616335611881</v>
       </c>
       <c r="R20" t="n">
-        <v>274.1293754135313</v>
+        <v>274.1293754135314</v>
       </c>
       <c r="S20" t="n">
-        <v>99.44438170434952</v>
+        <v>99.44438170434955</v>
       </c>
       <c r="T20" t="n">
         <v>19.10335846015534</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3491190580953572</v>
+        <v>0.3491190580953573</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,31 +32540,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.334939549513939</v>
+        <v>2.33493954951394</v>
       </c>
       <c r="H21" t="n">
-        <v>22.55060038609515</v>
+        <v>22.55060038609516</v>
       </c>
       <c r="I21" t="n">
-        <v>80.39155905124748</v>
+        <v>80.3915590512475</v>
       </c>
       <c r="J21" t="n">
         <v>220.600582614385</v>
       </c>
       <c r="K21" t="n">
-        <v>377.0415324318189</v>
+        <v>377.041532431819</v>
       </c>
       <c r="L21" t="n">
-        <v>506.9788701696823</v>
+        <v>506.9788701696824</v>
       </c>
       <c r="M21" t="n">
-        <v>591.6204288395625</v>
+        <v>591.6204288395626</v>
       </c>
       <c r="N21" t="n">
-        <v>607.278861169417</v>
+        <v>607.2788611694172</v>
       </c>
       <c r="O21" t="n">
-        <v>555.5415164143976</v>
+        <v>555.5415164143977</v>
       </c>
       <c r="P21" t="n">
         <v>445.8710443277978</v>
@@ -32579,7 +32579,7 @@
         <v>43.37047803592775</v>
       </c>
       <c r="T21" t="n">
-        <v>9.411444938611005</v>
+        <v>9.411444938611007</v>
       </c>
       <c r="U21" t="n">
         <v>0.1536144440469698</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.957534882609471</v>
+        <v>1.957534882609472</v>
       </c>
       <c r="H22" t="n">
-        <v>17.40426468356422</v>
+        <v>17.40426468356423</v>
       </c>
       <c r="I22" t="n">
-        <v>58.86841265156485</v>
+        <v>58.86841265156486</v>
       </c>
       <c r="J22" t="n">
         <v>138.3977162004896</v>
@@ -32634,7 +32634,7 @@
         <v>227.4299618159004</v>
       </c>
       <c r="L22" t="n">
-        <v>291.0320497290482</v>
+        <v>291.0320497290483</v>
       </c>
       <c r="M22" t="n">
         <v>306.8524907348647</v>
@@ -32643,25 +32643,25 @@
         <v>299.5562243542296</v>
       </c>
       <c r="O22" t="n">
-        <v>276.6886577710188</v>
+        <v>276.6886577710189</v>
       </c>
       <c r="P22" t="n">
-        <v>236.7549461657854</v>
+        <v>236.7549461657855</v>
       </c>
       <c r="Q22" t="n">
         <v>163.9168527610531</v>
       </c>
       <c r="R22" t="n">
-        <v>88.01788663078584</v>
+        <v>88.01788663078587</v>
       </c>
       <c r="S22" t="n">
-        <v>34.11449427238504</v>
+        <v>34.11449427238505</v>
       </c>
       <c r="T22" t="n">
-        <v>8.364012680240466</v>
+        <v>8.364012680240467</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1067746299605167</v>
+        <v>0.1067746299605168</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.363988226191966</v>
+        <v>4.363988226191967</v>
       </c>
       <c r="H26" t="n">
-        <v>44.69269442148848</v>
+        <v>44.6926944214885</v>
       </c>
       <c r="I26" t="n">
-        <v>168.2426560902659</v>
+        <v>168.242656090266</v>
       </c>
       <c r="J26" t="n">
-        <v>370.3880457127607</v>
+        <v>370.3880457127608</v>
       </c>
       <c r="K26" t="n">
-        <v>555.1156673274668</v>
+        <v>555.1156673274669</v>
       </c>
       <c r="L26" t="n">
-        <v>688.6700720047893</v>
+        <v>688.6700720047894</v>
       </c>
       <c r="M26" t="n">
-        <v>766.2781476223306</v>
+        <v>766.2781476223308</v>
       </c>
       <c r="N26" t="n">
-        <v>778.6773291699986</v>
+        <v>778.6773291699988</v>
       </c>
       <c r="O26" t="n">
-        <v>735.2829212458022</v>
+        <v>735.2829212458023</v>
       </c>
       <c r="P26" t="n">
-        <v>627.546961911688</v>
+        <v>627.5469619116881</v>
       </c>
       <c r="Q26" t="n">
-        <v>471.261633561188</v>
+        <v>471.2616335611881</v>
       </c>
       <c r="R26" t="n">
-        <v>274.1293754135313</v>
+        <v>274.1293754135314</v>
       </c>
       <c r="S26" t="n">
-        <v>99.44438170434952</v>
+        <v>99.44438170434955</v>
       </c>
       <c r="T26" t="n">
         <v>19.10335846015534</v>
       </c>
       <c r="U26" t="n">
-        <v>0.3491190580953572</v>
+        <v>0.3491190580953573</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,31 +33014,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.334939549513939</v>
+        <v>2.33493954951394</v>
       </c>
       <c r="H27" t="n">
-        <v>22.55060038609515</v>
+        <v>22.55060038609516</v>
       </c>
       <c r="I27" t="n">
-        <v>80.39155905124748</v>
+        <v>80.3915590512475</v>
       </c>
       <c r="J27" t="n">
         <v>220.600582614385</v>
       </c>
       <c r="K27" t="n">
-        <v>377.0415324318189</v>
+        <v>377.041532431819</v>
       </c>
       <c r="L27" t="n">
-        <v>506.9788701696823</v>
+        <v>506.9788701696824</v>
       </c>
       <c r="M27" t="n">
-        <v>591.6204288395625</v>
+        <v>591.6204288395626</v>
       </c>
       <c r="N27" t="n">
-        <v>607.278861169417</v>
+        <v>607.2788611694172</v>
       </c>
       <c r="O27" t="n">
-        <v>555.5415164143976</v>
+        <v>555.5415164143977</v>
       </c>
       <c r="P27" t="n">
         <v>445.8710443277978</v>
@@ -33053,7 +33053,7 @@
         <v>43.37047803592775</v>
       </c>
       <c r="T27" t="n">
-        <v>9.411444938611005</v>
+        <v>9.411444938611007</v>
       </c>
       <c r="U27" t="n">
         <v>0.1536144440469698</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.957534882609471</v>
+        <v>1.957534882609472</v>
       </c>
       <c r="H28" t="n">
-        <v>17.40426468356422</v>
+        <v>17.40426468356423</v>
       </c>
       <c r="I28" t="n">
-        <v>58.86841265156485</v>
+        <v>58.86841265156486</v>
       </c>
       <c r="J28" t="n">
         <v>138.3977162004896</v>
@@ -33108,7 +33108,7 @@
         <v>227.4299618159004</v>
       </c>
       <c r="L28" t="n">
-        <v>291.0320497290482</v>
+        <v>291.0320497290483</v>
       </c>
       <c r="M28" t="n">
         <v>306.8524907348647</v>
@@ -33117,25 +33117,25 @@
         <v>299.5562243542296</v>
       </c>
       <c r="O28" t="n">
-        <v>276.6886577710188</v>
+        <v>276.6886577710189</v>
       </c>
       <c r="P28" t="n">
-        <v>236.7549461657854</v>
+        <v>236.7549461657855</v>
       </c>
       <c r="Q28" t="n">
         <v>163.9168527610531</v>
       </c>
       <c r="R28" t="n">
-        <v>88.01788663078584</v>
+        <v>88.01788663078587</v>
       </c>
       <c r="S28" t="n">
-        <v>34.11449427238504</v>
+        <v>34.11449427238505</v>
       </c>
       <c r="T28" t="n">
-        <v>8.364012680240466</v>
+        <v>8.364012680240467</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1067746299605167</v>
+        <v>0.1067746299605168</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.363988226191966</v>
+        <v>4.363988226191967</v>
       </c>
       <c r="H29" t="n">
-        <v>44.69269442148848</v>
+        <v>44.6926944214885</v>
       </c>
       <c r="I29" t="n">
-        <v>168.2426560902659</v>
+        <v>168.242656090266</v>
       </c>
       <c r="J29" t="n">
-        <v>370.3880457127607</v>
+        <v>370.3880457127608</v>
       </c>
       <c r="K29" t="n">
-        <v>555.1156673274668</v>
+        <v>555.1156673274669</v>
       </c>
       <c r="L29" t="n">
-        <v>688.6700720047893</v>
+        <v>688.6700720047894</v>
       </c>
       <c r="M29" t="n">
-        <v>766.2781476223306</v>
+        <v>766.2781476223308</v>
       </c>
       <c r="N29" t="n">
-        <v>778.6773291699986</v>
+        <v>778.6773291699988</v>
       </c>
       <c r="O29" t="n">
-        <v>735.2829212458022</v>
+        <v>735.2829212458023</v>
       </c>
       <c r="P29" t="n">
-        <v>627.546961911688</v>
+        <v>627.5469619116881</v>
       </c>
       <c r="Q29" t="n">
-        <v>471.261633561188</v>
+        <v>471.2616335611881</v>
       </c>
       <c r="R29" t="n">
-        <v>274.1293754135313</v>
+        <v>274.1293754135314</v>
       </c>
       <c r="S29" t="n">
-        <v>99.44438170434952</v>
+        <v>99.44438170434955</v>
       </c>
       <c r="T29" t="n">
         <v>19.10335846015534</v>
       </c>
       <c r="U29" t="n">
-        <v>0.3491190580953572</v>
+        <v>0.3491190580953573</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,31 +33251,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.334939549513939</v>
+        <v>2.33493954951394</v>
       </c>
       <c r="H30" t="n">
-        <v>22.55060038609515</v>
+        <v>22.55060038609516</v>
       </c>
       <c r="I30" t="n">
-        <v>80.39155905124748</v>
+        <v>80.3915590512475</v>
       </c>
       <c r="J30" t="n">
         <v>220.600582614385</v>
       </c>
       <c r="K30" t="n">
-        <v>377.0415324318189</v>
+        <v>377.041532431819</v>
       </c>
       <c r="L30" t="n">
-        <v>506.9788701696823</v>
+        <v>506.9788701696824</v>
       </c>
       <c r="M30" t="n">
-        <v>591.6204288395625</v>
+        <v>591.6204288395626</v>
       </c>
       <c r="N30" t="n">
-        <v>607.278861169417</v>
+        <v>607.2788611694172</v>
       </c>
       <c r="O30" t="n">
-        <v>555.5415164143976</v>
+        <v>555.5415164143977</v>
       </c>
       <c r="P30" t="n">
         <v>445.8710443277978</v>
@@ -33290,7 +33290,7 @@
         <v>43.37047803592775</v>
       </c>
       <c r="T30" t="n">
-        <v>9.411444938611005</v>
+        <v>9.411444938611007</v>
       </c>
       <c r="U30" t="n">
         <v>0.1536144440469698</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.957534882609471</v>
+        <v>1.957534882609472</v>
       </c>
       <c r="H31" t="n">
-        <v>17.40426468356422</v>
+        <v>17.40426468356423</v>
       </c>
       <c r="I31" t="n">
-        <v>58.86841265156485</v>
+        <v>58.86841265156486</v>
       </c>
       <c r="J31" t="n">
         <v>138.3977162004896</v>
@@ -33345,7 +33345,7 @@
         <v>227.4299618159004</v>
       </c>
       <c r="L31" t="n">
-        <v>291.0320497290482</v>
+        <v>291.0320497290483</v>
       </c>
       <c r="M31" t="n">
         <v>306.8524907348647</v>
@@ -33354,25 +33354,25 @@
         <v>299.5562243542296</v>
       </c>
       <c r="O31" t="n">
-        <v>276.6886577710188</v>
+        <v>276.6886577710189</v>
       </c>
       <c r="P31" t="n">
-        <v>236.7549461657854</v>
+        <v>236.7549461657855</v>
       </c>
       <c r="Q31" t="n">
         <v>163.9168527610531</v>
       </c>
       <c r="R31" t="n">
-        <v>88.01788663078584</v>
+        <v>88.01788663078587</v>
       </c>
       <c r="S31" t="n">
-        <v>34.11449427238504</v>
+        <v>34.11449427238505</v>
       </c>
       <c r="T31" t="n">
-        <v>8.364012680240466</v>
+        <v>8.364012680240467</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1067746299605167</v>
+        <v>0.1067746299605168</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.363988226191966</v>
+        <v>4.363988226191967</v>
       </c>
       <c r="H32" t="n">
-        <v>44.69269442148848</v>
+        <v>44.6926944214885</v>
       </c>
       <c r="I32" t="n">
-        <v>168.2426560902659</v>
+        <v>168.242656090266</v>
       </c>
       <c r="J32" t="n">
-        <v>370.3880457127607</v>
+        <v>370.3880457127608</v>
       </c>
       <c r="K32" t="n">
-        <v>555.1156673274668</v>
+        <v>555.1156673274669</v>
       </c>
       <c r="L32" t="n">
-        <v>688.6700720047893</v>
+        <v>688.6700720047894</v>
       </c>
       <c r="M32" t="n">
-        <v>766.2781476223306</v>
+        <v>766.2781476223308</v>
       </c>
       <c r="N32" t="n">
-        <v>778.6773291699986</v>
+        <v>778.6773291699988</v>
       </c>
       <c r="O32" t="n">
-        <v>735.2829212458022</v>
+        <v>735.2829212458023</v>
       </c>
       <c r="P32" t="n">
-        <v>627.546961911688</v>
+        <v>627.5469619116881</v>
       </c>
       <c r="Q32" t="n">
-        <v>471.261633561188</v>
+        <v>471.2616335611881</v>
       </c>
       <c r="R32" t="n">
-        <v>274.1293754135313</v>
+        <v>274.1293754135314</v>
       </c>
       <c r="S32" t="n">
-        <v>99.44438170434952</v>
+        <v>99.44438170434955</v>
       </c>
       <c r="T32" t="n">
         <v>19.10335846015534</v>
       </c>
       <c r="U32" t="n">
-        <v>0.3491190580953572</v>
+        <v>0.3491190580953573</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,31 +33488,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.334939549513939</v>
+        <v>2.33493954951394</v>
       </c>
       <c r="H33" t="n">
-        <v>22.55060038609515</v>
+        <v>22.55060038609516</v>
       </c>
       <c r="I33" t="n">
-        <v>80.39155905124748</v>
+        <v>80.3915590512475</v>
       </c>
       <c r="J33" t="n">
         <v>220.600582614385</v>
       </c>
       <c r="K33" t="n">
-        <v>377.0415324318189</v>
+        <v>377.041532431819</v>
       </c>
       <c r="L33" t="n">
-        <v>506.9788701696823</v>
+        <v>506.9788701696824</v>
       </c>
       <c r="M33" t="n">
-        <v>591.6204288395625</v>
+        <v>591.6204288395626</v>
       </c>
       <c r="N33" t="n">
-        <v>607.278861169417</v>
+        <v>607.2788611694172</v>
       </c>
       <c r="O33" t="n">
-        <v>555.5415164143976</v>
+        <v>555.5415164143977</v>
       </c>
       <c r="P33" t="n">
         <v>445.8710443277978</v>
@@ -33527,7 +33527,7 @@
         <v>43.37047803592775</v>
       </c>
       <c r="T33" t="n">
-        <v>9.411444938611005</v>
+        <v>9.411444938611007</v>
       </c>
       <c r="U33" t="n">
         <v>0.1536144440469698</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.957534882609471</v>
+        <v>1.957534882609472</v>
       </c>
       <c r="H34" t="n">
-        <v>17.40426468356422</v>
+        <v>17.40426468356423</v>
       </c>
       <c r="I34" t="n">
-        <v>58.86841265156485</v>
+        <v>58.86841265156486</v>
       </c>
       <c r="J34" t="n">
         <v>138.3977162004896</v>
@@ -33582,7 +33582,7 @@
         <v>227.4299618159004</v>
       </c>
       <c r="L34" t="n">
-        <v>291.0320497290482</v>
+        <v>291.0320497290483</v>
       </c>
       <c r="M34" t="n">
         <v>306.8524907348647</v>
@@ -33591,25 +33591,25 @@
         <v>299.5562243542296</v>
       </c>
       <c r="O34" t="n">
-        <v>276.6886577710188</v>
+        <v>276.6886577710189</v>
       </c>
       <c r="P34" t="n">
-        <v>236.7549461657854</v>
+        <v>236.7549461657855</v>
       </c>
       <c r="Q34" t="n">
         <v>163.9168527610531</v>
       </c>
       <c r="R34" t="n">
-        <v>88.01788663078584</v>
+        <v>88.01788663078587</v>
       </c>
       <c r="S34" t="n">
-        <v>34.11449427238504</v>
+        <v>34.11449427238505</v>
       </c>
       <c r="T34" t="n">
-        <v>8.364012680240466</v>
+        <v>8.364012680240467</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1067746299605167</v>
+        <v>0.1067746299605168</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -35179,7 +35179,7 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="N8" t="n">
         <v>14.68444509028111</v>
@@ -35188,7 +35188,7 @@
         <v>15.30273751513505</v>
       </c>
       <c r="P8" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35255,22 +35255,22 @@
         <v>15.30273751513505</v>
       </c>
       <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="M9" t="n">
+      <c r="N9" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
         <v>14.68444509028111</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>15.30273751513505</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35334,7 +35334,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>15.30273751513505</v>
+        <v>14.68444509028111</v>
       </c>
       <c r="M10" t="n">
         <v>15.30273751513505</v>
@@ -35343,7 +35343,7 @@
         <v>15.30273751513505</v>
       </c>
       <c r="O10" t="n">
-        <v>14.68444509028111</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35410,28 +35410,28 @@
         <v>189.3421411860745</v>
       </c>
       <c r="K11" t="n">
-        <v>335.0258162824862</v>
+        <v>335.0258162824863</v>
       </c>
       <c r="L11" t="n">
-        <v>452.9036570348021</v>
+        <v>452.9036570348022</v>
       </c>
       <c r="M11" t="n">
-        <v>535.9319143950579</v>
+        <v>535.9319143950581</v>
       </c>
       <c r="N11" t="n">
         <v>549.2642655734078</v>
       </c>
       <c r="O11" t="n">
-        <v>505.1847098241154</v>
+        <v>505.1847098241155</v>
       </c>
       <c r="P11" t="n">
-        <v>396.3139661564184</v>
+        <v>396.3139661564185</v>
       </c>
       <c r="Q11" t="n">
-        <v>248.9559436867385</v>
+        <v>248.9559436867386</v>
       </c>
       <c r="R11" t="n">
-        <v>58.54383759939918</v>
+        <v>58.54383759939924</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>93.76295594771827</v>
+        <v>97.97052642701064</v>
       </c>
       <c r="K12" t="n">
-        <v>239.2000934574599</v>
+        <v>239.20009345746</v>
       </c>
       <c r="L12" t="n">
-        <v>372.6320608691008</v>
+        <v>368.4244903898082</v>
       </c>
       <c r="M12" t="n">
-        <v>449.4863949175441</v>
+        <v>449.4863949175443</v>
       </c>
       <c r="N12" t="n">
-        <v>475.9371490860838</v>
+        <v>475.9371490860839</v>
       </c>
       <c r="O12" t="n">
-        <v>412.9452719699532</v>
+        <v>412.9452719699533</v>
       </c>
       <c r="P12" t="n">
-        <v>311.8966369134675</v>
+        <v>311.8966369134676</v>
       </c>
       <c r="Q12" t="n">
-        <v>158.0712112168455</v>
+        <v>158.0712112168456</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>49.28045492301221</v>
+        <v>49.28045492301223</v>
       </c>
       <c r="K13" t="n">
         <v>209.4023888292129</v>
@@ -35574,10 +35574,10 @@
         <v>322.8639938285597</v>
       </c>
       <c r="M13" t="n">
-        <v>350.6782865359006</v>
+        <v>350.6782865359007</v>
       </c>
       <c r="N13" t="n">
-        <v>347.9303155726535</v>
+        <v>347.9303155726536</v>
       </c>
       <c r="O13" t="n">
         <v>305.5157045242539</v>
@@ -35586,7 +35586,7 @@
         <v>238.2754242698743</v>
       </c>
       <c r="Q13" t="n">
-        <v>81.99672834855409</v>
+        <v>81.99672834855413</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>358.4387563581482</v>
+        <v>189.3421411860745</v>
       </c>
       <c r="K14" t="n">
-        <v>335.0258162824862</v>
+        <v>659.1712288536511</v>
       </c>
       <c r="L14" t="n">
-        <v>452.9036570348021</v>
+        <v>452.9036570348022</v>
       </c>
       <c r="M14" t="n">
-        <v>535.9319143950579</v>
+        <v>535.9319143950581</v>
       </c>
       <c r="N14" t="n">
         <v>549.2642655734078</v>
       </c>
       <c r="O14" t="n">
-        <v>505.1847098241154</v>
+        <v>820.0928449604312</v>
       </c>
       <c r="P14" t="n">
-        <v>588.2394881589385</v>
+        <v>396.3139661564185</v>
       </c>
       <c r="Q14" t="n">
-        <v>461.2709343466432</v>
+        <v>248.9559436867386</v>
       </c>
       <c r="R14" t="n">
-        <v>124.2602574723816</v>
+        <v>58.54383759939924</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>97.97052642701082</v>
+        <v>93.76295594771832</v>
       </c>
       <c r="K15" t="n">
-        <v>239.2000934574599</v>
+        <v>239.20009345746</v>
       </c>
       <c r="L15" t="n">
-        <v>368.4244903898081</v>
+        <v>372.6320608691004</v>
       </c>
       <c r="M15" t="n">
-        <v>449.4863949175441</v>
+        <v>449.4863949175443</v>
       </c>
       <c r="N15" t="n">
-        <v>475.9371490860838</v>
+        <v>475.9371490860839</v>
       </c>
       <c r="O15" t="n">
-        <v>412.9452719699532</v>
+        <v>412.9452719699533</v>
       </c>
       <c r="P15" t="n">
-        <v>311.8966369134675</v>
+        <v>311.8966369134676</v>
       </c>
       <c r="Q15" t="n">
-        <v>158.0712112168455</v>
+        <v>158.0712112168456</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>49.28045492301221</v>
+        <v>49.28045492301223</v>
       </c>
       <c r="K16" t="n">
         <v>209.4023888292129</v>
@@ -35811,7 +35811,7 @@
         <v>322.8639938285597</v>
       </c>
       <c r="M16" t="n">
-        <v>350.6782865359006</v>
+        <v>350.6782865359007</v>
       </c>
       <c r="N16" t="n">
         <v>347.9303155726536</v>
@@ -35823,7 +35823,7 @@
         <v>238.2754242698743</v>
       </c>
       <c r="Q16" t="n">
-        <v>81.99672834855409</v>
+        <v>81.99672834855413</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>291.9352856624865</v>
+        <v>189.3421411860745</v>
       </c>
       <c r="K17" t="n">
-        <v>659.171228853651</v>
+        <v>335.0258162824863</v>
       </c>
       <c r="L17" t="n">
-        <v>452.9036570348021</v>
+        <v>870.5648715852526</v>
       </c>
       <c r="M17" t="n">
-        <v>535.9319143950579</v>
+        <v>535.9319143950581</v>
       </c>
       <c r="N17" t="n">
         <v>549.2642655734078</v>
       </c>
       <c r="O17" t="n">
-        <v>505.1847098241154</v>
+        <v>505.1847098241155</v>
       </c>
       <c r="P17" t="n">
-        <v>396.3139661564184</v>
+        <v>551.9898794404663</v>
       </c>
       <c r="Q17" t="n">
-        <v>461.2709343466432</v>
+        <v>248.9559436867386</v>
       </c>
       <c r="R17" t="n">
-        <v>58.54383759939918</v>
+        <v>124.2602574723817</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>93.76295594771827</v>
+        <v>93.76295594771832</v>
       </c>
       <c r="K18" t="n">
-        <v>239.2000934574599</v>
+        <v>239.20009345746</v>
       </c>
       <c r="L18" t="n">
-        <v>368.4244903898081</v>
+        <v>368.4244903898082</v>
       </c>
       <c r="M18" t="n">
-        <v>449.4863949175441</v>
+        <v>449.4863949175443</v>
       </c>
       <c r="N18" t="n">
-        <v>475.9371490860838</v>
+        <v>475.9371490860839</v>
       </c>
       <c r="O18" t="n">
-        <v>412.9452719699532</v>
+        <v>417.1528424492456</v>
       </c>
       <c r="P18" t="n">
-        <v>311.8966369134675</v>
+        <v>311.8966369134676</v>
       </c>
       <c r="Q18" t="n">
-        <v>158.0712112168455</v>
+        <v>158.0712112168456</v>
       </c>
       <c r="R18" t="n">
-        <v>4.207570479292547</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>92.35905812754385</v>
+        <v>92.35905812754392</v>
       </c>
       <c r="K19" t="n">
-        <v>252.4809920337445</v>
+        <v>252.4809920337446</v>
       </c>
       <c r="L19" t="n">
-        <v>365.9425970330933</v>
+        <v>365.9425970330914</v>
       </c>
       <c r="M19" t="n">
-        <v>393.7568897404323</v>
+        <v>393.7568897404324</v>
       </c>
       <c r="N19" t="n">
-        <v>391.0089187771852</v>
+        <v>391.0089187771853</v>
       </c>
       <c r="O19" t="n">
-        <v>348.5943077287855</v>
+        <v>348.5943077287856</v>
       </c>
       <c r="P19" t="n">
-        <v>281.3540274744059</v>
+        <v>281.354027474406</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.0753315530857</v>
+        <v>125.0753315530858</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>358.4387563581482</v>
+        <v>189.3421411860745</v>
       </c>
       <c r="K20" t="n">
-        <v>335.0258162824862</v>
+        <v>335.0258162824863</v>
       </c>
       <c r="L20" t="n">
-        <v>452.9036570348021</v>
+        <v>452.9036570348022</v>
       </c>
       <c r="M20" t="n">
-        <v>535.9319143950579</v>
+        <v>737.6385376905539</v>
       </c>
       <c r="N20" t="n">
-        <v>549.2642655734078</v>
+        <v>986.611189985392</v>
       </c>
       <c r="O20" t="n">
-        <v>505.1847098241154</v>
+        <v>505.1847098241155</v>
       </c>
       <c r="P20" t="n">
-        <v>718.112674327901</v>
+        <v>396.3139661564185</v>
       </c>
       <c r="Q20" t="n">
-        <v>397.114168050663</v>
+        <v>248.9559436867386</v>
       </c>
       <c r="R20" t="n">
-        <v>58.54383759939918</v>
+        <v>58.54383759939924</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>97.97052642701082</v>
+        <v>93.76295594771832</v>
       </c>
       <c r="K21" t="n">
-        <v>239.2000934574599</v>
+        <v>239.20009345746</v>
       </c>
       <c r="L21" t="n">
-        <v>368.4244903898081</v>
+        <v>368.4244903898082</v>
       </c>
       <c r="M21" t="n">
-        <v>449.4863949175441</v>
+        <v>449.4863949175443</v>
       </c>
       <c r="N21" t="n">
-        <v>475.9371490860838</v>
+        <v>475.9371490860839</v>
       </c>
       <c r="O21" t="n">
-        <v>412.9452719699532</v>
+        <v>412.9452719699533</v>
       </c>
       <c r="P21" t="n">
-        <v>311.8966369134675</v>
+        <v>311.8966369134676</v>
       </c>
       <c r="Q21" t="n">
-        <v>158.0712112168455</v>
+        <v>162.2787816961375</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>92.3590581275439</v>
+        <v>92.35905812754392</v>
       </c>
       <c r="K22" t="n">
         <v>252.4809920337446</v>
@@ -36285,16 +36285,16 @@
         <v>365.9425970330914</v>
       </c>
       <c r="M22" t="n">
-        <v>393.7568897404323</v>
+        <v>393.7568897404324</v>
       </c>
       <c r="N22" t="n">
-        <v>391.0089187771853</v>
+        <v>391.0089187771854</v>
       </c>
       <c r="O22" t="n">
         <v>348.5943077287856</v>
       </c>
       <c r="P22" t="n">
-        <v>281.3540274744059</v>
+        <v>281.354027474406</v>
       </c>
       <c r="Q22" t="n">
         <v>125.0753315530858</v>
@@ -36355,16 +36355,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>330.1432287555209</v>
+        <v>189.3421411860745</v>
       </c>
       <c r="K23" t="n">
-        <v>335.0258162824863</v>
+        <v>626.1434890634691</v>
       </c>
       <c r="L23" t="n">
         <v>452.9036570348022</v>
       </c>
       <c r="M23" t="n">
-        <v>535.9319143950581</v>
+        <v>985.4454478878906</v>
       </c>
       <c r="N23" t="n">
         <v>549.2642655734078</v>
@@ -36373,13 +36373,13 @@
         <v>505.1847098241155</v>
       </c>
       <c r="P23" t="n">
-        <v>718.1126743279012</v>
+        <v>396.3139661564185</v>
       </c>
       <c r="Q23" t="n">
-        <v>461.2709343466433</v>
+        <v>248.9559436867386</v>
       </c>
       <c r="R23" t="n">
-        <v>124.2602574723817</v>
+        <v>58.54383759939924</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,7 +36437,7 @@
         <v>93.76295594771832</v>
       </c>
       <c r="K24" t="n">
-        <v>239.20009345746</v>
+        <v>243.4076639367522</v>
       </c>
       <c r="L24" t="n">
         <v>368.4244903898082</v>
@@ -36452,7 +36452,7 @@
         <v>412.9452719699533</v>
       </c>
       <c r="P24" t="n">
-        <v>316.1042073927602</v>
+        <v>311.8966369134676</v>
       </c>
       <c r="Q24" t="n">
         <v>158.0712112168456</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>92.35905812754393</v>
+        <v>92.35905812754392</v>
       </c>
       <c r="K25" t="n">
         <v>252.4809920337446</v>
@@ -36531,7 +36531,7 @@
         <v>348.5943077287856</v>
       </c>
       <c r="P25" t="n">
-        <v>281.3540274744061</v>
+        <v>281.354027474406</v>
       </c>
       <c r="Q25" t="n">
         <v>125.0753315530858</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>358.4387563581482</v>
+        <v>189.3421411860745</v>
       </c>
       <c r="K26" t="n">
-        <v>659.171228853651</v>
+        <v>335.0258162824863</v>
       </c>
       <c r="L26" t="n">
-        <v>452.9036570348021</v>
+        <v>870.5648715852526</v>
       </c>
       <c r="M26" t="n">
-        <v>535.9319143950579</v>
+        <v>535.9319143950581</v>
       </c>
       <c r="N26" t="n">
         <v>549.2642655734078</v>
       </c>
       <c r="O26" t="n">
-        <v>505.1847098241154</v>
+        <v>505.1847098241155</v>
       </c>
       <c r="P26" t="n">
-        <v>704.2958023226826</v>
+        <v>718.1126743279012</v>
       </c>
       <c r="Q26" t="n">
-        <v>248.9559436867385</v>
+        <v>248.9559436867386</v>
       </c>
       <c r="R26" t="n">
-        <v>58.54383759939918</v>
+        <v>120.3077787869677</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>93.76295594771827</v>
+        <v>93.76295594771832</v>
       </c>
       <c r="K27" t="n">
-        <v>239.2000934574599</v>
+        <v>239.20009345746</v>
       </c>
       <c r="L27" t="n">
-        <v>368.4244903898081</v>
+        <v>368.4244903898082</v>
       </c>
       <c r="M27" t="n">
-        <v>449.4863949175441</v>
+        <v>449.4863949175443</v>
       </c>
       <c r="N27" t="n">
-        <v>480.1447195653762</v>
+        <v>475.9371490860839</v>
       </c>
       <c r="O27" t="n">
-        <v>412.9452719699532</v>
+        <v>417.1528424492454</v>
       </c>
       <c r="P27" t="n">
-        <v>311.8966369134675</v>
+        <v>311.8966369134676</v>
       </c>
       <c r="Q27" t="n">
-        <v>158.0712112168455</v>
+        <v>158.0712112168456</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,13 +36750,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>88.11713928834853</v>
+        <v>88.11713928834851</v>
       </c>
       <c r="K28" t="n">
         <v>248.2390731945492</v>
       </c>
       <c r="L28" t="n">
-        <v>361.7006781938961</v>
+        <v>361.700678193896</v>
       </c>
       <c r="M28" t="n">
         <v>389.5149709012369</v>
@@ -36832,28 +36832,28 @@
         <v>189.3421411860745</v>
       </c>
       <c r="K29" t="n">
-        <v>659.171228853651</v>
+        <v>335.0258162824863</v>
       </c>
       <c r="L29" t="n">
-        <v>452.9036570348021</v>
+        <v>870.5648715852526</v>
       </c>
       <c r="M29" t="n">
-        <v>535.9319143950579</v>
+        <v>535.9319143950581</v>
       </c>
       <c r="N29" t="n">
         <v>549.2642655734078</v>
       </c>
       <c r="O29" t="n">
-        <v>505.1847098241154</v>
+        <v>566.9486510116845</v>
       </c>
       <c r="P29" t="n">
-        <v>718.112674327901</v>
+        <v>718.1126743279012</v>
       </c>
       <c r="Q29" t="n">
-        <v>404.235686853593</v>
+        <v>248.9559436867386</v>
       </c>
       <c r="R29" t="n">
-        <v>58.54383759939918</v>
+        <v>58.54383759939924</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>93.76295594771827</v>
+        <v>93.76295594771832</v>
       </c>
       <c r="K30" t="n">
-        <v>239.2000934574599</v>
+        <v>239.20009345746</v>
       </c>
       <c r="L30" t="n">
-        <v>368.4244903898081</v>
+        <v>368.4244903898082</v>
       </c>
       <c r="M30" t="n">
-        <v>449.4863949175441</v>
+        <v>449.4863949175443</v>
       </c>
       <c r="N30" t="n">
-        <v>475.9371490860838</v>
+        <v>480.1447195653759</v>
       </c>
       <c r="O30" t="n">
-        <v>412.9452719699532</v>
+        <v>412.9452719699533</v>
       </c>
       <c r="P30" t="n">
-        <v>316.1042073927602</v>
+        <v>311.8966369134676</v>
       </c>
       <c r="Q30" t="n">
-        <v>158.0712112168455</v>
+        <v>158.0712112168456</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,13 +36987,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>88.11713928834853</v>
+        <v>88.11713928834851</v>
       </c>
       <c r="K31" t="n">
         <v>248.2390731945492</v>
       </c>
       <c r="L31" t="n">
-        <v>361.7006781938961</v>
+        <v>361.700678193896</v>
       </c>
       <c r="M31" t="n">
         <v>389.5149709012369</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>358.4387563581482</v>
+        <v>358.4387563581483</v>
       </c>
       <c r="K32" t="n">
-        <v>335.0258162824862</v>
+        <v>457.0468738913953</v>
       </c>
       <c r="L32" t="n">
-        <v>452.9036570348021</v>
+        <v>452.9036570348022</v>
       </c>
       <c r="M32" t="n">
-        <v>985.4454478878904</v>
+        <v>985.4454478878906</v>
       </c>
       <c r="N32" t="n">
         <v>549.2642655734078</v>
       </c>
       <c r="O32" t="n">
-        <v>505.1847098241154</v>
+        <v>505.1847098241155</v>
       </c>
       <c r="P32" t="n">
-        <v>396.3139661564184</v>
+        <v>396.3139661564185</v>
       </c>
       <c r="Q32" t="n">
-        <v>305.2605814226652</v>
+        <v>248.9559436867386</v>
       </c>
       <c r="R32" t="n">
-        <v>124.2602574723816</v>
+        <v>58.54383759939924</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>93.76295594771827</v>
+        <v>93.76295594771832</v>
       </c>
       <c r="K33" t="n">
-        <v>239.2000934574599</v>
+        <v>239.20009345746</v>
       </c>
       <c r="L33" t="n">
-        <v>368.4244903898081</v>
+        <v>368.4244903898082</v>
       </c>
       <c r="M33" t="n">
-        <v>449.4863949175441</v>
+        <v>449.4863949175443</v>
       </c>
       <c r="N33" t="n">
-        <v>475.9371490860838</v>
+        <v>475.9371490860839</v>
       </c>
       <c r="O33" t="n">
-        <v>417.1528424492458</v>
+        <v>412.9452719699533</v>
       </c>
       <c r="P33" t="n">
-        <v>311.8966369134675</v>
+        <v>316.1042073927602</v>
       </c>
       <c r="Q33" t="n">
-        <v>158.0712112168455</v>
+        <v>158.0712112168456</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.35905812754393</v>
+        <v>92.35905812754392</v>
       </c>
       <c r="K34" t="n">
         <v>252.4809920337446</v>
@@ -37318,13 +37318,13 @@
         <v>549.2642655734078</v>
       </c>
       <c r="O35" t="n">
-        <v>505.1847098241155</v>
+        <v>885.9848910868609</v>
       </c>
       <c r="P35" t="n">
-        <v>689.8171467252723</v>
+        <v>396.3139661564185</v>
       </c>
       <c r="Q35" t="n">
-        <v>461.2709343466433</v>
+        <v>373.9739336527512</v>
       </c>
       <c r="R35" t="n">
         <v>124.2602574723817</v>
@@ -37391,7 +37391,7 @@
         <v>368.4244903898082</v>
       </c>
       <c r="M36" t="n">
-        <v>449.4863949175443</v>
+        <v>453.6939653968365</v>
       </c>
       <c r="N36" t="n">
         <v>475.9371490860839</v>
@@ -37406,7 +37406,7 @@
         <v>158.0712112168456</v>
       </c>
       <c r="R36" t="n">
-        <v>4.207570479292547</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,13 +37461,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.35905812754396</v>
+        <v>92.35905812754395</v>
       </c>
       <c r="K37" t="n">
         <v>252.4809920337446</v>
       </c>
       <c r="L37" t="n">
-        <v>365.9425970330915</v>
+        <v>365.9425970330914</v>
       </c>
       <c r="M37" t="n">
         <v>393.7568897404324</v>
@@ -37476,7 +37476,7 @@
         <v>391.0089187771853</v>
       </c>
       <c r="O37" t="n">
-        <v>348.5943077287857</v>
+        <v>348.5943077287856</v>
       </c>
       <c r="P37" t="n">
         <v>281.3540274744061</v>
@@ -37540,10 +37540,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>358.4387563581483</v>
+        <v>189.3421411860745</v>
       </c>
       <c r="K38" t="n">
-        <v>335.0258162824863</v>
+        <v>416.8254307606687</v>
       </c>
       <c r="L38" t="n">
         <v>452.9036570348022</v>
@@ -37555,10 +37555,10 @@
         <v>549.2642655734078</v>
       </c>
       <c r="O38" t="n">
-        <v>505.1847098241155</v>
+        <v>885.9848910868609</v>
       </c>
       <c r="P38" t="n">
-        <v>689.8171467252714</v>
+        <v>396.3139661564185</v>
       </c>
       <c r="Q38" t="n">
         <v>461.2709343466433</v>
@@ -37628,13 +37628,13 @@
         <v>368.4244903898082</v>
       </c>
       <c r="M39" t="n">
-        <v>449.4863949175443</v>
+        <v>453.6939653968365</v>
       </c>
       <c r="N39" t="n">
         <v>475.9371490860839</v>
       </c>
       <c r="O39" t="n">
-        <v>417.1528424492456</v>
+        <v>412.9452719699533</v>
       </c>
       <c r="P39" t="n">
         <v>311.8966369134676</v>
@@ -37704,7 +37704,7 @@
         <v>252.4809920337446</v>
       </c>
       <c r="L40" t="n">
-        <v>365.9425970330915</v>
+        <v>365.9425970330914</v>
       </c>
       <c r="M40" t="n">
         <v>393.7568897404324</v>
@@ -37713,7 +37713,7 @@
         <v>391.0089187771853</v>
       </c>
       <c r="O40" t="n">
-        <v>348.5943077287857</v>
+        <v>348.5943077287856</v>
       </c>
       <c r="P40" t="n">
         <v>281.3540274744061</v>
@@ -37777,10 +37777,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>358.4387563581483</v>
+        <v>189.3421411860745</v>
       </c>
       <c r="K41" t="n">
-        <v>628.5289968513403</v>
+        <v>335.0258162824863</v>
       </c>
       <c r="L41" t="n">
         <v>452.9036570348022</v>
@@ -37789,16 +37789,16 @@
         <v>535.9319143950581</v>
       </c>
       <c r="N41" t="n">
-        <v>549.2642655734078</v>
+        <v>986.611189985392</v>
       </c>
       <c r="O41" t="n">
         <v>505.1847098241155</v>
       </c>
       <c r="P41" t="n">
-        <v>396.3139661564185</v>
+        <v>633.881828145267</v>
       </c>
       <c r="Q41" t="n">
-        <v>461.2709343466433</v>
+        <v>248.9559436867386</v>
       </c>
       <c r="R41" t="n">
         <v>124.2602574723817</v>
@@ -37868,7 +37868,7 @@
         <v>449.4863949175443</v>
       </c>
       <c r="N42" t="n">
-        <v>475.9371490860839</v>
+        <v>480.1447195653762</v>
       </c>
       <c r="O42" t="n">
         <v>412.9452719699533</v>
@@ -37880,7 +37880,7 @@
         <v>158.0712112168456</v>
       </c>
       <c r="R42" t="n">
-        <v>4.207570479292547</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,13 +37935,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.35905812754393</v>
+        <v>92.3590581275439</v>
       </c>
       <c r="K43" t="n">
         <v>252.4809920337446</v>
       </c>
       <c r="L43" t="n">
-        <v>365.9425970330915</v>
+        <v>365.9425970330914</v>
       </c>
       <c r="M43" t="n">
         <v>393.7568897404324</v>
@@ -37953,10 +37953,10 @@
         <v>348.5943077287856</v>
       </c>
       <c r="P43" t="n">
-        <v>281.354027474406</v>
+        <v>281.354027474407</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.0753315530856</v>
+        <v>125.0753315530858</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,13 +38014,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>358.4387563581483</v>
+        <v>189.3421411860745</v>
       </c>
       <c r="K44" t="n">
         <v>335.0258162824863</v>
       </c>
       <c r="L44" t="n">
-        <v>452.9036570348022</v>
+        <v>870.5648715852526</v>
       </c>
       <c r="M44" t="n">
         <v>535.9319143950581</v>
@@ -38029,16 +38029,16 @@
         <v>549.2642655734078</v>
       </c>
       <c r="O44" t="n">
-        <v>505.1847098241155</v>
+        <v>828.154701547481</v>
       </c>
       <c r="P44" t="n">
-        <v>689.8171467252723</v>
+        <v>396.3139661564185</v>
       </c>
       <c r="Q44" t="n">
-        <v>461.2709343466433</v>
+        <v>248.9559436867386</v>
       </c>
       <c r="R44" t="n">
-        <v>124.2602574723817</v>
+        <v>58.54383759939924</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38114,10 +38114,10 @@
         <v>311.8966369134676</v>
       </c>
       <c r="Q45" t="n">
-        <v>158.0712112168456</v>
+        <v>162.2787816961379</v>
       </c>
       <c r="R45" t="n">
-        <v>4.207570479292547</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,13 +38172,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.35905812754393</v>
+        <v>92.3590581275439</v>
       </c>
       <c r="K46" t="n">
         <v>252.4809920337446</v>
       </c>
       <c r="L46" t="n">
-        <v>365.9425970330915</v>
+        <v>365.9425970330914</v>
       </c>
       <c r="M46" t="n">
         <v>393.7568897404324</v>
